--- a/data/nzd0061/nzd0061.xlsx
+++ b/data/nzd0061/nzd0061.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J221"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7901,6 +7901,142 @@
       <c r="J221" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>357.8930769230769</v>
+      </c>
+      <c r="C222" t="n">
+        <v>358.48</v>
+      </c>
+      <c r="D222" t="n">
+        <v>380.97</v>
+      </c>
+      <c r="E222" t="n">
+        <v>397.89</v>
+      </c>
+      <c r="F222" t="n">
+        <v>409.55</v>
+      </c>
+      <c r="G222" t="n">
+        <v>397.47</v>
+      </c>
+      <c r="H222" t="n">
+        <v>401.88</v>
+      </c>
+      <c r="I222" t="n">
+        <v>403.29</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>360.6861538461538</v>
+      </c>
+      <c r="C223" t="n">
+        <v>359.81</v>
+      </c>
+      <c r="D223" t="n">
+        <v>387.7985714285714</v>
+      </c>
+      <c r="E223" t="n">
+        <v>399.8733333333333</v>
+      </c>
+      <c r="F223" t="n">
+        <v>410.46</v>
+      </c>
+      <c r="G223" t="n">
+        <v>403.49</v>
+      </c>
+      <c r="H223" t="n">
+        <v>406.66</v>
+      </c>
+      <c r="I223" t="n">
+        <v>404.01</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="n">
+        <v>339.08</v>
+      </c>
+      <c r="D224" t="n">
+        <v>359.1657142857143</v>
+      </c>
+      <c r="E224" t="n">
+        <v>369</v>
+      </c>
+      <c r="F224" t="n">
+        <v>391.02</v>
+      </c>
+      <c r="G224" t="n">
+        <v>382.77</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>366.1753846153846</v>
+      </c>
+      <c r="C225" t="n">
+        <v>369.96</v>
+      </c>
+      <c r="D225" t="n">
+        <v>399.1242857142857</v>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="n">
+        <v>426.63</v>
+      </c>
+      <c r="G225" t="n">
+        <v>421.52</v>
+      </c>
+      <c r="H225" t="n">
+        <v>426.8</v>
+      </c>
+      <c r="I225" t="n">
+        <v>424.52</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7915,7 +8051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10203,6 +10339,46 @@
       </c>
       <c r="B228" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -10371,28 +10547,28 @@
         <v>0.0835</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.853960464322329</v>
+        <v>-1.86694673591895</v>
       </c>
       <c r="J2" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K2" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3046884574873241</v>
+        <v>0.3162293001545025</v>
       </c>
       <c r="M2" t="n">
-        <v>16.14734834785574</v>
+        <v>15.92781229089154</v>
       </c>
       <c r="N2" t="n">
-        <v>434.49504088011</v>
+        <v>427.7322584750755</v>
       </c>
       <c r="O2" t="n">
-        <v>20.84454463115253</v>
+        <v>20.68168896572704</v>
       </c>
       <c r="P2" t="n">
-        <v>412.6380323807406</v>
+        <v>412.7540727999104</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -10448,28 +10624,28 @@
         <v>0.0578</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.316377452724582</v>
+        <v>-2.307011880151206</v>
       </c>
       <c r="J3" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K3" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4997755409277019</v>
+        <v>0.5071928011407647</v>
       </c>
       <c r="M3" t="n">
-        <v>12.84677679110806</v>
+        <v>12.80228042620151</v>
       </c>
       <c r="N3" t="n">
-        <v>298.7922655352306</v>
+        <v>295.3419841832666</v>
       </c>
       <c r="O3" t="n">
-        <v>17.28560862495824</v>
+        <v>17.18551669817543</v>
       </c>
       <c r="P3" t="n">
-        <v>413.5075656396592</v>
+        <v>413.421252224375</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -10525,28 +10701,28 @@
         <v>0.0401</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.481803881062694</v>
+        <v>-2.447377760484017</v>
       </c>
       <c r="J4" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K4" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5141959659185866</v>
+        <v>0.5138710359423988</v>
       </c>
       <c r="M4" t="n">
-        <v>14.34626377695624</v>
+        <v>14.37450141419861</v>
       </c>
       <c r="N4" t="n">
-        <v>322.3867416393139</v>
+        <v>321.6635581203948</v>
       </c>
       <c r="O4" t="n">
-        <v>17.95513134564361</v>
+        <v>17.93498140842066</v>
       </c>
       <c r="P4" t="n">
-        <v>436.1546113172927</v>
+        <v>435.8336928925438</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -10602,28 +10778,28 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.012709073312057</v>
+        <v>-2.018002821869705</v>
       </c>
       <c r="J5" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K5" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4282119384862598</v>
+        <v>0.4355457159494186</v>
       </c>
       <c r="M5" t="n">
-        <v>14.06192764765462</v>
+        <v>14.04022915709148</v>
       </c>
       <c r="N5" t="n">
-        <v>299.8467335010918</v>
+        <v>298.3465091968257</v>
       </c>
       <c r="O5" t="n">
-        <v>17.31608308772777</v>
+        <v>17.27270995521044</v>
       </c>
       <c r="P5" t="n">
-        <v>441.8671612246857</v>
+        <v>441.9161447305176</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -10679,28 +10855,28 @@
         <v>0.0275</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.7115983620872</v>
+        <v>-1.668536717096138</v>
       </c>
       <c r="J6" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K6" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L6" t="n">
-        <v>0.378195343812634</v>
+        <v>0.3719330966149583</v>
       </c>
       <c r="M6" t="n">
-        <v>13.26052632620741</v>
+        <v>13.28557265696024</v>
       </c>
       <c r="N6" t="n">
-        <v>272.1904495032581</v>
+        <v>272.2070937889538</v>
       </c>
       <c r="O6" t="n">
-        <v>16.49819534080192</v>
+        <v>16.49869976055549</v>
       </c>
       <c r="P6" t="n">
-        <v>442.0139348290043</v>
+        <v>441.6178410137143</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -10756,28 +10932,28 @@
         <v>0.027</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.051809458053077</v>
+        <v>-1.038070704050561</v>
       </c>
       <c r="J7" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K7" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2157935888189683</v>
+        <v>0.2159040922080705</v>
       </c>
       <c r="M7" t="n">
-        <v>11.64959513802081</v>
+        <v>11.62824551631444</v>
       </c>
       <c r="N7" t="n">
-        <v>227.6241481769333</v>
+        <v>227.1335838861448</v>
       </c>
       <c r="O7" t="n">
-        <v>15.08721803968291</v>
+        <v>15.07095165827775</v>
       </c>
       <c r="P7" t="n">
-        <v>424.711430592149</v>
+        <v>424.5844611347149</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -10827,28 +11003,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.8785945798447412</v>
+        <v>-0.8437708861235865</v>
       </c>
       <c r="J8" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K8" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1617286810466549</v>
+        <v>0.1535212171923653</v>
       </c>
       <c r="M8" t="n">
-        <v>11.15091163419023</v>
+        <v>11.11006620423134</v>
       </c>
       <c r="N8" t="n">
-        <v>223.5284277516488</v>
+        <v>223.7193285757578</v>
       </c>
       <c r="O8" t="n">
-        <v>14.9508671237373</v>
+        <v>14.9572500338718</v>
       </c>
       <c r="P8" t="n">
-        <v>423.0074214547523</v>
+        <v>422.6863335915443</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -10904,28 +11080,28 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3961639545226792</v>
+        <v>-0.3555493113239585</v>
       </c>
       <c r="J9" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K9" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0512431908860157</v>
+        <v>0.04213226104149548</v>
       </c>
       <c r="M9" t="n">
-        <v>10.18740747200053</v>
+        <v>10.20337594063022</v>
       </c>
       <c r="N9" t="n">
-        <v>161.8114375982558</v>
+        <v>163.3179961861395</v>
       </c>
       <c r="O9" t="n">
-        <v>12.72051247388468</v>
+        <v>12.77959295854682</v>
       </c>
       <c r="P9" t="n">
-        <v>407.7129197836377</v>
+        <v>407.3393028407921</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -10962,7 +11138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J221"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21454,6 +21630,198 @@
         </is>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>-35.17743279885787,173.11781795179317</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>-35.177925707455756,173.1184849480244</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>-35.17823845041369,173.11931127374217</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>-35.1784433736536,173.12013933413579</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>-35.17855485044618,173.12092541606887</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>-35.178732434812105,173.12173326522702</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>-35.17871337077813,173.1225911390769</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>-35.178631897296064,173.12345252348265</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>-35.17741424147118,173.1178386905596</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>-35.17791673633329,173.1184946418335</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>-35.17818798865054,173.11935424913528</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>-35.17842706543477,173.12014827443068</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>-35.17854683901859,173.12092757746572</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>-35.17867827333514,173.1217376924312</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>-35.17867029438734,173.12258932854058</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>-35.17862543570783,173.1234517545532</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>-35.17805656434091,173.11834354936374</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>-35.17839957957541,173.11917404882092</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>-35.1786809253941,173.1200091059405</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>-35.178717984230445,173.1208814042368</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>-35.17886468957874,173.121722454588</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>-35.17737777065066,173.1178794484053</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>-35.17784827247805,173.11856862083292</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>-35.178104293876,173.11942552703434</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>-35.17840448210488,173.12096598375487</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>-35.178516058808164,173.1217509519467</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>-35.178488796787356,173.12258170006845</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>-35.17844137018244,173.12342985079482</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0061/nzd0061.xlsx
+++ b/data/nzd0061/nzd0061.xlsx
@@ -10392,7 +10392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10483,35 +10483,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -10570,27 +10575,28 @@
       <c r="P2" t="n">
         <v>412.7540727999104</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.11516049589997 -35.17981063429018, 173.12203884906623 -35.17365562331349)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.1151604959</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.17981063429018</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.1220388490662</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.17365562331349</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.1185996724831</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.17673312880184</v>
       </c>
     </row>
@@ -10647,27 +10653,28 @@
       <c r="P3" t="n">
         <v>413.421252224375</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.11587206084218 -35.18034369987671, 173.1226237863357 -35.17409517459021)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.1158720608422</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.18034369987671</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.1226237863357</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.17409517459021</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.1192479235889</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.17721943723346</v>
       </c>
     </row>
@@ -10724,27 +10731,28 @@
       <c r="P4" t="n">
         <v>435.8336928925438</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.11691356730708 -35.18105371708237, 173.12274245020023 -35.17420931339213)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.1169135673071</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.18105371708237</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.1227424502002</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.17420931339213</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.1198280087536</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.17763151523725</v>
       </c>
     </row>
@@ -10801,27 +10809,28 @@
       <c r="P5" t="n">
         <v>441.9161447305176</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.118345688651 -35.18171506234682, 173.12251958330793 -35.17410124660879)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.118345688651</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.18171506234682</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.1225195833079</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.17410124660879</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.1204326359795</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.17790815447781</v>
       </c>
     </row>
@@ -10878,27 +10887,28 @@
       <c r="P6" t="n">
         <v>441.6178410137143</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.11995262590028 -35.182160428144435, 173.12215147317676 -35.1740100916512)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.1199526259003</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.18216042814444</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.1221514731768</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.1740100916512</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.1210520495385</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.17808525989781</v>
       </c>
     </row>
@@ -10955,27 +10965,28 @@
       <c r="P7" t="n">
         <v>424.5844611347149</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.1214409466818 -35.18230844042455, 173.12212172359727 -35.173979846639064)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.1214409466818</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.18230844042455</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.1221217235973</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.17397984663906</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.1217813351395</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.17814414353181</v>
       </c>
     </row>
@@ -11026,27 +11037,28 @@
       <c r="P8" t="n">
         <v>422.6863335915443</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.12274336756224 -35.18233503064185, 173.12239273779255 -35.17399271303823)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.1227433675622</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.18233503064185</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.1223927377926</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.17399271303823</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.1225680526774</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.17816387184004</v>
       </c>
     </row>
@@ -11103,27 +11115,28 @@
       <c r="P9" t="n">
         <v>407.3393028407921</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.12388323946794 -35.18225119251272, 173.12289461962752 -35.17394335702578)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.1238832394679</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.18225119251272</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.1228946196275</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.17394335702578</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.1233889295477</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.17809727476925</v>
       </c>
     </row>

--- a/data/nzd0061/nzd0061.xlsx
+++ b/data/nzd0061/nzd0061.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8021,7 +8021,9 @@
       <c r="D225" t="n">
         <v>399.1242857142857</v>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="n">
+        <v>410.5133333333333</v>
+      </c>
       <c r="F225" t="n">
         <v>426.63</v>
       </c>
@@ -8035,6 +8037,78 @@
         <v>424.52</v>
       </c>
       <c r="J225" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>417.9146153846153</v>
+      </c>
+      <c r="C226" t="n">
+        <v>349.33</v>
+      </c>
+      <c r="D226" t="n">
+        <v>372.0128571428572</v>
+      </c>
+      <c r="E226" t="n">
+        <v>380.8133333333333</v>
+      </c>
+      <c r="F226" t="n">
+        <v>399.36</v>
+      </c>
+      <c r="G226" t="n">
+        <v>392.06</v>
+      </c>
+      <c r="H226" t="n">
+        <v>394.88</v>
+      </c>
+      <c r="I226" t="n">
+        <v>392.21</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>435.2115384615385</v>
+      </c>
+      <c r="C227" t="n">
+        <v>345.33</v>
+      </c>
+      <c r="D227" t="n">
+        <v>357.1857142857143</v>
+      </c>
+      <c r="E227" t="n">
+        <v>383.0633333333333</v>
+      </c>
+      <c r="F227" t="n">
+        <v>400.42</v>
+      </c>
+      <c r="G227" t="n">
+        <v>406.37</v>
+      </c>
+      <c r="H227" t="n">
+        <v>407.74</v>
+      </c>
+      <c r="I227" t="n">
+        <v>397.42</v>
+      </c>
+      <c r="J227" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8051,7 +8125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10379,6 +10453,26 @@
       </c>
       <c r="B232" t="n">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -10552,28 +10646,28 @@
         <v>0.0835</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.86694673591895</v>
+        <v>-1.730347274073423</v>
       </c>
       <c r="J2" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K2" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3162293001545025</v>
+        <v>0.2711276180517869</v>
       </c>
       <c r="M2" t="n">
-        <v>15.92781229089154</v>
+        <v>16.67841387158173</v>
       </c>
       <c r="N2" t="n">
-        <v>427.7322584750755</v>
+        <v>463.9405810500336</v>
       </c>
       <c r="O2" t="n">
-        <v>20.68168896572704</v>
+        <v>21.53927995662886</v>
       </c>
       <c r="P2" t="n">
-        <v>412.7540727999104</v>
+        <v>411.5202453514324</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10630,28 +10724,28 @@
         <v>0.0578</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.307011880151206</v>
+        <v>-2.320731953234109</v>
       </c>
       <c r="J3" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K3" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5071928011407647</v>
+        <v>0.515376034206892</v>
       </c>
       <c r="M3" t="n">
-        <v>12.80228042620151</v>
+        <v>12.72142768617961</v>
       </c>
       <c r="N3" t="n">
-        <v>295.3419841832666</v>
+        <v>292.8512704222981</v>
       </c>
       <c r="O3" t="n">
-        <v>17.18551669817543</v>
+        <v>17.1128977798121</v>
       </c>
       <c r="P3" t="n">
-        <v>413.421252224375</v>
+        <v>413.5483948342998</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10708,28 +10802,28 @@
         <v>0.0401</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.447377760484017</v>
+        <v>-2.463738655442688</v>
       </c>
       <c r="J4" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K4" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5138710359423988</v>
+        <v>0.5216480203852875</v>
       </c>
       <c r="M4" t="n">
-        <v>14.37450141419861</v>
+        <v>14.31099881914403</v>
       </c>
       <c r="N4" t="n">
-        <v>321.6635581203948</v>
+        <v>319.6772459406</v>
       </c>
       <c r="O4" t="n">
-        <v>17.93498140842066</v>
+        <v>17.87952029391728</v>
       </c>
       <c r="P4" t="n">
-        <v>435.8336928925438</v>
+        <v>435.9877549886488</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10786,28 +10880,28 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.018002821869705</v>
+        <v>-2.014610095319596</v>
       </c>
       <c r="J5" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K5" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4355457159494186</v>
+        <v>0.4407433145200871</v>
       </c>
       <c r="M5" t="n">
-        <v>14.04022915709148</v>
+        <v>14.01345289954994</v>
       </c>
       <c r="N5" t="n">
-        <v>298.3465091968257</v>
+        <v>296.6016374092169</v>
       </c>
       <c r="O5" t="n">
-        <v>17.27270995521044</v>
+        <v>17.22212639046691</v>
       </c>
       <c r="P5" t="n">
-        <v>441.9161447305176</v>
+        <v>441.8854884257037</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -10864,28 +10958,28 @@
         <v>0.0275</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.668536717096138</v>
+        <v>-1.666512080560501</v>
       </c>
       <c r="J6" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K6" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3719330966149583</v>
+        <v>0.3764489624328943</v>
       </c>
       <c r="M6" t="n">
-        <v>13.28557265696024</v>
+        <v>13.1612110350359</v>
       </c>
       <c r="N6" t="n">
-        <v>272.2070937889538</v>
+        <v>269.4587787649764</v>
       </c>
       <c r="O6" t="n">
-        <v>16.49869976055549</v>
+        <v>16.41519962610801</v>
       </c>
       <c r="P6" t="n">
-        <v>441.6178410137143</v>
+        <v>441.5990350205681</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -10942,28 +11036,28 @@
         <v>0.027</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.038070704050561</v>
+        <v>-1.035519070159769</v>
       </c>
       <c r="J7" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K7" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2159040922080705</v>
+        <v>0.2184303730221864</v>
       </c>
       <c r="M7" t="n">
-        <v>11.62824551631444</v>
+        <v>11.58000660223814</v>
       </c>
       <c r="N7" t="n">
-        <v>227.1335838861448</v>
+        <v>225.3189228071642</v>
       </c>
       <c r="O7" t="n">
-        <v>15.07095165827775</v>
+        <v>15.01062699580415</v>
       </c>
       <c r="P7" t="n">
-        <v>424.5844611347149</v>
+        <v>424.560287928182</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -11014,28 +11108,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.8437708861235865</v>
+        <v>-0.8431604433112097</v>
       </c>
       <c r="J8" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K8" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1535212171923653</v>
+        <v>0.1561243842972804</v>
       </c>
       <c r="M8" t="n">
-        <v>11.11006620423134</v>
+        <v>11.06105843041385</v>
       </c>
       <c r="N8" t="n">
-        <v>223.7193285757578</v>
+        <v>221.8190582653296</v>
       </c>
       <c r="O8" t="n">
-        <v>14.9572500338718</v>
+        <v>14.89359118095195</v>
       </c>
       <c r="P8" t="n">
-        <v>422.6863335915443</v>
+        <v>422.6802077543676</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -11092,28 +11186,28 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3555493113239585</v>
+        <v>-0.3624657510556775</v>
       </c>
       <c r="J9" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K9" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04213226104149548</v>
+        <v>0.04465844178694034</v>
       </c>
       <c r="M9" t="n">
-        <v>10.20337594063022</v>
+        <v>10.13614912068358</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3179961861395</v>
+        <v>161.8059818783226</v>
       </c>
       <c r="O9" t="n">
-        <v>12.77959295854682</v>
+        <v>12.72029802631694</v>
       </c>
       <c r="P9" t="n">
-        <v>407.3393028407921</v>
+        <v>407.4031455130363</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -11151,7 +11245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21808,7 +21902,11 @@
           <t>-35.178104293876,173.11942552703434</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>-35.17833957662538,173.1201962364224</t>
+        </is>
+      </c>
       <c r="F225" t="inlineStr">
         <is>
           <t>-35.17840448210488,173.12096598375487</t>
@@ -21830,6 +21928,110 @@
         </is>
       </c>
       <c r="J225" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>-35.17703401102057,173.11826361330105</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>-35.177987426059,173.11841825747544</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>-35.178304641866035,173.11925490217322</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>-35.178583788759326,173.12006235729808</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>-35.17864456082436,173.12090121314563</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>-35.17878110816543,173.1217292866217</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>-35.17877645335814,173.12259379049343</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>-35.17873133395788,173.12346435646825</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>-35.17691908859126,173.11839204260383</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>-35.178014406857486,173.11838910310541</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>-35.178414211358046,173.11916158769597</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>-35.17856528784556,173.12007249968394</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>-35.178635228832405,173.12090373082216</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>-35.17865236219644,173.12173981042716</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>-35.17866056164629,173.12258891946573</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>-35.178684577188555,173.12345879239828</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0061/nzd0061.xlsx
+++ b/data/nzd0061/nzd0061.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19003,7 +19003,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-35.17835335115694,173.11921341911346</t>
+          <t>-35.178353351156936,173.11921341911346</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">

--- a/data/nzd0061/nzd0061.xlsx
+++ b/data/nzd0061/nzd0061.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J227"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8048,9 +8048,7 @@
           <t>2025-03-09 22:17:26+00:00</t>
         </is>
       </c>
-      <c r="B226" t="n">
-        <v>417.9146153846153</v>
-      </c>
+      <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
         <v>349.33</v>
       </c>
@@ -8084,9 +8082,7 @@
           <t>2025-05-04 22:17:17+00:00</t>
         </is>
       </c>
-      <c r="B227" t="n">
-        <v>435.2115384615385</v>
-      </c>
+      <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
         <v>345.33</v>
       </c>
@@ -8111,6 +8107,42 @@
       <c r="J227" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>360.2653846153846</v>
+      </c>
+      <c r="C228" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="D228" t="n">
+        <v>379.7628571428571</v>
+      </c>
+      <c r="E228" t="n">
+        <v>395.4966666666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>396.78</v>
+      </c>
+      <c r="G228" t="n">
+        <v>394.35</v>
+      </c>
+      <c r="H228" t="n">
+        <v>400.91</v>
+      </c>
+      <c r="I228" t="n">
+        <v>400.31</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10473,6 +10505,16 @@
       </c>
       <c r="B234" t="n">
         <v>-0.62</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -10646,28 +10688,28 @@
         <v>0.0835</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.730347274073423</v>
+        <v>-1.871842374443379</v>
       </c>
       <c r="J2" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K2" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2711276180517869</v>
+        <v>0.3203122168781541</v>
       </c>
       <c r="M2" t="n">
-        <v>16.67841387158173</v>
+        <v>15.85396314170686</v>
       </c>
       <c r="N2" t="n">
-        <v>463.9405810500336</v>
+        <v>425.480702406432</v>
       </c>
       <c r="O2" t="n">
-        <v>21.53927995662886</v>
+        <v>20.62718357911307</v>
       </c>
       <c r="P2" t="n">
-        <v>411.5202453514324</v>
+        <v>412.798635569182</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10724,28 +10766,28 @@
         <v>0.0578</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.320731953234109</v>
+        <v>-2.314194391004668</v>
       </c>
       <c r="J3" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K3" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L3" t="n">
-        <v>0.515376034206892</v>
+        <v>0.5166069441637017</v>
       </c>
       <c r="M3" t="n">
-        <v>12.72142768617961</v>
+        <v>12.70012675180809</v>
       </c>
       <c r="N3" t="n">
-        <v>292.8512704222981</v>
+        <v>291.5906742595644</v>
       </c>
       <c r="O3" t="n">
-        <v>17.1128977798121</v>
+        <v>17.07602630179412</v>
       </c>
       <c r="P3" t="n">
-        <v>413.5483948342998</v>
+        <v>413.4873231637952</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10802,28 +10844,28 @@
         <v>0.0401</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.463738655442688</v>
+        <v>-2.456646924758465</v>
       </c>
       <c r="J4" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K4" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5216480203852875</v>
+        <v>0.5227045341779066</v>
       </c>
       <c r="M4" t="n">
-        <v>14.31099881914403</v>
+        <v>14.27833313316804</v>
       </c>
       <c r="N4" t="n">
-        <v>319.6772459406</v>
+        <v>318.3613252373964</v>
       </c>
       <c r="O4" t="n">
-        <v>17.87952029391728</v>
+        <v>17.8426826805107</v>
       </c>
       <c r="P4" t="n">
-        <v>435.9877549886488</v>
+        <v>435.9205819558902</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10880,28 +10922,28 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.014610095319596</v>
+        <v>-2.009133049589054</v>
       </c>
       <c r="J5" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K5" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4407433145200871</v>
+        <v>0.4420270535871236</v>
       </c>
       <c r="M5" t="n">
-        <v>14.01345289954994</v>
+        <v>13.97248670153188</v>
       </c>
       <c r="N5" t="n">
-        <v>296.6016374092169</v>
+        <v>295.2880054681803</v>
       </c>
       <c r="O5" t="n">
-        <v>17.22212639046691</v>
+        <v>17.18394615529798</v>
       </c>
       <c r="P5" t="n">
-        <v>441.8854884257037</v>
+        <v>441.8342648917309</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -10958,28 +11000,28 @@
         <v>0.0275</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.666512080560501</v>
+        <v>-1.668227730811172</v>
       </c>
       <c r="J6" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K6" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3764489624328943</v>
+        <v>0.3794822317847877</v>
       </c>
       <c r="M6" t="n">
-        <v>13.1612110350359</v>
+        <v>13.10372293626971</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4587787649764</v>
+        <v>268.1136954843276</v>
       </c>
       <c r="O6" t="n">
-        <v>16.41519962610801</v>
+        <v>16.37417770406586</v>
       </c>
       <c r="P6" t="n">
-        <v>441.5990350205681</v>
+        <v>441.6150814700997</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11036,28 +11078,28 @@
         <v>0.027</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.035519070159769</v>
+        <v>-1.038941196097322</v>
       </c>
       <c r="J7" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K7" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2184303730221864</v>
+        <v>0.2214286877730199</v>
       </c>
       <c r="M7" t="n">
-        <v>11.58000660223814</v>
+        <v>11.54046835041636</v>
       </c>
       <c r="N7" t="n">
-        <v>225.3189228071642</v>
+        <v>224.2070689441562</v>
       </c>
       <c r="O7" t="n">
-        <v>15.01062699580415</v>
+        <v>14.97354563702786</v>
       </c>
       <c r="P7" t="n">
-        <v>424.560287928182</v>
+        <v>424.5923044344714</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -11108,28 +11150,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.8431604433112097</v>
+        <v>-0.8431573223538255</v>
       </c>
       <c r="J8" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K8" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1561243842972804</v>
+        <v>0.1576664007319</v>
       </c>
       <c r="M8" t="n">
-        <v>11.06105843041385</v>
+        <v>11.00346089204673</v>
       </c>
       <c r="N8" t="n">
-        <v>221.8190582653296</v>
+        <v>220.6637507184294</v>
       </c>
       <c r="O8" t="n">
-        <v>14.89359118095195</v>
+        <v>14.85475515511546</v>
       </c>
       <c r="P8" t="n">
-        <v>422.6802077543676</v>
+        <v>422.6801785492732</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -11186,28 +11228,28 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3624657510556775</v>
+        <v>-0.3601552238346608</v>
       </c>
       <c r="J9" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K9" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04465844178694034</v>
+        <v>0.04460706949325211</v>
       </c>
       <c r="M9" t="n">
-        <v>10.13614912068358</v>
+        <v>10.09401547890889</v>
       </c>
       <c r="N9" t="n">
-        <v>161.8059818783226</v>
+        <v>160.9937889821997</v>
       </c>
       <c r="O9" t="n">
-        <v>12.72029802631694</v>
+        <v>12.68833278970093</v>
       </c>
       <c r="P9" t="n">
-        <v>407.4031455130363</v>
+        <v>407.3815640131672</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -11245,7 +11287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J227"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21939,11 +21981,7 @@
           <t>2025-03-09 22:17:26+00:00</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>-35.17703401102057,173.11826361330105</t>
-        </is>
-      </c>
+      <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr">
         <is>
           <t>-35.177987426059,173.11841825747544</t>
@@ -21991,11 +22029,7 @@
           <t>2025-05-04 22:17:17+00:00</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>-35.17691908859126,173.11839204260383</t>
-        </is>
-      </c>
+      <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr">
         <is>
           <t>-35.178014406857486,173.11838910310541</t>
@@ -22034,6 +22068,58 @@
       <c r="J227" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>-35.177417037089846,173.117835566323</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>-35.17791376844298,173.1184978488075</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>-35.17824737095389,173.11930367662217</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>-35.178463053150345,173.12012854567436</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>-35.178667274540345,173.1208950852136</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>-35.17876050521186,173.12173097072693</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>-35.178722112221394,173.12259150648723</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>-35.178658641091666,173.12345570599757</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0061/nzd0061.xlsx
+++ b/data/nzd0061/nzd0061.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8143,6 +8143,78 @@
       <c r="J228" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>354.2446153846154</v>
+      </c>
+      <c r="C229" t="n">
+        <v>352.54</v>
+      </c>
+      <c r="D229" t="n">
+        <v>371.58</v>
+      </c>
+      <c r="E229" t="n">
+        <v>381.2766666666667</v>
+      </c>
+      <c r="F229" t="n">
+        <v>387.69</v>
+      </c>
+      <c r="G229" t="n">
+        <v>376.38</v>
+      </c>
+      <c r="H229" t="n">
+        <v>379.51</v>
+      </c>
+      <c r="I229" t="n">
+        <v>398.16</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>367.0738461538461</v>
+      </c>
+      <c r="C230" t="n">
+        <v>358.92</v>
+      </c>
+      <c r="D230" t="n">
+        <v>382.8571428571428</v>
+      </c>
+      <c r="E230" t="n">
+        <v>388.11</v>
+      </c>
+      <c r="F230" t="n">
+        <v>389.45</v>
+      </c>
+      <c r="G230" t="n">
+        <v>387.68</v>
+      </c>
+      <c r="H230" t="n">
+        <v>386.42</v>
+      </c>
+      <c r="I230" t="n">
+        <v>389.06</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10515,6 +10587,26 @@
       </c>
       <c r="B235" t="n">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -10688,28 +10780,28 @@
         <v>0.0835</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.871842374443379</v>
+        <v>-1.879917047646506</v>
       </c>
       <c r="J2" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K2" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3203122168781541</v>
+        <v>0.3277948697746347</v>
       </c>
       <c r="M2" t="n">
-        <v>15.85396314170686</v>
+        <v>15.73599051275023</v>
       </c>
       <c r="N2" t="n">
-        <v>425.480702406432</v>
+        <v>421.4518989341508</v>
       </c>
       <c r="O2" t="n">
-        <v>20.62718357911307</v>
+        <v>20.52929367840381</v>
       </c>
       <c r="P2" t="n">
-        <v>412.798635569182</v>
+        <v>412.8721884646639</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10766,28 +10858,28 @@
         <v>0.0578</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.314194391004668</v>
+        <v>-2.309985030837405</v>
       </c>
       <c r="J3" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K3" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5166069441637017</v>
+        <v>0.5211146360890582</v>
       </c>
       <c r="M3" t="n">
-        <v>12.70012675180809</v>
+        <v>12.61184756690911</v>
       </c>
       <c r="N3" t="n">
-        <v>291.5906742595644</v>
+        <v>288.8274625032934</v>
       </c>
       <c r="O3" t="n">
-        <v>17.07602630179412</v>
+        <v>16.99492461010914</v>
       </c>
       <c r="P3" t="n">
-        <v>413.4873231637952</v>
+        <v>413.4477614425834</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10844,28 +10936,28 @@
         <v>0.0401</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.456646924758465</v>
+        <v>-2.447398576259616</v>
       </c>
       <c r="J4" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K4" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5227045341779066</v>
+        <v>0.5257010333953833</v>
       </c>
       <c r="M4" t="n">
-        <v>14.27833313316804</v>
+        <v>14.19643348844304</v>
       </c>
       <c r="N4" t="n">
-        <v>318.3613252373964</v>
+        <v>315.7913246358621</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8426826805107</v>
+        <v>17.7705184121303</v>
       </c>
       <c r="P4" t="n">
-        <v>435.9205819558902</v>
+        <v>435.8324912306466</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -10922,28 +11014,28 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.009133049589054</v>
+        <v>-2.01878993787375</v>
       </c>
       <c r="J5" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K5" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4420270535871236</v>
+        <v>0.4495104553840561</v>
       </c>
       <c r="M5" t="n">
-        <v>13.97248670153188</v>
+        <v>13.88308853996561</v>
       </c>
       <c r="N5" t="n">
-        <v>295.2880054681803</v>
+        <v>292.7593877793485</v>
       </c>
       <c r="O5" t="n">
-        <v>17.18394615529798</v>
+        <v>17.11021296709508</v>
       </c>
       <c r="P5" t="n">
-        <v>441.8342648917309</v>
+        <v>441.9248102795391</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11000,28 +11092,28 @@
         <v>0.0275</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.668227730811172</v>
+        <v>-1.686683371450306</v>
       </c>
       <c r="J6" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K6" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3794822317847877</v>
+        <v>0.3889143362537439</v>
       </c>
       <c r="M6" t="n">
-        <v>13.10372293626971</v>
+        <v>13.06906247818807</v>
       </c>
       <c r="N6" t="n">
-        <v>268.1136954843276</v>
+        <v>266.3791579729709</v>
       </c>
       <c r="O6" t="n">
-        <v>16.37417770406586</v>
+        <v>16.32112612453476</v>
       </c>
       <c r="P6" t="n">
-        <v>441.6150814700997</v>
+        <v>441.7883271128987</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11078,28 +11170,28 @@
         <v>0.027</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.038941196097322</v>
+        <v>-1.069012006013451</v>
       </c>
       <c r="J7" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K7" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2214286877730199</v>
+        <v>0.2331083173425482</v>
       </c>
       <c r="M7" t="n">
-        <v>11.54046835041636</v>
+        <v>11.60330622550401</v>
       </c>
       <c r="N7" t="n">
-        <v>224.2070689441562</v>
+        <v>224.674815075813</v>
       </c>
       <c r="O7" t="n">
-        <v>14.97354563702786</v>
+        <v>14.98915658320417</v>
       </c>
       <c r="P7" t="n">
-        <v>424.5923044344714</v>
+        <v>424.8745469970451</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -11150,28 +11242,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.8431573223538255</v>
+        <v>-0.8785471168437634</v>
       </c>
       <c r="J8" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K8" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1576664007319</v>
+        <v>0.1699990231496444</v>
       </c>
       <c r="M8" t="n">
-        <v>11.00346089204673</v>
+        <v>11.11136044143532</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6637507184294</v>
+        <v>221.7011008841885</v>
       </c>
       <c r="O8" t="n">
-        <v>14.85475515511546</v>
+        <v>14.88963064969002</v>
       </c>
       <c r="P8" t="n">
-        <v>422.6801785492732</v>
+        <v>423.012459081121</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -11228,28 +11320,28 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3601552238346608</v>
+        <v>-0.3690009391016656</v>
       </c>
       <c r="J9" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K9" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04460706949325211</v>
+        <v>0.04764263959004489</v>
       </c>
       <c r="M9" t="n">
-        <v>10.09401547890889</v>
+        <v>10.04215606125966</v>
       </c>
       <c r="N9" t="n">
-        <v>160.9937889821997</v>
+        <v>159.749642913061</v>
       </c>
       <c r="O9" t="n">
-        <v>12.68833278970093</v>
+        <v>12.63921053361566</v>
       </c>
       <c r="P9" t="n">
-        <v>407.3815640131672</v>
+        <v>407.4646225121687</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -11287,7 +11379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22123,6 +22215,110 @@
         </is>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>-35.17745703947076,173.1177908617296</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>-35.17796577396307,173.11844165384343</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>-35.178307840591046,173.1192521779946</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>-35.1785799789416,173.12006444587865</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>-35.178747300769146,173.12087349491438</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>-35.178922179914906,173.1217177552587</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>-35.178914964677745,173.1225996122615</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>-35.17867793611185,173.12345800210863</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>-35.1773718012101,173.11788611952903</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>-35.17792273956571,173.11848815499908</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>-35.178224504810835,173.11932315041992</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>-35.17852379097794,173.12009524866315</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>-35.17873180614216,173.12087767521763</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>-35.178820514687715,173.12172606549234</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>-35.17885269316103,173.12259699492537</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>-35.17875960340544,173.1234677205444</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0061/nzd0061.xlsx
+++ b/data/nzd0061/nzd0061.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8213,6 +8213,76 @@
         <v>389.06</v>
       </c>
       <c r="J230" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>362.5007692307692</v>
+      </c>
+      <c r="C231" t="n">
+        <v>359.23</v>
+      </c>
+      <c r="D231" t="n">
+        <v>375.4214285714286</v>
+      </c>
+      <c r="E231" t="n">
+        <v>383.1166666666667</v>
+      </c>
+      <c r="F231" t="n">
+        <v>375.28</v>
+      </c>
+      <c r="G231" t="n">
+        <v>374.71</v>
+      </c>
+      <c r="H231" t="n">
+        <v>364.34</v>
+      </c>
+      <c r="I231" t="n">
+        <v>374.4</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>363.7446153846154</v>
+      </c>
+      <c r="C232" t="n">
+        <v>361.54</v>
+      </c>
+      <c r="D232" t="n">
+        <v>391.34</v>
+      </c>
+      <c r="E232" t="n">
+        <v>399.12</v>
+      </c>
+      <c r="F232" t="n">
+        <v>399.43</v>
+      </c>
+      <c r="G232" t="n">
+        <v>406.91</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>406.74</v>
+      </c>
+      <c r="J232" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8229,7 +8299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B237"/>
+  <dimension ref="A1:B239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10607,6 +10677,26 @@
       </c>
       <c r="B237" t="n">
         <v>0.66</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
@@ -10780,28 +10870,28 @@
         <v>0.0835</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.879917047646506</v>
+        <v>-1.881798588887665</v>
       </c>
       <c r="J2" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K2" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3277948697746347</v>
+        <v>0.3340153199193628</v>
       </c>
       <c r="M2" t="n">
-        <v>15.73599051275023</v>
+        <v>15.57216388636455</v>
       </c>
       <c r="N2" t="n">
-        <v>421.4518989341508</v>
+        <v>416.9328065998784</v>
       </c>
       <c r="O2" t="n">
-        <v>20.52929367840381</v>
+        <v>20.41893255289998</v>
       </c>
       <c r="P2" t="n">
-        <v>412.8721884646639</v>
+        <v>412.8894357668773</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10858,28 +10948,28 @@
         <v>0.0578</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.309985030837405</v>
+        <v>-2.296843117844322</v>
       </c>
       <c r="J3" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K3" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5211146360890582</v>
+        <v>0.523256783292104</v>
       </c>
       <c r="M3" t="n">
-        <v>12.61184756690911</v>
+        <v>12.57400721811167</v>
       </c>
       <c r="N3" t="n">
-        <v>288.8274625032934</v>
+        <v>286.4513615660359</v>
       </c>
       <c r="O3" t="n">
-        <v>16.99492461010914</v>
+        <v>16.92487404874955</v>
       </c>
       <c r="P3" t="n">
-        <v>413.4477614425834</v>
+        <v>413.3239297124045</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10936,28 +11026,28 @@
         <v>0.0401</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.447398576259616</v>
+        <v>-2.426904148044918</v>
       </c>
       <c r="J4" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K4" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5257010333953833</v>
+        <v>0.5252675966302842</v>
       </c>
       <c r="M4" t="n">
-        <v>14.19643348844304</v>
+        <v>14.16905977801242</v>
       </c>
       <c r="N4" t="n">
-        <v>315.7913246358621</v>
+        <v>314.5250779986658</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7705184121303</v>
+        <v>17.73485489082631</v>
       </c>
       <c r="P4" t="n">
-        <v>435.8324912306466</v>
+        <v>435.6365539493371</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11014,28 +11104,28 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.01878993787375</v>
+        <v>-2.015648637318813</v>
       </c>
       <c r="J5" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K5" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4495104553840561</v>
+        <v>0.4534878702417314</v>
       </c>
       <c r="M5" t="n">
-        <v>13.88308853996561</v>
+        <v>13.82720356650356</v>
       </c>
       <c r="N5" t="n">
-        <v>292.7593877793485</v>
+        <v>290.5720984901892</v>
       </c>
       <c r="O5" t="n">
-        <v>17.11021296709508</v>
+        <v>17.04617547986026</v>
       </c>
       <c r="P5" t="n">
-        <v>441.9248102795391</v>
+        <v>441.8950335095077</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11092,28 +11182,28 @@
         <v>0.0275</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.686683371450306</v>
+        <v>-1.706062695167226</v>
       </c>
       <c r="J6" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3889143362537439</v>
+        <v>0.3970806409181249</v>
       </c>
       <c r="M6" t="n">
-        <v>13.06906247818807</v>
+        <v>13.06170760956626</v>
       </c>
       <c r="N6" t="n">
-        <v>266.3791579729709</v>
+        <v>266.2692762151532</v>
       </c>
       <c r="O6" t="n">
-        <v>16.32112612453476</v>
+        <v>16.31775953417482</v>
       </c>
       <c r="P6" t="n">
-        <v>441.7883271128987</v>
+        <v>441.9709394755209</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11170,28 +11260,28 @@
         <v>0.027</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.069012006013451</v>
+        <v>-1.080741159303076</v>
       </c>
       <c r="J7" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K7" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2331083173425482</v>
+        <v>0.2384425748568216</v>
       </c>
       <c r="M7" t="n">
-        <v>11.60330622550401</v>
+        <v>11.66094909339304</v>
       </c>
       <c r="N7" t="n">
-        <v>224.674815075813</v>
+        <v>225.423874323437</v>
       </c>
       <c r="O7" t="n">
-        <v>14.98915658320417</v>
+        <v>15.0141224959515</v>
       </c>
       <c r="P7" t="n">
-        <v>424.8745469970451</v>
+        <v>424.9849307302194</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -11242,28 +11332,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.8785471168437634</v>
+        <v>-0.9137125557359845</v>
       </c>
       <c r="J8" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K8" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1699990231496444</v>
+        <v>0.1787425255039781</v>
       </c>
       <c r="M8" t="n">
-        <v>11.11136044143532</v>
+        <v>11.27612145926769</v>
       </c>
       <c r="N8" t="n">
-        <v>221.7011008841885</v>
+        <v>227.0483111682644</v>
       </c>
       <c r="O8" t="n">
-        <v>14.88963064969002</v>
+        <v>15.06812235045443</v>
       </c>
       <c r="P8" t="n">
-        <v>423.012459081121</v>
+        <v>423.3439697846934</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -11320,28 +11410,28 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3690009391016656</v>
+        <v>-0.3830880314269239</v>
       </c>
       <c r="J9" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K9" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04764263959004489</v>
+        <v>0.05128316805334487</v>
       </c>
       <c r="M9" t="n">
-        <v>10.04215606125966</v>
+        <v>10.11252334309257</v>
       </c>
       <c r="N9" t="n">
-        <v>159.749642913061</v>
+        <v>161.3088737598672</v>
       </c>
       <c r="O9" t="n">
-        <v>12.63921053361566</v>
+        <v>12.70074303967556</v>
       </c>
       <c r="P9" t="n">
-        <v>407.4646225121687</v>
+        <v>407.5969905077534</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -11379,7 +11469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22319,6 +22409,106 @@
         </is>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>-35.17740218504536,173.11785216418443</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>-35.1779206485522,173.11849041445836</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>-35.17827945322402,173.1192763539485</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>-35.17856484930537,173.12007274009602</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>-35.17885655549179,173.12084401898136</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>-35.17893720477572,173.12171652710737</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>-35.17905167363451,173.12260535829466</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>-35.17889116851393,173.12348337687902</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>-35.177393920847564,173.1178613998122</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>-35.177905067127696,173.11850725107075</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>-35.1781618182028,173.11937653698038</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>-35.178433259817126,173.1201448786216</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>-35.17864394456074,173.12090137940731</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>-35.17864750385792,173.12174020755126</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>-35.17860093551899,173.1234488390301</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0061/nzd0061.xlsx
+++ b/data/nzd0061/nzd0061.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436.7138461538461</v>
+        <v>436.71</v>
       </c>
       <c r="C2" t="n">
         <v>399.16</v>
       </c>
       <c r="D2" t="n">
-        <v>421.1728571428571</v>
+        <v>421.17</v>
       </c>
       <c r="E2" t="n">
-        <v>433.7533333333333</v>
+        <v>433.75</v>
       </c>
       <c r="F2" t="n">
         <v>438.77</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>450.5807692307693</v>
+        <v>450.58</v>
       </c>
       <c r="C3" t="n">
         <v>397.59</v>
@@ -540,7 +540,7 @@
         <v>406.16</v>
       </c>
       <c r="E3" t="n">
-        <v>424.0466666666667</v>
+        <v>424.05</v>
       </c>
       <c r="F3" t="n">
         <v>422.37</v>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.3915384615385</v>
+        <v>386.39</v>
       </c>
       <c r="C4" t="n">
         <v>380.06</v>
@@ -574,7 +574,7 @@
         <v>402.11</v>
       </c>
       <c r="E4" t="n">
-        <v>407.8566666666667</v>
+        <v>407.86</v>
       </c>
       <c r="F4" t="n">
         <v>422.18</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>381.8353846153847</v>
+        <v>381.84</v>
       </c>
       <c r="C5" t="n">
         <v>381.3</v>
@@ -610,7 +610,7 @@
         <v>405.32</v>
       </c>
       <c r="E5" t="n">
-        <v>411.3833333333333</v>
+        <v>411.38</v>
       </c>
       <c r="F5" t="n">
         <v>426.54</v>
@@ -640,7 +640,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>426.0233333333333</v>
+        <v>426.02</v>
       </c>
       <c r="F6" t="n">
         <v>436.34</v>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.9307692307692</v>
+        <v>383.93</v>
       </c>
       <c r="C7" t="n">
         <v>391.39</v>
       </c>
       <c r="D7" t="n">
-        <v>409.8128571428572</v>
+        <v>409.81</v>
       </c>
       <c r="E7" t="n">
         <v>427.21</v>
@@ -703,16 +703,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>346.3984615384616</v>
+        <v>346.4</v>
       </c>
       <c r="C8" t="n">
         <v>371.69</v>
       </c>
       <c r="D8" t="n">
-        <v>399.4614285714285</v>
+        <v>399.46</v>
       </c>
       <c r="E8" t="n">
-        <v>412.0133333333333</v>
+        <v>412.01</v>
       </c>
       <c r="F8" t="n">
         <v>416.41</v>
@@ -735,14 +735,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>350.2476923076923</v>
+        <v>350.25</v>
       </c>
       <c r="C9" t="n">
         <v>339.19</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>420.9866666666667</v>
+        <v>420.99</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -767,7 +767,7 @@
         <v>380.83</v>
       </c>
       <c r="D10" t="n">
-        <v>397.9871428571428</v>
+        <v>397.99</v>
       </c>
       <c r="E10" t="n">
         <v>405.51</v>
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.3984615384616</v>
+        <v>376.4</v>
       </c>
       <c r="C11" t="n">
         <v>377.45</v>
       </c>
       <c r="D11" t="n">
-        <v>401.2142857142857</v>
+        <v>401.21</v>
       </c>
       <c r="E11" t="n">
-        <v>409.0533333333333</v>
+        <v>409.05</v>
       </c>
       <c r="F11" t="n">
         <v>413.87</v>
@@ -839,7 +839,7 @@
         <v>382.6</v>
       </c>
       <c r="D12" t="n">
-        <v>398.6328571428572</v>
+        <v>398.63</v>
       </c>
       <c r="E12" t="n">
         <v>422.2</v>
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>372.6730769230769</v>
+        <v>372.67</v>
       </c>
       <c r="C13" t="n">
         <v>376.61</v>
       </c>
       <c r="D13" t="n">
-        <v>396.6271428571428</v>
+        <v>396.63</v>
       </c>
       <c r="E13" t="n">
         <v>403.55</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.8523076923077</v>
+        <v>376.85</v>
       </c>
       <c r="C14" t="n">
         <v>383.73</v>
@@ -941,16 +941,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>380.2938461538461</v>
+        <v>380.29</v>
       </c>
       <c r="C15" t="n">
         <v>393.1</v>
       </c>
       <c r="D15" t="n">
-        <v>418.9514285714286</v>
+        <v>418.95</v>
       </c>
       <c r="E15" t="n">
-        <v>431.1633333333333</v>
+        <v>431.16</v>
       </c>
       <c r="F15" t="n">
         <v>437.03</v>
@@ -962,7 +962,7 @@
         <v>421.11</v>
       </c>
       <c r="I15" t="n">
-        <v>413.7600000000001</v>
+        <v>413.76</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>385.6484615384616</v>
+        <v>385.65</v>
       </c>
       <c r="C16" t="n">
         <v>395.62</v>
@@ -986,7 +986,7 @@
         <v>423.34</v>
       </c>
       <c r="E16" t="n">
-        <v>431.7333333333333</v>
+        <v>431.73</v>
       </c>
       <c r="F16" t="n">
         <v>434.1</v>
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>362.8861538461539</v>
+        <v>362.89</v>
       </c>
       <c r="C17" t="n">
         <v>373.87</v>
       </c>
       <c r="D17" t="n">
-        <v>388.9485714285714</v>
+        <v>388.95</v>
       </c>
       <c r="E17" t="n">
-        <v>406.9966666666666</v>
+        <v>407</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>439.5100000000001</v>
+        <v>439.51</v>
       </c>
       <c r="D18" t="n">
-        <v>443.3842857142857</v>
+        <v>443.38</v>
       </c>
       <c r="E18" t="n">
         <v>452.72</v>
@@ -1079,13 +1079,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.8930769230769</v>
+        <v>402.89</v>
       </c>
       <c r="C19" t="n">
         <v>407.54</v>
       </c>
       <c r="D19" t="n">
-        <v>425.3371428571429</v>
+        <v>425.34</v>
       </c>
       <c r="E19" t="n">
         <v>431.47</v>
@@ -1115,16 +1115,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>409.6730769230769</v>
+        <v>409.67</v>
       </c>
       <c r="C20" t="n">
         <v>415.27</v>
       </c>
       <c r="D20" t="n">
-        <v>434.9857142857143</v>
+        <v>434.99</v>
       </c>
       <c r="E20" t="n">
-        <v>444.1366666666667</v>
+        <v>444.14</v>
       </c>
       <c r="F20" t="n">
         <v>441.07</v>
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>403.9338461538461</v>
+        <v>403.93</v>
       </c>
       <c r="C21" t="n">
         <v>405.33</v>
       </c>
       <c r="D21" t="n">
-        <v>437.6085714285715</v>
+        <v>437.61</v>
       </c>
       <c r="E21" t="n">
-        <v>447.7833333333333</v>
+        <v>447.78</v>
       </c>
       <c r="F21" t="n">
         <v>454.26</v>
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>417.7746153846153</v>
+        <v>417.77</v>
       </c>
       <c r="C22" t="n">
         <v>432.48</v>
       </c>
       <c r="D22" t="n">
-        <v>454.7442857142857</v>
+        <v>454.74</v>
       </c>
       <c r="E22" t="n">
-        <v>467.2666666666667</v>
+        <v>467.27</v>
       </c>
       <c r="F22" t="n">
         <v>470.01</v>
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>395.2869230769231</v>
+        <v>395.29</v>
       </c>
       <c r="C23" t="n">
         <v>393.97</v>
       </c>
       <c r="D23" t="n">
-        <v>409.4928571428572</v>
+        <v>409.49</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>405.8838461538462</v>
+        <v>405.88</v>
       </c>
       <c r="C24" t="n">
         <v>411.39</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>422.3038461538461</v>
+        <v>422.3</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>468.4414285714286</v>
+        <v>468.44</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.2561538461539</v>
+        <v>409.26</v>
       </c>
       <c r="C28" t="n">
         <v>407.74</v>
       </c>
       <c r="D28" t="n">
-        <v>418.2971428571428</v>
+        <v>418.3</v>
       </c>
       <c r="E28" t="n">
-        <v>423.3566666666667</v>
+        <v>423.36</v>
       </c>
       <c r="F28" t="n">
         <v>423.43</v>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>407.2884615384616</v>
+        <v>407.29</v>
       </c>
       <c r="C29" t="n">
-        <v>411.4500000000001</v>
+        <v>411.45</v>
       </c>
       <c r="D29" t="n">
-        <v>423.1714285714286</v>
+        <v>423.17</v>
       </c>
       <c r="E29" t="n">
-        <v>431.2866666666667</v>
+        <v>431.29</v>
       </c>
       <c r="F29" t="n">
         <v>426.63</v>
@@ -1447,7 +1447,7 @@
         <v>408.84</v>
       </c>
       <c r="D30" t="n">
-        <v>421.4857142857143</v>
+        <v>421.49</v>
       </c>
       <c r="E30" t="n">
         <v>425.49</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>448.5007692307692</v>
+        <v>448.5</v>
       </c>
       <c r="C31" t="n">
         <v>443.12</v>
@@ -1486,7 +1486,7 @@
         <v>446.33</v>
       </c>
       <c r="E31" t="n">
-        <v>449.7666666666667</v>
+        <v>449.77</v>
       </c>
       <c r="F31" t="n">
         <v>446.81</v>
@@ -1513,16 +1513,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>436.1030769230769</v>
+        <v>436.1</v>
       </c>
       <c r="C32" t="n">
         <v>437.15</v>
       </c>
       <c r="D32" t="n">
-        <v>450.3128571428572</v>
+        <v>450.31</v>
       </c>
       <c r="E32" t="n">
-        <v>454.5433333333333</v>
+        <v>454.54</v>
       </c>
       <c r="F32" t="n">
         <v>456.93</v>
@@ -1549,16 +1549,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>404.1076923076923</v>
+        <v>404.11</v>
       </c>
       <c r="C33" t="n">
         <v>413.39</v>
       </c>
       <c r="D33" t="n">
-        <v>443.9928571428572</v>
+        <v>443.99</v>
       </c>
       <c r="E33" t="n">
-        <v>453.5133333333333</v>
+        <v>453.51</v>
       </c>
       <c r="F33" t="n">
         <v>456.91</v>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.7676923076923</v>
+        <v>414.77</v>
       </c>
       <c r="C34" t="n">
         <v>410.92</v>
       </c>
       <c r="D34" t="n">
-        <v>429.7557142857143</v>
+        <v>429.76</v>
       </c>
       <c r="E34" t="n">
         <v>437.61</v>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>429.6330769230769</v>
+        <v>429.63</v>
       </c>
       <c r="C35" t="n">
         <v>420.7</v>
       </c>
       <c r="D35" t="n">
-        <v>443.3914285714285</v>
+        <v>443.39</v>
       </c>
       <c r="E35" t="n">
         <v>464.85</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>430.4923076923077</v>
+        <v>430.49</v>
       </c>
       <c r="C36" t="n">
         <v>420.71</v>
       </c>
       <c r="D36" t="n">
-        <v>448.3157142857143</v>
+        <v>448.32</v>
       </c>
       <c r="E36" t="n">
-        <v>460.6233333333333</v>
+        <v>460.62</v>
       </c>
       <c r="F36" t="n">
         <v>468.03</v>
@@ -1689,16 +1689,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>447.2284615384616</v>
+        <v>447.23</v>
       </c>
       <c r="C37" t="n">
         <v>417.45</v>
       </c>
       <c r="D37" t="n">
-        <v>442.3257142857143</v>
+        <v>442.33</v>
       </c>
       <c r="E37" t="n">
-        <v>461.1566666666667</v>
+        <v>461.16</v>
       </c>
       <c r="F37" t="n">
         <v>467.98</v>
@@ -1731,10 +1731,10 @@
         <v>416.4</v>
       </c>
       <c r="D38" t="n">
-        <v>436.6057142857143</v>
+        <v>436.61</v>
       </c>
       <c r="E38" t="n">
-        <v>449.3166666666667</v>
+        <v>449.32</v>
       </c>
       <c r="F38" t="n">
         <v>455.79</v>
@@ -1765,7 +1765,7 @@
         <v>427.12</v>
       </c>
       <c r="D39" t="n">
-        <v>452.8771428571428</v>
+        <v>452.88</v>
       </c>
       <c r="E39" t="n">
         <v>465.5</v>
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>419.9969230769231</v>
+        <v>420</v>
       </c>
       <c r="C40" t="n">
         <v>407.36</v>
       </c>
       <c r="D40" t="n">
-        <v>427.3028571428572</v>
+        <v>427.3</v>
       </c>
       <c r="E40" t="n">
         <v>447.67</v>
@@ -1831,16 +1831,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>400.2753846153847</v>
+        <v>400.28</v>
       </c>
       <c r="C41" t="n">
         <v>402.19</v>
       </c>
       <c r="D41" t="n">
-        <v>423.0885714285714</v>
+        <v>423.09</v>
       </c>
       <c r="E41" t="n">
-        <v>427.3733333333333</v>
+        <v>427.37</v>
       </c>
       <c r="F41" t="n">
         <v>433.24</v>
@@ -1865,16 +1865,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>430.1746153846154</v>
+        <v>430.17</v>
       </c>
       <c r="C42" t="n">
         <v>416.42</v>
       </c>
       <c r="D42" t="n">
-        <v>427.0342857142857</v>
+        <v>427.03</v>
       </c>
       <c r="E42" t="n">
-        <v>435.8566666666667</v>
+        <v>435.86</v>
       </c>
       <c r="F42" t="n">
         <v>430</v>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>378.5707692307692</v>
+        <v>378.57</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1919,13 +1919,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.0938461538461</v>
+        <v>396.09</v>
       </c>
       <c r="C44" t="n">
         <v>395.2</v>
       </c>
       <c r="D44" t="n">
-        <v>409.0042857142857</v>
+        <v>409</v>
       </c>
       <c r="E44" t="n">
         <v>418.91</v>
@@ -1955,16 +1955,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>401.3276923076923</v>
+        <v>401.33</v>
       </c>
       <c r="C45" t="n">
         <v>405.47</v>
       </c>
       <c r="D45" t="n">
-        <v>426.9471428571428</v>
+        <v>426.95</v>
       </c>
       <c r="E45" t="n">
-        <v>440.6633333333333</v>
+        <v>440.66</v>
       </c>
       <c r="F45" t="n">
         <v>437.56</v>
@@ -1993,7 +1993,7 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>465.8185714285714</v>
+        <v>465.82</v>
       </c>
       <c r="E46" t="n">
         <v>468.46</v>
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>399.0615384615385</v>
+        <v>399.06</v>
       </c>
       <c r="C47" t="n">
         <v>400.47</v>
       </c>
       <c r="D47" t="n">
-        <v>419.3957142857143</v>
+        <v>419.4</v>
       </c>
       <c r="E47" t="n">
-        <v>423.5966666666667</v>
+        <v>423.6</v>
       </c>
       <c r="F47" t="n">
         <v>427.22</v>
@@ -2059,16 +2059,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>411.5215384615385</v>
+        <v>411.52</v>
       </c>
       <c r="C48" t="n">
         <v>417.81</v>
       </c>
       <c r="D48" t="n">
-        <v>436.3542857142857</v>
+        <v>436.35</v>
       </c>
       <c r="E48" t="n">
-        <v>441.4133333333333</v>
+        <v>441.41</v>
       </c>
       <c r="F48" t="n">
         <v>446.03</v>
@@ -2095,16 +2095,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>415.0061538461539</v>
+        <v>415.01</v>
       </c>
       <c r="C49" t="n">
         <v>408.25</v>
       </c>
       <c r="D49" t="n">
-        <v>429.8885714285714</v>
+        <v>429.89</v>
       </c>
       <c r="E49" t="n">
-        <v>434.0433333333333</v>
+        <v>434.04</v>
       </c>
       <c r="F49" t="n">
         <v>434.37</v>
@@ -2131,16 +2131,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>428.8330769230769</v>
+        <v>428.83</v>
       </c>
       <c r="C50" t="n">
         <v>428.69</v>
       </c>
       <c r="D50" t="n">
-        <v>444.6971428571428</v>
+        <v>444.7</v>
       </c>
       <c r="E50" t="n">
-        <v>443.7766666666667</v>
+        <v>443.78</v>
       </c>
       <c r="F50" t="n">
         <v>441.23</v>
@@ -2149,10 +2149,10 @@
         <v>404.64</v>
       </c>
       <c r="H50" t="n">
-        <v>421.7600000000001</v>
+        <v>421.76</v>
       </c>
       <c r="I50" t="n">
-        <v>393.7000000000001</v>
+        <v>393.7</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2167,28 +2167,28 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>413.8046153846154</v>
+        <v>413.8</v>
       </c>
       <c r="C51" t="n">
         <v>417.33</v>
       </c>
       <c r="D51" t="n">
-        <v>434.9628571428572</v>
+        <v>434.96</v>
       </c>
       <c r="E51" t="n">
-        <v>443.0366666666667</v>
+        <v>443.04</v>
       </c>
       <c r="F51" t="n">
         <v>443.4</v>
       </c>
       <c r="G51" t="n">
-        <v>425.3200000000001</v>
+        <v>425.32</v>
       </c>
       <c r="H51" t="n">
         <v>423.34</v>
       </c>
       <c r="I51" t="n">
-        <v>411.2600000000001</v>
+        <v>411.26</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>432.9076923076923</v>
+        <v>432.91</v>
       </c>
       <c r="C52" t="n">
         <v>427.66</v>
       </c>
       <c r="D52" t="n">
-        <v>442.5471428571428</v>
+        <v>442.55</v>
       </c>
       <c r="E52" t="n">
-        <v>450.6133333333333</v>
+        <v>450.61</v>
       </c>
       <c r="F52" t="n">
         <v>449.86</v>
@@ -2221,7 +2221,7 @@
         <v>430.83</v>
       </c>
       <c r="H52" t="n">
-        <v>426.0700000000001</v>
+        <v>426.07</v>
       </c>
       <c r="I52" t="n">
         <v>398.58</v>
@@ -2239,16 +2239,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>410.0153846153846</v>
+        <v>410.02</v>
       </c>
       <c r="C53" t="n">
         <v>410.07</v>
       </c>
       <c r="D53" t="n">
-        <v>430.2428571428571</v>
+        <v>430.24</v>
       </c>
       <c r="E53" t="n">
-        <v>440.5266666666667</v>
+        <v>440.53</v>
       </c>
       <c r="F53" t="n">
         <v>442.82</v>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>398.7723076923077</v>
+        <v>398.77</v>
       </c>
       <c r="C54" t="n">
         <v>379.71</v>
@@ -2301,13 +2301,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>398.4738461538461</v>
+        <v>398.47</v>
       </c>
       <c r="C55" t="n">
         <v>394.64</v>
       </c>
       <c r="D55" t="n">
-        <v>409.8742857142857</v>
+        <v>409.87</v>
       </c>
       <c r="E55" t="n">
         <v>419.79</v>
@@ -2340,7 +2340,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>437.0133333333333</v>
+        <v>437.01</v>
       </c>
       <c r="F56" t="n">
         <v>425.86</v>
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>388.7761538461539</v>
+        <v>388.78</v>
       </c>
       <c r="C57" t="n">
         <v>387.28</v>
       </c>
       <c r="D57" t="n">
-        <v>403.1642857142857</v>
+        <v>403.16</v>
       </c>
       <c r="E57" t="n">
         <v>408.75</v>
@@ -2403,16 +2403,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>389.5861538461539</v>
+        <v>389.59</v>
       </c>
       <c r="C58" t="n">
         <v>395.05</v>
       </c>
       <c r="D58" t="n">
-        <v>409.7557142857143</v>
+        <v>409.76</v>
       </c>
       <c r="E58" t="n">
-        <v>418.3433333333333</v>
+        <v>418.34</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2420,7 +2420,7 @@
         <v>412.77</v>
       </c>
       <c r="I58" t="n">
-        <v>406.9500000000001</v>
+        <v>406.95</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>387.8853846153846</v>
+        <v>387.89</v>
       </c>
       <c r="C59" t="n">
         <v>386.37</v>
       </c>
       <c r="D59" t="n">
-        <v>405.6042857142857</v>
+        <v>405.6</v>
       </c>
       <c r="E59" t="n">
-        <v>415.1066666666667</v>
+        <v>415.11</v>
       </c>
       <c r="F59" t="n">
         <v>421.16</v>
@@ -2475,7 +2475,7 @@
         <v>367.65</v>
       </c>
       <c r="D60" t="n">
-        <v>406.2628571428571</v>
+        <v>406.26</v>
       </c>
       <c r="E60" t="n">
         <v>413.32</v>
@@ -2503,22 +2503,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>392.2392307692308</v>
+        <v>392.24</v>
       </c>
       <c r="C61" t="n">
         <v>397.97</v>
       </c>
       <c r="D61" t="n">
-        <v>424.6128571428572</v>
+        <v>424.61</v>
       </c>
       <c r="E61" t="n">
-        <v>440.1033333333333</v>
+        <v>440.1</v>
       </c>
       <c r="F61" t="n">
         <v>443.87</v>
       </c>
       <c r="G61" t="n">
-        <v>425.8200000000001</v>
+        <v>425.82</v>
       </c>
       <c r="H61" t="n">
         <v>425.24</v>
@@ -2539,16 +2539,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>386.8861538461539</v>
+        <v>386.89</v>
       </c>
       <c r="C62" t="n">
-        <v>385.0700000000001</v>
+        <v>385.07</v>
       </c>
       <c r="D62" t="n">
-        <v>409.2871428571429</v>
+        <v>409.29</v>
       </c>
       <c r="E62" t="n">
-        <v>427.7866666666667</v>
+        <v>427.79</v>
       </c>
       <c r="F62" t="n">
         <v>432.9</v>
@@ -2601,16 +2601,16 @@
         <v>380.5</v>
       </c>
       <c r="D64" t="n">
-        <v>395.5642857142857</v>
+        <v>395.56</v>
       </c>
       <c r="E64" t="n">
-        <v>405.8633333333333</v>
+        <v>405.86</v>
       </c>
       <c r="F64" t="n">
         <v>413.44</v>
       </c>
       <c r="G64" t="n">
-        <v>412.5100000000001</v>
+        <v>412.51</v>
       </c>
       <c r="H64" t="n">
         <v>410.99</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>380.0076923076923</v>
+        <v>380.01</v>
       </c>
       <c r="C65" t="n">
         <v>372.85</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>395.8823076923077</v>
+        <v>395.88</v>
       </c>
       <c r="C66" t="n">
         <v>389.9</v>
@@ -2664,7 +2664,7 @@
         <v>411.5</v>
       </c>
       <c r="E66" t="n">
-        <v>425.7066666666667</v>
+        <v>425.71</v>
       </c>
       <c r="F66" t="n">
         <v>433.85</v>
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>385.9476923076923</v>
+        <v>385.95</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>386.5176923076923</v>
+        <v>386.52</v>
       </c>
       <c r="C68" t="n">
         <v>389.84</v>
       </c>
       <c r="D68" t="n">
-        <v>398.0257142857143</v>
+        <v>398.03</v>
       </c>
       <c r="E68" t="n">
         <v>400.34</v>
@@ -2755,10 +2755,10 @@
         <v>410.19</v>
       </c>
       <c r="D69" t="n">
-        <v>430.5542857142857</v>
+        <v>430.55</v>
       </c>
       <c r="E69" t="n">
-        <v>435.1466666666667</v>
+        <v>435.15</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>395.9384615384615</v>
+        <v>395.94</v>
       </c>
       <c r="C70" t="n">
         <v>391</v>
@@ -2788,7 +2788,7 @@
         <v>415.33</v>
       </c>
       <c r="E70" t="n">
-        <v>425.1466666666667</v>
+        <v>425.15</v>
       </c>
       <c r="F70" t="n">
         <v>417.47</v>
@@ -2817,10 +2817,10 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>454.9214285714286</v>
+        <v>454.92</v>
       </c>
       <c r="E71" t="n">
-        <v>452.3766666666667</v>
+        <v>452.38</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
@@ -2851,10 +2851,10 @@
         <v>405.08</v>
       </c>
       <c r="D72" t="n">
-        <v>422.3242857142857</v>
+        <v>422.32</v>
       </c>
       <c r="E72" t="n">
-        <v>426.8066666666667</v>
+        <v>426.81</v>
       </c>
       <c r="F72" t="n">
         <v>422.6</v>
@@ -2881,13 +2881,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>406.5392307692308</v>
+        <v>406.54</v>
       </c>
       <c r="C73" t="n">
         <v>404.88</v>
       </c>
       <c r="D73" t="n">
-        <v>415.2657142857143</v>
+        <v>415.27</v>
       </c>
       <c r="E73" t="n">
         <v>420.56</v>
@@ -2917,13 +2917,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>422.6346153846154</v>
+        <v>422.63</v>
       </c>
       <c r="C74" t="n">
         <v>421.89</v>
       </c>
       <c r="D74" t="n">
-        <v>436.9871428571428</v>
+        <v>436.99</v>
       </c>
       <c r="E74" t="n">
         <v>438.56</v>
@@ -2953,13 +2953,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>413.6292307692308</v>
+        <v>413.63</v>
       </c>
       <c r="C75" t="n">
         <v>429.71</v>
       </c>
       <c r="D75" t="n">
-        <v>446.4414285714286</v>
+        <v>446.44</v>
       </c>
       <c r="E75" t="n">
         <v>449.28</v>
@@ -2989,16 +2989,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>378.3961538461539</v>
+        <v>378.4</v>
       </c>
       <c r="C76" t="n">
         <v>380.23</v>
       </c>
       <c r="D76" t="n">
-        <v>402.6585714285715</v>
+        <v>402.66</v>
       </c>
       <c r="E76" t="n">
-        <v>405.1133333333333</v>
+        <v>405.11</v>
       </c>
       <c r="F76" t="n">
         <v>401.06</v>
@@ -3031,10 +3031,10 @@
         <v>413.65</v>
       </c>
       <c r="D77" t="n">
-        <v>436.2928571428571</v>
+        <v>436.29</v>
       </c>
       <c r="E77" t="n">
-        <v>437.8433333333333</v>
+        <v>437.84</v>
       </c>
       <c r="F77" t="n">
         <v>431.4</v>
@@ -3061,16 +3061,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>430.7361538461539</v>
+        <v>430.74</v>
       </c>
       <c r="C78" t="n">
         <v>382.68</v>
       </c>
       <c r="D78" t="n">
-        <v>390.1742857142857</v>
+        <v>390.17</v>
       </c>
       <c r="E78" t="n">
-        <v>404.3833333333333</v>
+        <v>404.38</v>
       </c>
       <c r="F78" t="n">
         <v>420.76</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>373.7415384615384</v>
+        <v>373.74</v>
       </c>
       <c r="C79" t="n">
         <v>368.7</v>
       </c>
       <c r="D79" t="n">
-        <v>374.0842857142857</v>
+        <v>374.08</v>
       </c>
       <c r="E79" t="n">
         <v>375.38</v>
@@ -3125,13 +3125,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>412.6046153846154</v>
+        <v>412.6</v>
       </c>
       <c r="C80" t="n">
         <v>382.13</v>
       </c>
       <c r="D80" t="n">
-        <v>397.5057142857143</v>
+        <v>397.51</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
@@ -3159,13 +3159,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>402.0553846153846</v>
+        <v>402.06</v>
       </c>
       <c r="C81" t="n">
         <v>394.94</v>
       </c>
       <c r="D81" t="n">
-        <v>432.1528571428571</v>
+        <v>432.15</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
@@ -3192,7 +3192,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>405.8566666666667</v>
+        <v>405.86</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>432.0376923076923</v>
+        <v>432.04</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
@@ -3237,10 +3237,10 @@
         <v>377.89</v>
       </c>
       <c r="D84" t="n">
-        <v>396.9471428571428</v>
+        <v>396.95</v>
       </c>
       <c r="E84" t="n">
-        <v>412.8066666666667</v>
+        <v>412.81</v>
       </c>
       <c r="F84" t="n">
         <v>417.73</v>
@@ -3271,10 +3271,10 @@
         <v>375.03</v>
       </c>
       <c r="D85" t="n">
-        <v>388.0742857142857</v>
+        <v>388.07</v>
       </c>
       <c r="E85" t="n">
-        <v>399.5266666666667</v>
+        <v>399.53</v>
       </c>
       <c r="F85" t="n">
         <v>405.72</v>
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>455.3723076923077</v>
+        <v>455.37</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
@@ -3335,10 +3335,10 @@
         <v>371.7</v>
       </c>
       <c r="D87" t="n">
-        <v>371.5242857142857</v>
+        <v>371.52</v>
       </c>
       <c r="E87" t="n">
-        <v>376.7833333333333</v>
+        <v>376.78</v>
       </c>
       <c r="F87" t="n">
         <v>380.18</v>
@@ -3365,16 +3365,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>424.9461538461539</v>
+        <v>424.95</v>
       </c>
       <c r="C88" t="n">
         <v>381.95</v>
       </c>
       <c r="D88" t="n">
-        <v>390.9014285714285</v>
+        <v>390.9</v>
       </c>
       <c r="E88" t="n">
-        <v>398.6966666666667</v>
+        <v>398.7</v>
       </c>
       <c r="F88" t="n">
         <v>400.97</v>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>378.8746153846154</v>
+        <v>378.87</v>
       </c>
       <c r="C89" t="n">
         <v>381.78</v>
@@ -3431,10 +3431,10 @@
         <v>379.5</v>
       </c>
       <c r="D90" t="n">
-        <v>397.6471428571429</v>
+        <v>397.65</v>
       </c>
       <c r="E90" t="n">
-        <v>411.4533333333333</v>
+        <v>411.45</v>
       </c>
       <c r="F90" t="n">
         <v>403.97</v>
@@ -3467,10 +3467,10 @@
         <v>384.31</v>
       </c>
       <c r="D91" t="n">
-        <v>408.4957142857143</v>
+        <v>408.5</v>
       </c>
       <c r="E91" t="n">
-        <v>429.3966666666667</v>
+        <v>429.4</v>
       </c>
       <c r="F91" t="n">
         <v>419.35</v>
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>413.1538461538461</v>
+        <v>413.15</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
@@ -3519,16 +3519,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>376.8361538461539</v>
+        <v>376.84</v>
       </c>
       <c r="C93" t="n">
         <v>372.98</v>
       </c>
       <c r="D93" t="n">
-        <v>395.9828571428571</v>
+        <v>395.98</v>
       </c>
       <c r="E93" t="n">
-        <v>406.7566666666667</v>
+        <v>406.76</v>
       </c>
       <c r="F93" t="n">
         <v>399.54</v>
@@ -3555,16 +3555,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>381.4715384615384</v>
+        <v>381.47</v>
       </c>
       <c r="C94" t="n">
         <v>383.95</v>
       </c>
       <c r="D94" t="n">
-        <v>402.4614285714285</v>
+        <v>402.46</v>
       </c>
       <c r="E94" t="n">
-        <v>414.8466666666667</v>
+        <v>414.85</v>
       </c>
       <c r="F94" t="n">
         <v>402.99</v>
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>387.2907692307692</v>
+        <v>387.29</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -3617,10 +3617,10 @@
         <v>399.96</v>
       </c>
       <c r="D96" t="n">
-        <v>405.9385714285714</v>
+        <v>405.94</v>
       </c>
       <c r="E96" t="n">
-        <v>409.5466666666667</v>
+        <v>409.55</v>
       </c>
       <c r="F96" t="n">
         <v>410.13</v>
@@ -3644,10 +3644,10 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>449.5166666666667</v>
+        <v>449.52</v>
       </c>
       <c r="F97" t="n">
-        <v>443.4500000000001</v>
+        <v>443.45</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
@@ -3669,13 +3669,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>381.5269230769231</v>
+        <v>381.53</v>
       </c>
       <c r="C98" t="n">
         <v>387.15</v>
       </c>
       <c r="D98" t="n">
-        <v>405.0357142857143</v>
+        <v>405.04</v>
       </c>
       <c r="E98" t="n">
         <v>411.13</v>
@@ -3684,13 +3684,13 @@
         <v>408.4</v>
       </c>
       <c r="G98" t="n">
-        <v>396.5700000000001</v>
+        <v>396.57</v>
       </c>
       <c r="H98" t="n">
         <v>383.56</v>
       </c>
       <c r="I98" t="n">
-        <v>378.8200000000001</v>
+        <v>378.82</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -3705,16 +3705,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>395.7469230769231</v>
+        <v>395.75</v>
       </c>
       <c r="C99" t="n">
         <v>403.31</v>
       </c>
       <c r="D99" t="n">
-        <v>425.2314285714286</v>
+        <v>425.23</v>
       </c>
       <c r="E99" t="n">
-        <v>437.6566666666667</v>
+        <v>437.66</v>
       </c>
       <c r="F99" t="n">
         <v>432.49</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>398.8346153846153</v>
+        <v>398.83</v>
       </c>
       <c r="C100" t="n">
         <v>396.1</v>
       </c>
       <c r="D100" t="n">
-        <v>408.2628571428572</v>
+        <v>408.26</v>
       </c>
       <c r="E100" t="n">
-        <v>418.1833333333333</v>
+        <v>418.18</v>
       </c>
       <c r="F100" t="n">
         <v>413.08</v>
@@ -3784,7 +3784,7 @@
         <v>423.49</v>
       </c>
       <c r="E101" t="n">
-        <v>418.0366666666667</v>
+        <v>418.04</v>
       </c>
       <c r="F101" t="n">
         <v>411.93</v>
@@ -3821,13 +3821,13 @@
         <v>442.72</v>
       </c>
       <c r="F102" t="n">
-        <v>434.1900000000001</v>
+        <v>434.19</v>
       </c>
       <c r="G102" t="n">
         <v>413</v>
       </c>
       <c r="H102" t="n">
-        <v>421.9400000000001</v>
+        <v>421.94</v>
       </c>
       <c r="I102" t="n">
         <v>409.52</v>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>419.5730769230769</v>
+        <v>419.57</v>
       </c>
       <c r="C103" t="n">
         <v>387.86</v>
@@ -3854,7 +3854,7 @@
         <v>409.46</v>
       </c>
       <c r="E103" t="n">
-        <v>419.7166666666667</v>
+        <v>419.72</v>
       </c>
       <c r="F103" t="n">
         <v>421.79</v>
@@ -3883,10 +3883,10 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>406.0685714285714</v>
+        <v>406.07</v>
       </c>
       <c r="E104" t="n">
-        <v>416.2533333333333</v>
+        <v>416.25</v>
       </c>
       <c r="F104" t="n">
         <v>408.01</v>
@@ -3913,16 +3913,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>382.7223076923077</v>
+        <v>382.72</v>
       </c>
       <c r="C105" t="n">
         <v>389.91</v>
       </c>
       <c r="D105" t="n">
-        <v>416.3814285714286</v>
+        <v>416.38</v>
       </c>
       <c r="E105" t="n">
-        <v>427.5766666666667</v>
+        <v>427.58</v>
       </c>
       <c r="F105" t="n">
         <v>433.04</v>
@@ -3949,16 +3949,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>389.0061538461539</v>
+        <v>389.01</v>
       </c>
       <c r="C106" t="n">
         <v>388.9</v>
       </c>
       <c r="D106" t="n">
-        <v>416.5528571428572</v>
+        <v>416.55</v>
       </c>
       <c r="E106" t="n">
-        <v>428.1166666666667</v>
+        <v>428.12</v>
       </c>
       <c r="F106" t="n">
         <v>447.37</v>
@@ -3989,10 +3989,10 @@
         <v>378.84</v>
       </c>
       <c r="D107" t="n">
-        <v>392.8228571428572</v>
+        <v>392.82</v>
       </c>
       <c r="E107" t="n">
-        <v>412.1433333333333</v>
+        <v>412.14</v>
       </c>
       <c r="F107" t="n">
         <v>415.35</v>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>374.3892307692308</v>
+        <v>374.39</v>
       </c>
       <c r="C108" t="n">
         <v>369.67</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>368.3200000000001</v>
+        <v>368.32</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>373.4330769230769</v>
+        <v>373.43</v>
       </c>
       <c r="C109" t="n">
         <v>366.5</v>
       </c>
       <c r="D109" t="n">
-        <v>380.3957142857143</v>
+        <v>380.4</v>
       </c>
       <c r="E109" t="n">
-        <v>390.3533333333333</v>
+        <v>390.35</v>
       </c>
       <c r="F109" t="n">
         <v>390.53</v>
@@ -4087,16 +4087,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>415.6638461538461</v>
+        <v>415.66</v>
       </c>
       <c r="C110" t="n">
         <v>379.89</v>
       </c>
       <c r="D110" t="n">
-        <v>389.4171428571429</v>
+        <v>389.42</v>
       </c>
       <c r="E110" t="n">
-        <v>409.6266666666667</v>
+        <v>409.63</v>
       </c>
       <c r="F110" t="n">
         <v>430.79</v>
@@ -4121,16 +4121,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>384.6184615384615</v>
+        <v>384.62</v>
       </c>
       <c r="C111" t="n">
         <v>386.98</v>
       </c>
       <c r="D111" t="n">
-        <v>404.9242857142857</v>
+        <v>404.92</v>
       </c>
       <c r="E111" t="n">
-        <v>410.0566666666667</v>
+        <v>410.06</v>
       </c>
       <c r="F111" t="n">
         <v>426.67</v>
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>374.7592307692308</v>
+        <v>374.76</v>
       </c>
       <c r="C112" t="n">
         <v>373.84</v>
@@ -4193,16 +4193,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>393.7053846153846</v>
+        <v>393.71</v>
       </c>
       <c r="C113" t="n">
         <v>381.96</v>
       </c>
       <c r="D113" t="n">
-        <v>411.6314285714286</v>
+        <v>411.63</v>
       </c>
       <c r="E113" t="n">
-        <v>423.5133333333333</v>
+        <v>423.51</v>
       </c>
       <c r="F113" t="n">
         <v>426.01</v>
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>416.4976923076923</v>
+        <v>416.5</v>
       </c>
       <c r="C114" t="n">
         <v>384.84</v>
       </c>
       <c r="D114" t="n">
-        <v>408.1942857142857</v>
+        <v>408.19</v>
       </c>
       <c r="E114" t="n">
-        <v>419.7433333333333</v>
+        <v>419.74</v>
       </c>
       <c r="F114" t="n">
         <v>420.39</v>
@@ -4265,13 +4265,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>377.9753846153847</v>
+        <v>377.98</v>
       </c>
       <c r="C115" t="n">
         <v>376.74</v>
       </c>
       <c r="D115" t="n">
-        <v>402.1371428571428</v>
+        <v>402.14</v>
       </c>
       <c r="E115" t="n">
         <v>413.88</v>
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>390.0846153846153</v>
+        <v>390.08</v>
       </c>
       <c r="C116" t="n">
         <v>388.29</v>
@@ -4337,16 +4337,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>381.6984615384616</v>
+        <v>381.7</v>
       </c>
       <c r="C117" t="n">
         <v>380.06</v>
       </c>
       <c r="D117" t="n">
-        <v>411.6157142857143</v>
+        <v>411.62</v>
       </c>
       <c r="E117" t="n">
-        <v>423.7733333333333</v>
+        <v>423.77</v>
       </c>
       <c r="F117" t="n">
         <v>426.51</v>
@@ -4374,13 +4374,13 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>379.4500000000001</v>
+        <v>379.45</v>
       </c>
       <c r="D118" t="n">
         <v>394.41</v>
       </c>
       <c r="E118" t="n">
-        <v>410.6633333333333</v>
+        <v>410.66</v>
       </c>
       <c r="F118" t="n">
         <v>422.06</v>
@@ -4407,13 +4407,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>379.1169230769231</v>
+        <v>379.12</v>
       </c>
       <c r="C119" t="n">
         <v>379.35</v>
       </c>
       <c r="D119" t="n">
-        <v>396.2157142857143</v>
+        <v>396.22</v>
       </c>
       <c r="E119" t="n">
         <v>415.52</v>
@@ -4422,7 +4422,7 @@
         <v>427.61</v>
       </c>
       <c r="G119" t="n">
-        <v>426.9500000000001</v>
+        <v>426.95</v>
       </c>
       <c r="H119" t="n">
         <v>420.75</v>
@@ -4443,13 +4443,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>380.1884615384615</v>
+        <v>380.19</v>
       </c>
       <c r="C120" t="n">
         <v>384.88</v>
       </c>
       <c r="D120" t="n">
-        <v>409.5557142857143</v>
+        <v>409.56</v>
       </c>
       <c r="E120" t="n">
         <v>429.11</v>
@@ -4479,13 +4479,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>378.0015384615385</v>
+        <v>378</v>
       </c>
       <c r="C121" t="n">
         <v>382.71</v>
       </c>
       <c r="D121" t="n">
-        <v>407.7557142857143</v>
+        <v>407.76</v>
       </c>
       <c r="E121" t="n">
         <v>424.2</v>
@@ -4521,10 +4521,10 @@
         <v>362.55</v>
       </c>
       <c r="D122" t="n">
-        <v>376.8214285714286</v>
+        <v>376.82</v>
       </c>
       <c r="E122" t="n">
-        <v>387.1533333333333</v>
+        <v>387.15</v>
       </c>
       <c r="F122" t="n">
         <v>396.31</v>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>385.3907692307693</v>
+        <v>385.39</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>374.9861538461539</v>
+        <v>374.99</v>
       </c>
       <c r="C124" t="n">
         <v>379.95</v>
@@ -4582,7 +4582,7 @@
         <v>404.31</v>
       </c>
       <c r="E124" t="n">
-        <v>414.0833333333333</v>
+        <v>414.08</v>
       </c>
       <c r="F124" t="n">
         <v>413.7</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>374.9792307692308</v>
+        <v>374.98</v>
       </c>
       <c r="C125" t="n">
         <v>379.5</v>
@@ -4643,16 +4643,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>370.0792307692308</v>
+        <v>370.08</v>
       </c>
       <c r="C126" t="n">
         <v>377.83</v>
       </c>
       <c r="D126" t="n">
-        <v>397.9914285714286</v>
+        <v>397.99</v>
       </c>
       <c r="E126" t="n">
-        <v>412.7766666666667</v>
+        <v>412.78</v>
       </c>
       <c r="F126" t="n">
         <v>412.39</v>
@@ -4682,7 +4682,7 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="n">
-        <v>414.1533333333333</v>
+        <v>414.15</v>
       </c>
       <c r="F127" t="n">
         <v>412.47</v>
@@ -4709,16 +4709,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>381.9276923076923</v>
+        <v>381.93</v>
       </c>
       <c r="C128" t="n">
         <v>383.41</v>
       </c>
       <c r="D128" t="n">
-        <v>398.8242857142857</v>
+        <v>398.82</v>
       </c>
       <c r="E128" t="n">
-        <v>404.6466666666667</v>
+        <v>404.65</v>
       </c>
       <c r="F128" t="n">
         <v>410.29</v>
@@ -4750,7 +4750,7 @@
         <v>409.04</v>
       </c>
       <c r="E129" t="n">
-        <v>438.8866666666667</v>
+        <v>438.89</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
@@ -4760,7 +4760,7 @@
         <v>415.34</v>
       </c>
       <c r="I129" t="n">
-        <v>395.0700000000001</v>
+        <v>395.07</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -4775,16 +4775,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>407.0884615384616</v>
+        <v>407.09</v>
       </c>
       <c r="C130" t="n">
         <v>412.69</v>
       </c>
       <c r="D130" t="n">
-        <v>428.7242857142857</v>
+        <v>428.72</v>
       </c>
       <c r="E130" t="n">
-        <v>432.0633333333333</v>
+        <v>432.06</v>
       </c>
       <c r="F130" t="n">
         <v>429.62</v>
@@ -4809,19 +4809,19 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>380.6469230769231</v>
+        <v>380.65</v>
       </c>
       <c r="C131" t="n">
         <v>383.75</v>
       </c>
       <c r="D131" t="n">
-        <v>400.2285714285715</v>
+        <v>400.23</v>
       </c>
       <c r="E131" t="n">
-        <v>406.8133333333333</v>
+        <v>406.81</v>
       </c>
       <c r="F131" t="n">
-        <v>393.8200000000001</v>
+        <v>393.82</v>
       </c>
       <c r="G131" t="n">
         <v>389.15</v>
@@ -4851,7 +4851,7 @@
         <v>390.63</v>
       </c>
       <c r="D132" t="n">
-        <v>415.6385714285714</v>
+        <v>415.64</v>
       </c>
       <c r="E132" t="n">
         <v>422.74</v>
@@ -4881,16 +4881,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>392.0484615384616</v>
+        <v>392.05</v>
       </c>
       <c r="C133" t="n">
         <v>402.36</v>
       </c>
       <c r="D133" t="n">
-        <v>425.0257142857143</v>
+        <v>425.03</v>
       </c>
       <c r="E133" t="n">
-        <v>429.1433333333333</v>
+        <v>429.14</v>
       </c>
       <c r="F133" t="n">
         <v>424.01</v>
@@ -4917,16 +4917,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>394.1669230769231</v>
+        <v>394.17</v>
       </c>
       <c r="C134" t="n">
         <v>396.55</v>
       </c>
       <c r="D134" t="n">
-        <v>423.5285714285715</v>
+        <v>423.53</v>
       </c>
       <c r="E134" t="n">
-        <v>426.8233333333333</v>
+        <v>426.82</v>
       </c>
       <c r="F134" t="n">
         <v>422.51</v>
@@ -4953,16 +4953,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>416.3869230769231</v>
+        <v>416.39</v>
       </c>
       <c r="C135" t="n">
         <v>389.48</v>
       </c>
       <c r="D135" t="n">
-        <v>409.1914285714286</v>
+        <v>409.19</v>
       </c>
       <c r="E135" t="n">
-        <v>431.5366666666667</v>
+        <v>431.54</v>
       </c>
       <c r="F135" t="n">
         <v>443.51</v>
@@ -4995,7 +4995,7 @@
         <v>400.14</v>
       </c>
       <c r="D136" t="n">
-        <v>418.0885714285714</v>
+        <v>418.09</v>
       </c>
       <c r="E136" t="n">
         <v>429.53</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>387.3030769230769</v>
+        <v>387.3</v>
       </c>
       <c r="C137" t="n">
         <v>385.64</v>
       </c>
       <c r="D137" t="n">
-        <v>397.9228571428571</v>
+        <v>397.92</v>
       </c>
       <c r="E137" t="n">
-        <v>403.1666666666667</v>
+        <v>403.17</v>
       </c>
       <c r="F137" t="n">
         <v>406.2</v>
@@ -5065,10 +5065,10 @@
         <v>407.29</v>
       </c>
       <c r="D138" t="n">
-        <v>418.7371428571429</v>
+        <v>418.74</v>
       </c>
       <c r="E138" t="n">
-        <v>424.6233333333333</v>
+        <v>424.62</v>
       </c>
       <c r="F138" t="n">
         <v>404.87</v>
@@ -5095,16 +5095,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>396.7738461538461</v>
+        <v>396.77</v>
       </c>
       <c r="C139" t="n">
         <v>396.33</v>
       </c>
       <c r="D139" t="n">
-        <v>415.8442857142857</v>
+        <v>415.84</v>
       </c>
       <c r="E139" t="n">
-        <v>430.0233333333333</v>
+        <v>430.02</v>
       </c>
       <c r="F139" t="n">
         <v>433.24</v>
@@ -5131,23 +5131,23 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>383.9153846153847</v>
+        <v>383.92</v>
       </c>
       <c r="C140" t="n">
         <v>384.6</v>
       </c>
       <c r="D140" t="n">
-        <v>404.1128571428572</v>
+        <v>404.11</v>
       </c>
       <c r="E140" t="n">
-        <v>418.3433333333333</v>
+        <v>418.34</v>
       </c>
       <c r="F140" t="n">
         <v>440.61</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>423.5100000000001</v>
+        <v>423.51</v>
       </c>
       <c r="I140" t="n">
         <v>409.88</v>
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>408.8423076923077</v>
+        <v>408.84</v>
       </c>
       <c r="C141" t="n">
         <v>380.48</v>
@@ -5174,7 +5174,7 @@
         <v>402.97</v>
       </c>
       <c r="E141" t="n">
-        <v>423.5666666666667</v>
+        <v>423.57</v>
       </c>
       <c r="F141" t="n">
         <v>441.43</v>
@@ -5201,16 +5201,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>411.5838461538461</v>
+        <v>411.58</v>
       </c>
       <c r="C142" t="n">
         <v>369.89</v>
       </c>
       <c r="D142" t="n">
-        <v>383.5142857142857</v>
+        <v>383.51</v>
       </c>
       <c r="E142" t="n">
-        <v>398.7966666666667</v>
+        <v>398.8</v>
       </c>
       <c r="F142" t="n">
         <v>412.63</v>
@@ -5237,16 +5237,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>368.3776923076923</v>
+        <v>368.38</v>
       </c>
       <c r="C143" t="n">
         <v>362.54</v>
       </c>
       <c r="D143" t="n">
-        <v>394.3557142857143</v>
+        <v>394.36</v>
       </c>
       <c r="E143" t="n">
-        <v>414.4933333333333</v>
+        <v>414.49</v>
       </c>
       <c r="F143" t="n">
         <v>424</v>
@@ -5271,16 +5271,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>369.8323076923077</v>
+        <v>369.83</v>
       </c>
       <c r="C144" t="n">
         <v>370.27</v>
       </c>
       <c r="D144" t="n">
-        <v>398.5514285714286</v>
+        <v>398.55</v>
       </c>
       <c r="E144" t="n">
-        <v>414.0666666666667</v>
+        <v>414.07</v>
       </c>
       <c r="F144" t="n">
         <v>427.58</v>
@@ -5307,13 +5307,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>350.8069230769231</v>
+        <v>350.81</v>
       </c>
       <c r="C145" t="n">
         <v>346.61</v>
       </c>
       <c r="D145" t="n">
-        <v>363.5857142857143</v>
+        <v>363.59</v>
       </c>
       <c r="E145" t="n">
         <v>373.17</v>
@@ -5343,13 +5343,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>356.6069230769231</v>
+        <v>356.61</v>
       </c>
       <c r="C146" t="n">
         <v>359.18</v>
       </c>
       <c r="D146" t="n">
-        <v>381.3642857142857</v>
+        <v>381.36</v>
       </c>
       <c r="E146" t="n">
         <v>393.01</v>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>408.9400000000001</v>
+        <v>408.94</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -5411,10 +5411,10 @@
         <v>348.09</v>
       </c>
       <c r="D148" t="n">
-        <v>360.6514285714285</v>
+        <v>360.65</v>
       </c>
       <c r="E148" t="n">
-        <v>367.8233333333333</v>
+        <v>367.82</v>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
@@ -5463,13 +5463,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>356.5415384615384</v>
+        <v>356.54</v>
       </c>
       <c r="C150" t="n">
         <v>361.06</v>
       </c>
       <c r="D150" t="n">
-        <v>383.1228571428572</v>
+        <v>383.12</v>
       </c>
       <c r="E150" t="n">
         <v>396.25</v>
@@ -5499,16 +5499,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>344.3815384615385</v>
+        <v>344.38</v>
       </c>
       <c r="C151" t="n">
         <v>344.4</v>
       </c>
       <c r="D151" t="n">
-        <v>359.2257142857143</v>
+        <v>359.23</v>
       </c>
       <c r="E151" t="n">
-        <v>370.9333333333333</v>
+        <v>370.93</v>
       </c>
       <c r="F151" t="n">
         <v>380.63</v>
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>353.5392307692308</v>
+        <v>353.54</v>
       </c>
       <c r="C152" t="n">
         <v>364.29</v>
@@ -5561,22 +5561,22 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>351.5992307692308</v>
+        <v>351.6</v>
       </c>
       <c r="C153" t="n">
         <v>349.2</v>
       </c>
       <c r="D153" t="n">
-        <v>379.4428571428572</v>
+        <v>379.44</v>
       </c>
       <c r="E153" t="n">
-        <v>390.9333333333333</v>
+        <v>390.93</v>
       </c>
       <c r="F153" t="n">
         <v>393.35</v>
       </c>
       <c r="G153" t="n">
-        <v>386.2600000000001</v>
+        <v>386.26</v>
       </c>
       <c r="H153" t="n">
         <v>393.14</v>
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>429.6207692307692</v>
+        <v>429.62</v>
       </c>
       <c r="C154" t="n">
         <v>382.63</v>
@@ -5606,7 +5606,7 @@
         <v>409.79</v>
       </c>
       <c r="E154" t="n">
-        <v>414.4066666666667</v>
+        <v>414.41</v>
       </c>
       <c r="F154" t="n">
         <v>407.97</v>
@@ -5633,13 +5633,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>410.0092307692308</v>
+        <v>410.01</v>
       </c>
       <c r="C155" t="n">
         <v>417.98</v>
       </c>
       <c r="D155" t="n">
-        <v>419.5742857142857</v>
+        <v>419.57</v>
       </c>
       <c r="E155" t="n">
         <v>425.03</v>
@@ -5669,16 +5669,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>377.3769230769231</v>
+        <v>377.38</v>
       </c>
       <c r="C156" t="n">
         <v>376.22</v>
       </c>
       <c r="D156" t="n">
-        <v>390.5571428571428</v>
+        <v>390.56</v>
       </c>
       <c r="E156" t="n">
-        <v>402.3133333333333</v>
+        <v>402.31</v>
       </c>
       <c r="F156" t="n">
         <v>399.18</v>
@@ -5705,16 +5705,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>372.0038461538462</v>
+        <v>372</v>
       </c>
       <c r="C157" t="n">
         <v>371.56</v>
       </c>
       <c r="D157" t="n">
-        <v>386.6457142857143</v>
+        <v>386.65</v>
       </c>
       <c r="E157" t="n">
-        <v>396.5533333333333</v>
+        <v>396.55</v>
       </c>
       <c r="F157" t="n">
         <v>397.5</v>
@@ -5741,16 +5741,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>384.5607692307692</v>
+        <v>384.56</v>
       </c>
       <c r="C158" t="n">
         <v>374.56</v>
       </c>
       <c r="D158" t="n">
-        <v>399.5142857142857</v>
+        <v>399.51</v>
       </c>
       <c r="E158" t="n">
-        <v>414.3966666666667</v>
+        <v>414.4</v>
       </c>
       <c r="F158" t="n">
         <v>421.56</v>
@@ -5775,13 +5775,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>388.5661538461539</v>
+        <v>388.57</v>
       </c>
       <c r="C159" t="n">
         <v>387.86</v>
       </c>
       <c r="D159" t="n">
-        <v>412.3671428571428</v>
+        <v>412.37</v>
       </c>
       <c r="E159" t="n">
         <v>427.82</v>
@@ -5793,7 +5793,7 @@
         <v>418.43</v>
       </c>
       <c r="H159" t="n">
-        <v>416.5700000000001</v>
+        <v>416.57</v>
       </c>
       <c r="I159" t="n">
         <v>417.19</v>
@@ -5811,13 +5811,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>382.0876923076923</v>
+        <v>382.09</v>
       </c>
       <c r="C160" t="n">
         <v>372.55</v>
       </c>
       <c r="D160" t="n">
-        <v>403.6114285714286</v>
+        <v>403.61</v>
       </c>
       <c r="E160" t="n">
         <v>416.88</v>
@@ -5847,13 +5847,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>362.6192307692308</v>
+        <v>362.62</v>
       </c>
       <c r="C161" t="n">
-        <v>365.7600000000001</v>
+        <v>365.76</v>
       </c>
       <c r="D161" t="n">
-        <v>381.1128571428572</v>
+        <v>381.11</v>
       </c>
       <c r="E161" t="n">
         <v>405.11</v>
@@ -5883,13 +5883,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>378.1161538461538</v>
+        <v>378.12</v>
       </c>
       <c r="C162" t="n">
         <v>371.63</v>
       </c>
       <c r="D162" t="n">
-        <v>387.1785714285714</v>
+        <v>387.18</v>
       </c>
       <c r="E162" t="n">
         <v>410.58</v>
@@ -5919,16 +5919,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>412.3015384615384</v>
+        <v>412.3</v>
       </c>
       <c r="C163" t="n">
         <v>365.42</v>
       </c>
       <c r="D163" t="n">
-        <v>375.9257142857143</v>
+        <v>375.93</v>
       </c>
       <c r="E163" t="n">
-        <v>394.8233333333333</v>
+        <v>394.82</v>
       </c>
       <c r="F163" t="n">
         <v>415.18</v>
@@ -5955,16 +5955,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>391.1892307692308</v>
+        <v>391.19</v>
       </c>
       <c r="C164" t="n">
         <v>358.08</v>
       </c>
       <c r="D164" t="n">
-        <v>365.4214285714286</v>
+        <v>365.42</v>
       </c>
       <c r="E164" t="n">
-        <v>387.3033333333333</v>
+        <v>387.3</v>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
@@ -5983,13 +5983,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>351.6453846153846</v>
+        <v>351.65</v>
       </c>
       <c r="C165" t="n">
         <v>347.05</v>
       </c>
       <c r="D165" t="n">
-        <v>365.5585714285714</v>
+        <v>365.56</v>
       </c>
       <c r="E165" t="n">
         <v>373.77</v>
@@ -6019,13 +6019,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>366.8915384615385</v>
+        <v>366.89</v>
       </c>
       <c r="C166" t="n">
         <v>367.82</v>
       </c>
       <c r="D166" t="n">
-        <v>391.2657142857143</v>
+        <v>391.27</v>
       </c>
       <c r="E166" t="n">
         <v>403.46</v>
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>383.2323076923077</v>
+        <v>383.23</v>
       </c>
       <c r="C167" t="n">
         <v>381.67</v>
@@ -6064,7 +6064,7 @@
         <v>415.57</v>
       </c>
       <c r="E167" t="n">
-        <v>431.1133333333333</v>
+        <v>431.11</v>
       </c>
       <c r="F167" t="n">
         <v>423.68</v>
@@ -6097,10 +6097,10 @@
         <v>370.22</v>
       </c>
       <c r="D168" t="n">
-        <v>385.4542857142857</v>
+        <v>385.45</v>
       </c>
       <c r="E168" t="n">
-        <v>404.5833333333333</v>
+        <v>404.58</v>
       </c>
       <c r="F168" t="n">
         <v>417.92</v>
@@ -6127,16 +6127,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>367.9438461538462</v>
+        <v>367.94</v>
       </c>
       <c r="C169" t="n">
         <v>362.87</v>
       </c>
       <c r="D169" t="n">
-        <v>375.3357142857143</v>
+        <v>375.34</v>
       </c>
       <c r="E169" t="n">
-        <v>390.5033333333333</v>
+        <v>390.5</v>
       </c>
       <c r="F169" t="n">
         <v>409.7</v>
@@ -6165,10 +6165,10 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>372.2142857142857</v>
+        <v>372.21</v>
       </c>
       <c r="E170" t="n">
-        <v>396.5733333333333</v>
+        <v>396.57</v>
       </c>
       <c r="F170" t="n">
         <v>401.89</v>
@@ -6199,10 +6199,10 @@
         <v>358.87</v>
       </c>
       <c r="D171" t="n">
-        <v>376.2414285714286</v>
+        <v>376.24</v>
       </c>
       <c r="E171" t="n">
-        <v>396.1666666666667</v>
+        <v>396.17</v>
       </c>
       <c r="F171" t="n">
         <v>406.83</v>
@@ -6214,7 +6214,7 @@
         <v>413.75</v>
       </c>
       <c r="I171" t="n">
-        <v>400.5100000000001</v>
+        <v>400.51</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -6233,10 +6233,10 @@
         <v>363.35</v>
       </c>
       <c r="D172" t="n">
-        <v>381.7328571428571</v>
+        <v>381.73</v>
       </c>
       <c r="E172" t="n">
-        <v>394.8033333333333</v>
+        <v>394.8</v>
       </c>
       <c r="F172" t="n">
         <v>407.49</v>
@@ -6259,13 +6259,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>367.2738461538461</v>
+        <v>367.27</v>
       </c>
       <c r="C173" t="n">
         <v>355.82</v>
       </c>
       <c r="D173" t="n">
-        <v>381.2671428571429</v>
+        <v>381.27</v>
       </c>
       <c r="E173" t="n">
         <v>398.66</v>
@@ -6299,10 +6299,10 @@
         <v>352.73</v>
       </c>
       <c r="D174" t="n">
-        <v>372.9057142857143</v>
+        <v>372.91</v>
       </c>
       <c r="E174" t="n">
-        <v>385.2633333333333</v>
+        <v>385.26</v>
       </c>
       <c r="F174" t="n">
         <v>389.45</v>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>369.9753846153847</v>
+        <v>369.98</v>
       </c>
       <c r="C175" t="n">
         <v>369.68</v>
       </c>
       <c r="D175" t="n">
-        <v>398.5971428571429</v>
+        <v>398.6</v>
       </c>
       <c r="E175" t="n">
         <v>414.57</v>
@@ -6365,13 +6365,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>369.6707692307692</v>
+        <v>369.67</v>
       </c>
       <c r="C176" t="n">
         <v>369.97</v>
       </c>
       <c r="D176" t="n">
-        <v>399.2685714285714</v>
+        <v>399.27</v>
       </c>
       <c r="E176" t="n">
         <v>423.71</v>
@@ -6405,10 +6405,10 @@
         <v>355.71</v>
       </c>
       <c r="D177" t="n">
-        <v>369.7857142857143</v>
+        <v>369.79</v>
       </c>
       <c r="E177" t="n">
-        <v>384.2833333333333</v>
+        <v>384.28</v>
       </c>
       <c r="F177" t="n">
         <v>397.99</v>
@@ -6435,16 +6435,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>366.6084615384616</v>
+        <v>366.61</v>
       </c>
       <c r="C178" t="n">
         <v>365.33</v>
       </c>
       <c r="D178" t="n">
-        <v>386.0471428571428</v>
+        <v>386.05</v>
       </c>
       <c r="E178" t="n">
-        <v>413.6966666666667</v>
+        <v>413.7</v>
       </c>
       <c r="F178" t="n">
         <v>419.55</v>
@@ -6471,16 +6471,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>356.7761538461539</v>
+        <v>356.78</v>
       </c>
       <c r="C179" t="n">
         <v>353.88</v>
       </c>
       <c r="D179" t="n">
-        <v>378.0871428571429</v>
+        <v>378.09</v>
       </c>
       <c r="E179" t="n">
-        <v>394.9466666666667</v>
+        <v>394.95</v>
       </c>
       <c r="F179" t="n">
         <v>399.29</v>
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>355.5338461538461</v>
+        <v>355.53</v>
       </c>
       <c r="C180" t="n">
         <v>352.73</v>
       </c>
       <c r="D180" t="n">
-        <v>378.2642857142857</v>
+        <v>378.26</v>
       </c>
       <c r="E180" t="n">
         <v>392.76</v>
@@ -6539,16 +6539,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>357.9484615384616</v>
+        <v>357.95</v>
       </c>
       <c r="C181" t="n">
         <v>355.55</v>
       </c>
       <c r="D181" t="n">
-        <v>366.9542857142857</v>
+        <v>366.95</v>
       </c>
       <c r="E181" t="n">
-        <v>384.5433333333333</v>
+        <v>384.54</v>
       </c>
       <c r="F181" t="n">
         <v>399.79</v>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>365.5653846153846</v>
+        <v>365.57</v>
       </c>
       <c r="C182" t="n">
         <v>358.83</v>
       </c>
       <c r="D182" t="n">
-        <v>392.1442857142857</v>
+        <v>392.14</v>
       </c>
       <c r="E182" t="n">
         <v>407.83</v>
@@ -6611,16 +6611,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>354.8638461538461</v>
+        <v>354.86</v>
       </c>
       <c r="C183" t="n">
         <v>351.09</v>
       </c>
       <c r="D183" t="n">
-        <v>367.6471428571429</v>
+        <v>367.65</v>
       </c>
       <c r="E183" t="n">
-        <v>385.3566666666667</v>
+        <v>385.36</v>
       </c>
       <c r="F183" t="n">
         <v>403.55</v>
@@ -6680,7 +6680,7 @@
         <v>371.2</v>
       </c>
       <c r="E185" t="n">
-        <v>385.2233333333333</v>
+        <v>385.22</v>
       </c>
       <c r="F185" t="n">
         <v>382.48</v>
@@ -6711,10 +6711,10 @@
         <v>351.81</v>
       </c>
       <c r="D186" t="n">
-        <v>356.0971428571428</v>
+        <v>356.1</v>
       </c>
       <c r="E186" t="n">
-        <v>364.6366666666667</v>
+        <v>364.64</v>
       </c>
       <c r="F186" t="n">
         <v>389.72</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>363.2669230769231</v>
+        <v>363.27</v>
       </c>
       <c r="C187" t="n">
         <v>359.1</v>
@@ -6750,7 +6750,7 @@
         <v>380.06</v>
       </c>
       <c r="E187" t="n">
-        <v>389.6566666666667</v>
+        <v>389.66</v>
       </c>
       <c r="F187" t="n">
         <v>399.15</v>
@@ -6777,16 +6777,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>358.0615384615385</v>
+        <v>358.06</v>
       </c>
       <c r="C188" t="n">
         <v>355.68</v>
       </c>
       <c r="D188" t="n">
-        <v>373.2314285714286</v>
+        <v>373.23</v>
       </c>
       <c r="E188" t="n">
-        <v>380.1733333333333</v>
+        <v>380.17</v>
       </c>
       <c r="F188" t="n">
         <v>387.81</v>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>344.1469230769231</v>
+        <v>344.15</v>
       </c>
       <c r="C189" t="n">
         <v>336.16</v>
@@ -6818,7 +6818,7 @@
         <v>357.36</v>
       </c>
       <c r="E189" t="n">
-        <v>375.5566666666667</v>
+        <v>375.56</v>
       </c>
       <c r="F189" t="n">
         <v>372.8</v>
@@ -6845,16 +6845,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>416.8461538461539</v>
+        <v>416.85</v>
       </c>
       <c r="C190" t="n">
         <v>355.05</v>
       </c>
       <c r="D190" t="n">
-        <v>362.9271428571428</v>
+        <v>362.93</v>
       </c>
       <c r="E190" t="n">
-        <v>375.9333333333333</v>
+        <v>375.93</v>
       </c>
       <c r="F190" t="n">
         <v>389.77</v>
@@ -6883,7 +6883,7 @@
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>398.2785714285715</v>
+        <v>398.28</v>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="n">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>412.5353846153847</v>
+        <v>412.54</v>
       </c>
       <c r="C192" t="n">
         <v>351.8</v>
       </c>
       <c r="D192" t="n">
-        <v>351.7428571428572</v>
+        <v>351.74</v>
       </c>
       <c r="E192" t="n">
         <v>369.19</v>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>373.0492307692308</v>
+        <v>373.05</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
@@ -6969,10 +6969,10 @@
         <v>348.09</v>
       </c>
       <c r="D194" t="n">
-        <v>364.9142857142857</v>
+        <v>364.91</v>
       </c>
       <c r="E194" t="n">
-        <v>377.5533333333333</v>
+        <v>377.55</v>
       </c>
       <c r="F194" t="n">
         <v>394.82</v>
@@ -6999,16 +6999,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>354.7784615384616</v>
+        <v>354.78</v>
       </c>
       <c r="C195" t="n">
         <v>350.39</v>
       </c>
       <c r="D195" t="n">
-        <v>367.1442857142857</v>
+        <v>367.14</v>
       </c>
       <c r="E195" t="n">
-        <v>380.9133333333333</v>
+        <v>380.91</v>
       </c>
       <c r="F195" t="n">
         <v>398.43</v>
@@ -7035,16 +7035,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>355.3838461538461</v>
+        <v>355.38</v>
       </c>
       <c r="C196" t="n">
         <v>354.71</v>
       </c>
       <c r="D196" t="n">
-        <v>379.7928571428571</v>
+        <v>379.79</v>
       </c>
       <c r="E196" t="n">
-        <v>396.1966666666667</v>
+        <v>396.2</v>
       </c>
       <c r="F196" t="n">
         <v>399.88</v>
@@ -7078,7 +7078,7 @@
         <v>365.28</v>
       </c>
       <c r="E197" t="n">
-        <v>383.2533333333333</v>
+        <v>383.25</v>
       </c>
       <c r="F197" t="n">
         <v>409.88</v>
@@ -7105,16 +7105,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>359.1407692307693</v>
+        <v>359.14</v>
       </c>
       <c r="C198" t="n">
         <v>356.84</v>
       </c>
       <c r="D198" t="n">
-        <v>375.7757142857143</v>
+        <v>375.78</v>
       </c>
       <c r="E198" t="n">
-        <v>387.4266666666667</v>
+        <v>387.43</v>
       </c>
       <c r="F198" t="n">
         <v>391.88</v>
@@ -7141,7 +7141,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>389.7461538461538</v>
+        <v>389.75</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
@@ -7163,13 +7163,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>405.9284615384615</v>
+        <v>405.93</v>
       </c>
       <c r="C200" t="n">
         <v>324.01</v>
       </c>
       <c r="D200" t="n">
-        <v>336.1028571428571</v>
+        <v>336.1</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
@@ -7193,7 +7193,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>357.9984615384615</v>
+        <v>358</v>
       </c>
       <c r="C201" t="n">
         <v>356.15</v>
@@ -7202,7 +7202,7 @@
         <v>382.3</v>
       </c>
       <c r="E201" t="n">
-        <v>399.5866666666667</v>
+        <v>399.59</v>
       </c>
       <c r="F201" t="n">
         <v>404.21</v>
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>355.5192307692308</v>
+        <v>355.52</v>
       </c>
       <c r="C202" t="n">
         <v>350.17</v>
       </c>
       <c r="D202" t="n">
-        <v>373.1728571428571</v>
+        <v>373.17</v>
       </c>
       <c r="E202" t="n">
         <v>386.44</v>
@@ -7265,16 +7265,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>356.3984615384616</v>
+        <v>356.4</v>
       </c>
       <c r="C203" t="n">
         <v>354.86</v>
       </c>
       <c r="D203" t="n">
-        <v>379.1271428571428</v>
+        <v>379.13</v>
       </c>
       <c r="E203" t="n">
-        <v>392.6366666666667</v>
+        <v>392.64</v>
       </c>
       <c r="F203" t="n">
         <v>384.64</v>
@@ -7305,10 +7305,10 @@
         <v>348.05</v>
       </c>
       <c r="D204" t="n">
-        <v>359.0785714285714</v>
+        <v>359.08</v>
       </c>
       <c r="E204" t="n">
-        <v>386.5133333333333</v>
+        <v>386.51</v>
       </c>
       <c r="F204" t="n">
         <v>388.38</v>
@@ -7339,10 +7339,10 @@
         <v>346.26</v>
       </c>
       <c r="D205" t="n">
-        <v>359.3657142857143</v>
+        <v>359.37</v>
       </c>
       <c r="E205" t="n">
-        <v>381.7933333333333</v>
+        <v>381.79</v>
       </c>
       <c r="F205" t="n">
         <v>393.5</v>
@@ -7369,16 +7369,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>350.7361538461539</v>
+        <v>350.74</v>
       </c>
       <c r="C206" t="n">
         <v>346.66</v>
       </c>
       <c r="D206" t="n">
-        <v>370.7628571428571</v>
+        <v>370.76</v>
       </c>
       <c r="E206" t="n">
-        <v>390.3366666666667</v>
+        <v>390.34</v>
       </c>
       <c r="F206" t="n">
         <v>391.31</v>
@@ -7405,16 +7405,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>355.7346153846154</v>
+        <v>355.73</v>
       </c>
       <c r="C207" t="n">
         <v>357.54</v>
       </c>
       <c r="D207" t="n">
-        <v>388.4214285714286</v>
+        <v>388.42</v>
       </c>
       <c r="E207" t="n">
-        <v>413.5033333333333</v>
+        <v>413.5</v>
       </c>
       <c r="F207" t="n">
         <v>421.9</v>
@@ -7465,16 +7465,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>364.9038461538461</v>
+        <v>364.9</v>
       </c>
       <c r="C209" t="n">
         <v>364.29</v>
       </c>
       <c r="D209" t="n">
-        <v>390.3571428571428</v>
+        <v>390.36</v>
       </c>
       <c r="E209" t="n">
-        <v>405.5233333333333</v>
+        <v>405.52</v>
       </c>
       <c r="F209" t="n">
         <v>410.1</v>
@@ -7505,10 +7505,10 @@
         <v>348.14</v>
       </c>
       <c r="D210" t="n">
-        <v>369.2057142857143</v>
+        <v>369.21</v>
       </c>
       <c r="E210" t="n">
-        <v>380.1633333333333</v>
+        <v>380.16</v>
       </c>
       <c r="F210" t="n">
         <v>399.11</v>
@@ -7535,13 +7535,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>353.5369230769231</v>
+        <v>353.54</v>
       </c>
       <c r="C211" t="n">
         <v>348.95</v>
       </c>
       <c r="D211" t="n">
-        <v>371.0685714285714</v>
+        <v>371.07</v>
       </c>
       <c r="E211" t="n">
         <v>393.46</v>
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>352.9530769230769</v>
+        <v>352.95</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
@@ -7593,16 +7593,16 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>356.4876923076923</v>
+        <v>356.49</v>
       </c>
       <c r="C213" t="n">
         <v>355.09</v>
       </c>
       <c r="D213" t="n">
-        <v>373.5257142857143</v>
+        <v>373.53</v>
       </c>
       <c r="E213" t="n">
-        <v>402.6133333333333</v>
+        <v>402.61</v>
       </c>
       <c r="F213" t="n">
         <v>418.06</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>346.2184615384616</v>
+        <v>346.22</v>
       </c>
       <c r="C214" t="n">
         <v>334.57</v>
       </c>
       <c r="D214" t="n">
-        <v>352.5657142857143</v>
+        <v>352.57</v>
       </c>
       <c r="E214" t="n">
-        <v>364.2966666666667</v>
+        <v>364.3</v>
       </c>
       <c r="F214" t="n">
         <v>376.05</v>
@@ -7671,10 +7671,10 @@
         <v>344.76</v>
       </c>
       <c r="D215" t="n">
-        <v>367.8642857142857</v>
+        <v>367.86</v>
       </c>
       <c r="E215" t="n">
-        <v>386.2833333333333</v>
+        <v>386.28</v>
       </c>
       <c r="F215" t="n">
         <v>399.88</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>361.1130769230769</v>
+        <v>361.11</v>
       </c>
       <c r="C216" t="n">
         <v>353.71</v>
       </c>
       <c r="D216" t="n">
-        <v>379.9114285714285</v>
+        <v>379.91</v>
       </c>
       <c r="E216" t="n">
-        <v>403.2633333333333</v>
+        <v>403.26</v>
       </c>
       <c r="F216" t="n">
         <v>408.23</v>
@@ -7741,10 +7741,10 @@
         <v>346.21</v>
       </c>
       <c r="D217" t="n">
-        <v>364.6485714285715</v>
+        <v>364.65</v>
       </c>
       <c r="E217" t="n">
-        <v>377.9766666666667</v>
+        <v>377.98</v>
       </c>
       <c r="F217" t="n">
         <v>391.5</v>
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>356.2453846153846</v>
+        <v>356.25</v>
       </c>
       <c r="C218" t="n">
         <v>358.13</v>
@@ -7807,16 +7807,16 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>340.7230769230769</v>
+        <v>340.72</v>
       </c>
       <c r="C219" t="n">
         <v>335.39</v>
       </c>
       <c r="D219" t="n">
-        <v>348.6771428571428</v>
+        <v>348.68</v>
       </c>
       <c r="E219" t="n">
-        <v>353.4666666666667</v>
+        <v>353.47</v>
       </c>
       <c r="F219" t="n">
         <v>361.06</v>
@@ -7843,13 +7843,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>358.4823076923077</v>
+        <v>358.48</v>
       </c>
       <c r="C220" t="n">
         <v>353.07</v>
       </c>
       <c r="D220" t="n">
-        <v>375.4128571428572</v>
+        <v>375.41</v>
       </c>
       <c r="E220" t="n">
         <v>386.42</v>
@@ -7881,7 +7881,7 @@
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
-        <v>378.1285714285714</v>
+        <v>378.13</v>
       </c>
       <c r="E221" t="n">
         <v>398.56</v>
@@ -7911,7 +7911,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>357.8930769230769</v>
+        <v>357.89</v>
       </c>
       <c r="C222" t="n">
         <v>358.48</v>
@@ -7947,16 +7947,16 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>360.6861538461538</v>
+        <v>360.69</v>
       </c>
       <c r="C223" t="n">
         <v>359.81</v>
       </c>
       <c r="D223" t="n">
-        <v>387.7985714285714</v>
+        <v>387.8</v>
       </c>
       <c r="E223" t="n">
-        <v>399.8733333333333</v>
+        <v>399.87</v>
       </c>
       <c r="F223" t="n">
         <v>410.46</v>
@@ -7987,7 +7987,7 @@
         <v>339.08</v>
       </c>
       <c r="D224" t="n">
-        <v>359.1657142857143</v>
+        <v>359.17</v>
       </c>
       <c r="E224" t="n">
         <v>369</v>
@@ -8013,16 +8013,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>366.1753846153846</v>
+        <v>366.18</v>
       </c>
       <c r="C225" t="n">
         <v>369.96</v>
       </c>
       <c r="D225" t="n">
-        <v>399.1242857142857</v>
+        <v>399.12</v>
       </c>
       <c r="E225" t="n">
-        <v>410.5133333333333</v>
+        <v>410.51</v>
       </c>
       <c r="F225" t="n">
         <v>426.63</v>
@@ -8053,10 +8053,10 @@
         <v>349.33</v>
       </c>
       <c r="D226" t="n">
-        <v>372.0128571428572</v>
+        <v>372.01</v>
       </c>
       <c r="E226" t="n">
-        <v>380.8133333333333</v>
+        <v>380.81</v>
       </c>
       <c r="F226" t="n">
         <v>399.36</v>
@@ -8087,10 +8087,10 @@
         <v>345.33</v>
       </c>
       <c r="D227" t="n">
-        <v>357.1857142857143</v>
+        <v>357.19</v>
       </c>
       <c r="E227" t="n">
-        <v>383.0633333333333</v>
+        <v>383.06</v>
       </c>
       <c r="F227" t="n">
         <v>400.42</v>
@@ -8117,16 +8117,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>360.2653846153846</v>
+        <v>360.27</v>
       </c>
       <c r="C228" t="n">
         <v>360.25</v>
       </c>
       <c r="D228" t="n">
-        <v>379.7628571428571</v>
+        <v>379.76</v>
       </c>
       <c r="E228" t="n">
-        <v>395.4966666666666</v>
+        <v>395.5</v>
       </c>
       <c r="F228" t="n">
         <v>396.78</v>
@@ -8153,7 +8153,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>354.2446153846154</v>
+        <v>354.24</v>
       </c>
       <c r="C229" t="n">
         <v>352.54</v>
@@ -8162,7 +8162,7 @@
         <v>371.58</v>
       </c>
       <c r="E229" t="n">
-        <v>381.2766666666667</v>
+        <v>381.28</v>
       </c>
       <c r="F229" t="n">
         <v>387.69</v>
@@ -8189,13 +8189,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>367.0738461538461</v>
+        <v>367.07</v>
       </c>
       <c r="C230" t="n">
         <v>358.92</v>
       </c>
       <c r="D230" t="n">
-        <v>382.8571428571428</v>
+        <v>382.86</v>
       </c>
       <c r="E230" t="n">
         <v>388.11</v>
@@ -8225,16 +8225,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>362.5007692307692</v>
+        <v>362.5</v>
       </c>
       <c r="C231" t="n">
         <v>359.23</v>
       </c>
       <c r="D231" t="n">
-        <v>375.4214285714286</v>
+        <v>375.42</v>
       </c>
       <c r="E231" t="n">
-        <v>383.1166666666667</v>
+        <v>383.12</v>
       </c>
       <c r="F231" t="n">
         <v>375.28</v>
@@ -8261,7 +8261,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>363.7446153846154</v>
+        <v>363.74</v>
       </c>
       <c r="C232" t="n">
         <v>361.54</v>
@@ -10870,7 +10870,7 @@
         <v>0.0835</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.881798588887665</v>
+        <v>-1.881775911675115</v>
       </c>
       <c r="J2" t="n">
         <v>231</v>
@@ -10879,19 +10879,19 @@
         <v>186</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3340153199193628</v>
+        <v>0.3340158332797614</v>
       </c>
       <c r="M2" t="n">
-        <v>15.57216388636455</v>
+        <v>15.57209432466362</v>
       </c>
       <c r="N2" t="n">
-        <v>416.9328065998784</v>
+        <v>416.9217957389638</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41893255289998</v>
+        <v>20.41866292730657</v>
       </c>
       <c r="P2" t="n">
-        <v>412.8894357668773</v>
+        <v>412.8893503297538</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10948,7 +10948,7 @@
         <v>0.0578</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.296843117844322</v>
+        <v>-2.296843117844323</v>
       </c>
       <c r="J3" t="n">
         <v>231</v>
@@ -10957,16 +10957,16 @@
         <v>202</v>
       </c>
       <c r="L3" t="n">
-        <v>0.523256783292104</v>
+        <v>0.5232567832921045</v>
       </c>
       <c r="M3" t="n">
         <v>12.57400721811167</v>
       </c>
       <c r="N3" t="n">
-        <v>286.4513615660359</v>
+        <v>286.4513615660358</v>
       </c>
       <c r="O3" t="n">
-        <v>16.92487404874955</v>
+        <v>16.92487404874954</v>
       </c>
       <c r="P3" t="n">
         <v>413.3239297124045</v>
@@ -11026,7 +11026,7 @@
         <v>0.0401</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.426904148044918</v>
+        <v>-2.426876623238033</v>
       </c>
       <c r="J4" t="n">
         <v>231</v>
@@ -11035,19 +11035,19 @@
         <v>206</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5252675966302842</v>
+        <v>0.5252622780979461</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16905977801242</v>
+        <v>14.1689955246528</v>
       </c>
       <c r="N4" t="n">
-        <v>314.5250779986658</v>
+        <v>314.5246519425797</v>
       </c>
       <c r="O4" t="n">
-        <v>17.73485489082631</v>
+        <v>17.73484287899331</v>
       </c>
       <c r="P4" t="n">
-        <v>435.6365539493371</v>
+        <v>435.6361034468271</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11104,7 +11104,7 @@
         <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.015648637318813</v>
+        <v>-2.015678593291262</v>
       </c>
       <c r="J5" t="n">
         <v>231</v>
@@ -11113,19 +11113,19 @@
         <v>206</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4534878702417314</v>
+        <v>0.4534912438586076</v>
       </c>
       <c r="M5" t="n">
-        <v>13.82720356650356</v>
+        <v>13.82732545065554</v>
       </c>
       <c r="N5" t="n">
-        <v>290.5720984901892</v>
+        <v>290.5767799156289</v>
       </c>
       <c r="O5" t="n">
-        <v>17.04617547986026</v>
+        <v>17.04631279531233</v>
       </c>
       <c r="P5" t="n">
-        <v>441.8950335095077</v>
+        <v>441.8953111299044</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11191,7 +11191,7 @@
         <v>202</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3970806409181249</v>
+        <v>0.3970806409181248</v>
       </c>
       <c r="M6" t="n">
         <v>13.06170760956626</v>
@@ -11269,16 +11269,16 @@
         <v>196</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2384425748568216</v>
+        <v>0.2384425748568213</v>
       </c>
       <c r="M7" t="n">
         <v>11.66094909339304</v>
       </c>
       <c r="N7" t="n">
-        <v>225.423874323437</v>
+        <v>225.4238743234371</v>
       </c>
       <c r="O7" t="n">
-        <v>15.0141224959515</v>
+        <v>15.01412249595151</v>
       </c>
       <c r="P7" t="n">
         <v>424.9849307302194</v>
@@ -11332,7 +11332,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.9137125557359845</v>
+        <v>-0.9137125557359844</v>
       </c>
       <c r="J8" t="n">
         <v>231</v>
@@ -11341,7 +11341,7 @@
         <v>195</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1787425255039781</v>
+        <v>0.1787425255039778</v>
       </c>
       <c r="M8" t="n">
         <v>11.27612145926769</v>
@@ -11410,7 +11410,7 @@
         <v>0.0281</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3830880314269239</v>
+        <v>-0.3830880314269236</v>
       </c>
       <c r="J9" t="n">
         <v>231</v>
@@ -11419,7 +11419,7 @@
         <v>197</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05128316805334487</v>
+        <v>0.0512831680533451</v>
       </c>
       <c r="M9" t="n">
         <v>10.11252334309257</v>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-35.1769091071072,173.1184031971909</t>
+          <t>-35.17690913266143,173.11840316863334</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11547,12 +11547,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-35.17794135919842,173.119564288358</t>
+          <t>-35.177941380312156,173.11956427037677</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-35.178148482577285,173.12030099515297</t>
+          <t>-35.17814850998607,173.12030098012735</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-35.176816973820536,173.1185061585271</t>
+          <t>-35.176816978931384,173.1185061528156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-35.17822829697045,173.12025724056193</t>
+          <t>-35.178228269561664,173.12025725558757</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-35.177243453037505,173.11802955416522</t>
+          <t>-35.17724346325915,173.11802954274208</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-35.17836142142084,173.12018426095977</t>
+          <t>-35.178361394012065,173.12018427598545</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-35.1772737244752,173.11799572458173</t>
+          <t>-35.17727369381022,173.11799575885112</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-35.178332422934254,173.12020015812206</t>
+          <t>-35.17833245034304,173.1202001430964</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -11744,7 +11744,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-35.17821204356001,173.1202661507586</t>
+          <t>-35.1782120709688,173.12026613573298</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-35.177259802579314,173.11801128288053</t>
+          <t>-35.177259807690135,173.11801127716896</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-35.17802530742109,173.11949279496812</t>
+          <t>-35.17802532853483,173.11949277698685</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-35.17750916980032,173.11773260347388</t>
+          <t>-35.17750915957868,173.11773261489708</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -11843,12 +11843,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-35.17810180245672,173.11942764882625</t>
+          <t>-35.17810181301359,173.1194276398356</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-35.17832724267508,173.12020299797314</t>
+          <t>-35.178327270083855,173.1202029829475</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-35.177483595277465,173.11776118429802</t>
+          <t>-35.17748357994503,173.1177612014328</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -11888,7 +11888,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-35.17825345823517,173.12024344702965</t>
+          <t>-35.17825343082638,173.12024346205527</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -11919,7 +11919,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-35.17811269713734,173.11941837048093</t>
+          <t>-35.17811267602361,173.1194183884622</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-35.17730984779912,173.1179553552266</t>
+          <t>-35.177309837577454,173.11795536664974</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -11971,12 +11971,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-35.17808884918726,173.1194386803441</t>
+          <t>-35.17808888085785,173.11943865337219</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-35.17835158166996,173.12018965517774</t>
+          <t>-35.17835160907874,173.12018964015206</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-35.17810792543624,173.11942243425264</t>
+          <t>-35.17810794654994,173.11942241627136</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -12065,7 +12065,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-35.17733459952553,173.11792769408729</t>
+          <t>-35.17733461996883,173.117927671241</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -12075,7 +12075,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-35.178122747268404,173.11940981138497</t>
+          <t>-35.17812272615469,173.11940982936628</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-35.177306832411816,173.11795872505246</t>
+          <t>-35.1773068477443,173.11795870791778</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -12169,7 +12169,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-35.17728396657352,173.1179842786052</t>
+          <t>-35.17728399212765,173.11798425004739</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -12179,12 +12179,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-35.17795777513317,173.11955030795943</t>
+          <t>-35.17795778569005,173.1195502989688</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-35.178169779207856,173.12028932025842</t>
+          <t>-35.17816980661666,173.1202893052328</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-35.177248390098555,173.11802403679775</t>
+          <t>-35.17724837987691,173.11802404822086</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-35.17816509230471,173.1202918896373</t>
+          <t>-35.1781651197135,173.12029187461167</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-35.17739962452404,173.1178550256871</t>
+          <t>-35.17739959896992,173.11785505424504</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -12283,12 +12283,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-35.17817949038135,173.1193614866178</t>
+          <t>-35.17817947982451,173.11936149560847</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-35.1783684928851,173.12018038433433</t>
+          <t>-35.17836846547631,173.12018039936004</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -12323,7 +12323,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-35.177777220874006,173.1197040740536</t>
+          <t>-35.17777725254466,173.11970404708188</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -12365,7 +12365,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-35.17713381546281,173.11815207838967</t>
+          <t>-35.177133835906155,173.1181520555435</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-35.17791058591436,173.119590495971</t>
+          <t>-35.177910564800605,173.11959051395223</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-35.17708876855053,173.11820241991813</t>
+          <t>-35.1770887889939,173.11820239707197</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -12427,12 +12427,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-35.17783928477356,173.11965121844014</t>
+          <t>-35.177839253102924,173.1196512454119</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-35.1780631041815,173.12034779984936</t>
+          <t>-35.178063076772695,173.12034781487492</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -12469,7 +12469,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-35.1771269005025,173.1181598061092</t>
+          <t>-35.17712692605668,173.11815977755145</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -12479,12 +12479,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-35.17781990234378,173.11966772515163</t>
+          <t>-35.1778198917869,173.1196677341422</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-35.17803311895546,173.12036423781586</t>
+          <t>-35.17803314636425,173.1203642227903</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -12521,7 +12521,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-35.17703494119354,173.11826257380244</t>
+          <t>-35.17703497185859,173.11826253953325</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -12531,12 +12531,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-35.17769327252405,173.1197755670094</t>
+          <t>-35.17769330419471,173.11977554003775</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-35.177872914485775,173.12045206203058</t>
+          <t>-35.177872887076965,173.1204520770561</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -12573,7 +12573,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-35.17718435138824,173.1180956025993</t>
+          <t>-35.17718433094492,173.1180956254455</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-35.17802767215913,173.11949078106767</t>
+          <t>-35.17802769327287,173.11949076308642</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-35.17711394453338,173.1181742848706</t>
+          <t>-35.17711397008756,173.1181742563129</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-35.17700484855999,173.11829620328467</t>
+          <t>-35.1770048741142,173.11829617472702</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-35.17759205305287,173.11986176833076</t>
+          <t>-35.17759206360976,173.11986175934027</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -12765,7 +12765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-35.17709153862449,173.11819932426414</t>
+          <t>-35.1770915130703,173.11819935282185</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -12775,12 +12775,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-35.17796261017989,173.11954619025894</t>
+          <t>-35.17796258906614,173.1195462082402</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-35.178233970589105,173.1202541302564</t>
+          <t>-35.17823394318033,173.12025414528202</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-35.177104612145875,173.11818471414523</t>
+          <t>-35.1771046019242,173.1181847255683</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -12827,12 +12827,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-35.17792659013416,173.1195768662166</t>
+          <t>-35.17792660069103,173.11957685722598</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-35.17816876508262,173.1202898762059</t>
+          <t>-35.178168737673836,173.12028989123152</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -12879,7 +12879,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-35.177939047243484,173.11956625730113</t>
+          <t>-35.17793901557289,173.11956628427293</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-35.176830793563646,173.11849071462706</t>
+          <t>-35.176830798674494,173.11849070891554</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -12936,7 +12936,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-35.17801681071911,173.1203731780211</t>
+          <t>-35.178016783310305,173.12037319304667</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -12973,7 +12973,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-35.176913165119785,173.118398662249</t>
+          <t>-35.17691318556318,173.11839863940295</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -12983,12 +12983,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-35.17772601998662,173.1197476783009</t>
+          <t>-35.177726041100385,173.1197476603198</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-35.17797753390499,173.12039470962685</t>
+          <t>-35.177977561313796,173.1203946946013</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-35.177125745453644,173.11816109691807</t>
+          <t>-35.17712573012115,173.1181611140527</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -13035,12 +13035,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-35.17777272364207,173.1197079040371</t>
+          <t>-35.177772744755835,173.11970788605595</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-35.17798600322533,173.1203900667352</t>
+          <t>-35.17798603063414,173.1203900517097</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -13077,7 +13077,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-35.177054919466954,173.11824024742225</t>
+          <t>-35.17705490413444,173.11824026455685</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -13087,7 +13087,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-35.1778779335006,173.11961830389015</t>
+          <t>-35.17787790182998,173.11961833086195</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -13129,7 +13129,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-35.17695615244412,173.11835062267963</t>
+          <t>-35.1769561728875,173.11835059983355</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -13139,7 +13139,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-35.17777716808959,173.11970411900646</t>
+          <t>-35.17777717864648,173.1197041100159</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-35.17695044363043,173.118357002447</t>
+          <t>-35.17695045896296,173.11835698531246</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -13183,12 +13183,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-35.17774077851209,173.1197351094946</t>
+          <t>-35.17774074684144,173.1197351364663</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-35.17792754024321,173.1204221161907</t>
+          <t>-35.177927567652034,173.1204221011652</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-35.176839246911435,173.118481267801</t>
+          <t>-35.17683923668972,173.11848127922403</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -13235,12 +13235,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-35.17778504352365,173.11969741203905</t>
+          <t>-35.17778501185299,173.11969743901076</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-35.177923154833984,173.12042452027364</t>
+          <t>-35.17792312742517,173.12042453529918</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -13287,12 +13287,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-35.177827313273085,173.11966141376286</t>
+          <t>-35.17782728160243,173.11966144073463</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-35.17802051090725,173.12037114957147</t>
+          <t>-35.17802048349844,173.12037116459703</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-35.17770707037575,173.11976381635387</t>
+          <t>-35.177707049262,173.11976383433495</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-35.177020175974214,173.11827907441258</t>
+          <t>-35.17702015553086,173.11827909725866</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-35.17789605965543,173.1196028670364</t>
+          <t>-35.17789608076919,173.1196028490552</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -13429,7 +13429,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-35.177151207633514,173.11813264199841</t>
+          <t>-35.177151176968515,173.1181326762677</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -13439,12 +13439,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-35.17792720243278,173.1195763447615</t>
+          <t>-35.17792719187591,173.1195763537521</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-35.17820094300104,173.12027223613538</t>
+          <t>-35.17820097040983,173.12027222110976</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-35.17695255440938,173.11835464358953</t>
+          <t>-35.17695258507445,173.11835460932042</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -13487,12 +13487,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-35.17789804434787,173.1196011768039</t>
+          <t>-35.17789807601849,173.11960114983208</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-35.178131187629305,173.1203104763048</t>
+          <t>-35.17813116022052,173.1203104913304</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -13521,7 +13521,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-35.17729541482582,173.11797148469594</t>
+          <t>-35.177295419936655,173.11797147898434</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-35.177178990124766,173.11810159401688</t>
+          <t>-35.177179015678924,173.1181015654591</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -13555,7 +13555,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-35.17803128260734,173.11948770627302</t>
+          <t>-35.17803131427794,173.11948767930116</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -13597,7 +13597,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-35.17714421601194,173.11814045539444</t>
+          <t>-35.17714420067944,173.11814047252906</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -13607,12 +13607,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-35.177898688317214,173.11960062837738</t>
+          <t>-35.177898667203465,173.11960064635858</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-35.17809166414779,173.12033214320095</t>
+          <t>-35.178091691556595,173.12033212817536</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -13651,7 +13651,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-35.177611435509654,173.1198452617113</t>
+          <t>-35.177611424952744,173.11984527070183</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-35.177159272529714,173.11812362917593</t>
+          <t>-35.177159282751376,173.11812361775281</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -13703,12 +13703,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-35.17795449194636,173.1195531040396</t>
+          <t>-35.17795446027574,173.1195531310114</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-35.178231997156544,173.12025521210185</t>
+          <t>-35.178231969747756,173.12025522712747</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -13745,7 +13745,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-35.177076487206925,173.11821614474323</t>
+          <t>-35.1770764974286,173.11821613332015</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -13755,12 +13755,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-35.1778291712838,173.11965983142022</t>
+          <t>-35.17782920295442,173.11965980444845</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-35.17808549716869,173.12033552395607</t>
+          <t>-35.17808552457749,173.1203355089305</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-35.17705333510671,173.1182420179977</t>
+          <t>-35.17705330955251,173.11824204655534</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -13807,12 +13807,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-35.177876951711156,173.1196191400154</t>
+          <t>-35.17787694115427,173.119619149006</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-35.17814609801239,173.12030230238017</t>
+          <t>-35.17814612542118,173.12030228735455</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -13849,7 +13849,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-35.17696146772246,173.11834468269845</t>
+          <t>-35.17696148816583,173.11834465985237</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -13859,12 +13859,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-35.177767519098836,173.11971233638837</t>
+          <t>-35.17776749798507,173.11971235436948</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-35.17806606433164,173.12034617708784</t>
+          <t>-35.178066036922864,173.1203461921134</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-35.17706131823771,173.11823309658138</t>
+          <t>-35.17706134890275,173.11823306231213</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -13911,12 +13911,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-35.17783945368362,173.11965107459076</t>
+          <t>-35.17783947479737,173.1196510566096</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-35.17807214908468,173.120342841411</t>
+          <t>-35.178072121675896,173.1203428564366</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -13953,7 +13953,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-35.176934395575806,173.11837493661378</t>
+          <t>-35.17693438024327,173.11837495374834</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -13963,12 +13963,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-35.177783407206945,173.11969880557797</t>
+          <t>-35.17778338609318,173.11969882355908</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-35.17800984888354,173.120376994511</t>
+          <t>-35.17800987629234,173.12037697948543</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -14005,7 +14005,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-35.17708649422776,173.11820496155275</t>
+          <t>-35.17708646356273,173.11820499582197</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -14015,12 +14015,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-35.1778743336059,173.11962136968265</t>
+          <t>-35.177874354719656,173.11962135170145</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-35.178092787908426,173.1203315271522</t>
+          <t>-35.17809276049963,173.12033154217775</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -14057,7 +14057,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-35.17716119420323,173.1181214816337</t>
+          <t>-35.17716120953571,173.11812146449904</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -14089,7 +14089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-35.17716317720671,173.11811926555274</t>
+          <t>-35.17716320276088,173.118119236995</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -14099,7 +14099,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-35.17802485347584,173.11949318156505</t>
+          <t>-35.17802488514644,173.1194931545932</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -14144,7 +14144,7 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-35.178121676778034,173.12031569018532</t>
+          <t>-35.17812170418682,173.12031567515973</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-35.177227609465085,173.11804725999832</t>
+          <t>-35.177227583910934,173.1180472885561</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-35.17807443906966,173.1194509525664</t>
+          <t>-35.17807447074027,173.1194509255945</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-35.1772222277607,173.11805327426845</t>
+          <t>-35.17722220220654,173.11805330282624</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -14243,12 +14243,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-35.178025729695754,173.11949243534306</t>
+          <t>-35.17802569802515,173.11949246231492</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-35.17827519340041,173.1202315316948</t>
+          <t>-35.1782752208092,173.12023151666915</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-35.177233527806315,173.11804064601372</t>
+          <t>-35.17723349714133,173.11804068028306</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -14287,12 +14287,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-35.178056407946386,173.11946630857184</t>
+          <t>-35.17805643961699,173.11946628159995</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-35.178301807327415,173.12021694178688</t>
+          <t>-35.178301779918634,173.12021695681253</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -14335,7 +14335,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-35.178051541231845,173.11947045325365</t>
+          <t>-35.17805156234557,173.11947043527238</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -14373,7 +14373,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-35.17720460050462,173.11807297342503</t>
+          <t>-35.177204595393796,173.11807297913657</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -14383,12 +14383,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-35.17791593824925,173.1195859377358</t>
+          <t>-35.17791595936299,173.1195859197546</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-35.17809626882547,173.12032961890344</t>
+          <t>-35.178096296234244,173.12032960387788</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -14425,7 +14425,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-35.17724016677415,173.11803322669823</t>
+          <t>-35.17724014122,173.11803325525605</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -14435,12 +14435,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-35.178029192347864,173.11948948641734</t>
+          <t>-35.17802917123413,173.1194895043986</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-35.17819754431132,173.12027409931216</t>
+          <t>-35.178197516902536,173.12027411433775</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -14507,12 +14507,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-35.1781306015721,173.11940312234213</t>
+          <t>-35.17813063324268,173.1194030953702</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-35.1783778118688,173.12017527560215</t>
+          <t>-35.17837783927757,173.12017526057647</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -14549,7 +14549,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-35.17728586780122,173.11798215390266</t>
+          <t>-35.177285852468735,173.11798217103737</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-35.17718039560378,173.11810002334028</t>
+          <t>-35.17718041093628,173.1181000062056</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -14592,7 +14592,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-35.17821464739478,173.12026472332428</t>
+          <t>-35.178214619985994,173.1202647383499</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -14629,7 +14629,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-35.17724640198602,173.11802625859485</t>
+          <t>-35.17724638665353,173.11802627572953</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-35.17724261486147,173.11803049086106</t>
+          <t>-35.17724259952899,173.11803050799574</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -14663,7 +14663,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-35.178112412102095,173.11941861322836</t>
+          <t>-35.17811238043151,173.1194186402003</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -14715,12 +14715,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-35.177872032206906,173.119623329632</t>
+          <t>-35.17787206387753,173.1196233026602</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-35.178137025702156,173.12030727585307</t>
+          <t>-35.17813699829337,173.12030729087863</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -14745,7 +14745,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-35.177180022512985,173.1181004402835</t>
+          <t>-35.17718001229132,173.11810045170662</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14760,7 +14760,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-35.17821925207095,173.1202621990192</t>
+          <t>-35.17821922466218,173.12026221404483</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -14799,12 +14799,12 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-35.17769196346996,173.11977668183806</t>
+          <t>-35.17769197402685,173.1197766728475</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-35.177995349627174,173.12038494302527</t>
+          <t>-35.177995322218365,173.12038495805078</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -14847,12 +14847,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-35.17793285035956,173.11957153478744</t>
+          <t>-35.177932882030184,173.11957150781564</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-35.17820560249498,173.1202696817799</t>
+          <t>-35.17820557508618,173.1202696968055</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -14889,7 +14889,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-35.177109590100756,173.1181791511042</t>
+          <t>-35.177109584989935,173.11817915681576</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14899,7 +14899,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-35.17798501185732,173.11952711217322</t>
+          <t>-35.17798498018671,173.11952713914505</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-35.17700265089786,173.11829865924113</t>
+          <t>-35.177002681562904,173.11829862497197</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -14951,7 +14951,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-35.17782449458633,173.11966381424847</t>
+          <t>-35.177824473472576,173.11966383222966</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-35.17706248350902,173.11823179435143</t>
+          <t>-35.17706247839818,173.11823180006294</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-35.177754629144225,173.11972331387256</t>
+          <t>-35.1777546397011,173.11972330488197</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-35.17729657498346,173.1179701881701</t>
+          <t>-35.17729654942933,173.11797021672794</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15055,12 +15055,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-35.1780781761992,173.11944776988062</t>
+          <t>-35.17807816564233,173.11944777887126</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-35.17838397884318,173.12017189482287</t>
+          <t>-35.17838400625195,173.12017187979717</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -15107,12 +15107,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-35.177829625229585,173.11965944482512</t>
+          <t>-35.17782964634335,173.11965942684395</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-35.17811485198834,173.12031943155705</t>
+          <t>-35.17811487939714,173.1203194165315</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -15149,7 +15149,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-35.17694882349255,173.11835881299857</t>
+          <t>-35.17694879793834,173.11835884155616</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15159,12 +15159,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-35.178170432598336,173.11936920060376</t>
+          <t>-35.1781704642689,173.11936917363175</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-35.178389981364816,173.1201686041972</t>
+          <t>-35.17839000877359,173.12016858917153</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -15201,7 +15201,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-35.17732750058998,173.11793562746143</t>
+          <t>-35.177327510811644,173.11793561603827</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-35.17828933443526,173.11926793866857</t>
+          <t>-35.17828936610581,173.11926791169654</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -15237,7 +15237,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-35.17706929114635,173.11822418658633</t>
+          <t>-35.177069321811395,173.11822415231714</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -15247,7 +15247,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-35.178116254799356,173.11941534063314</t>
+          <t>-35.17811622312876,173.1194153676051</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-35.17713938116223,173.1181458585169</t>
+          <t>-35.177139350497214,173.11814589278617</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -15295,7 +15295,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-35.17786021906198,173.11963339010404</t>
+          <t>-35.177860240175725,173.11963337212285</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -15328,7 +15328,7 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-35.17837786668634,173.12017524555077</t>
+          <t>-35.17837783927757,173.12017526057647</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -15349,7 +15349,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-35.176940175942285,173.11836847688764</t>
+          <t>-35.17694016060975,173.1183684940222</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -15379,12 +15379,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-35.178120382531745,173.1194118252901</t>
+          <t>-35.178120361418024,173.1194118432714</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-35.17832071938565,173.12020657408135</t>
+          <t>-35.17832069197687,173.12020658910703</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -15427,12 +15427,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-35.17818595117735,173.11935598433308</t>
+          <t>-35.17818598284792,173.1193559573611</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-35.17842991594701,173.1201467117575</t>
+          <t>-35.17842988853825,173.12014672678322</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -15469,7 +15469,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-35.176785138317506,173.11854173545004</t>
+          <t>-35.176785153650066,173.11854171831553</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -15515,12 +15515,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-35.178308252308135,173.11925182735774</t>
+          <t>-35.17830828397868,173.11925180038568</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-35.17861692594931,173.12004419114658</t>
+          <t>-35.17861695335807,173.12004417612079</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -15557,7 +15557,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-35.17698729281578,173.11831582237502</t>
+          <t>-35.176987267261545,173.11831585093265</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -15567,12 +15567,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-35.17816505915805,173.11937377684868</t>
+          <t>-35.17816506971489,173.119373767858</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-35.17843674073107,173.12014297035697</t>
+          <t>-35.1784367133223,173.12014298538267</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -15609,7 +15609,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-35.17729339604928,173.11797374076502</t>
+          <t>-35.17729342671424,173.1179737064956</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -15647,12 +15647,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-35.17811520967015,173.11941623070715</t>
+          <t>-35.17811518855645,173.11941624868842</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-35.1783318473499,173.1202004736611</t>
+          <t>-35.17833187475869,173.12020045863542</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -15699,12 +15699,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-35.178035040851576,173.11948450560934</t>
+          <t>-35.178035009180974,173.11948453258123</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-35.178184305866395,173.12028135668467</t>
+          <t>-35.1781842784576,173.12028137171026</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -15741,7 +15741,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-35.17706564200749,173.11822826462276</t>
+          <t>-35.17706566756166,173.11822823606505</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-35.17730693973916,173.11795860510952</t>
+          <t>-35.17730691418503,173.11795863366737</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -15775,12 +15775,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-35.178127508412224,173.11940575660245</t>
+          <t>-35.178127529525945,173.11940573862114</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-35.178370466316956,173.12017930248527</t>
+          <t>-35.178370438908175,173.12017931751095</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-35.1772761418967,173.1179930230117</t>
+          <t>-35.17727615211835,173.11799301158854</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -15827,12 +15827,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-35.178079633046266,173.11944652917248</t>
+          <t>-35.178079643603134,173.11944652018184</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-35.17830394521232,173.12021576978563</t>
+          <t>-35.17830391780354,173.12021578481128</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -15869,7 +15869,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-35.17723747847776,173.11803623097856</t>
+          <t>-35.17723748358859,173.118036225267</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -15899,12 +15899,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-35.17805393764011,173.11946841238003</t>
+          <t>-35.178053927083255,173.11946842137064</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-35.17834752517093,173.1201918789775</t>
+          <t>-35.17834749776215,173.12019189400317</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -15932,7 +15932,7 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>-35.17801886637919,173.12037205110465</t>
+          <t>-35.178018838970395,173.12037206613022</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -15965,7 +15965,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-35.1772757739171,173.11799343424434</t>
+          <t>-35.1772757534738,173.1179934570906</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -15975,7 +15975,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-35.17806060957833,173.11946273029952</t>
+          <t>-35.178060577907736,173.11946275727144</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -16017,7 +16017,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-35.177181295110344,173.11809901810722</t>
+          <t>-35.177181274667014,173.1180990409534</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -16027,12 +16027,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-35.177911367123,173.1195898306665</t>
+          <t>-35.177911377679884,173.11958982167593</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-35.178116386880816,173.12031859012413</t>
+          <t>-35.178116359472014,173.12031860514972</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -16069,7 +16069,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-35.177160780225684,173.11812194426912</t>
+          <t>-35.1771608108907,173.11812190999981</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -16079,12 +16079,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-35.178036761620675,173.1194830401368</t>
+          <t>-35.17803678273441,173.11948302215555</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>-35.178276509021984,173.1202308104637</t>
+          <t>-35.178276536430765,173.1202307954381</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -16132,7 +16132,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-35.178277715008406,173.1202301493352</t>
+          <t>-35.17827768759963,173.12023016436086</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-35.177022992047704,173.11827592736</t>
+          <t>-35.177023012491084,173.1182759045139</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -16232,7 +16232,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-35.178263900981804,173.12023772226047</t>
+          <t>-35.178263873573016,173.1202377372861</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -16271,12 +16271,12 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-35.17805297696544,173.11946923052764</t>
+          <t>-35.17805296640857,173.11946923951825</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-35.17829237870674,173.1202221106122</t>
+          <t>-35.178292406115524,173.12022209558654</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-35.17726783169058,173.11800231001502</t>
+          <t>-35.17726784702308,173.1180022928803</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -16323,12 +16323,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-35.177976766942464,173.119534133845</t>
+          <t>-35.177976777499325,173.1195341248544</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-35.178199271064976,173.12027315269816</t>
+          <t>-35.17819924365618,173.12027316772378</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-35.17722608132683,173.11804896775413</t>
+          <t>-35.177226055772685,173.1180489963119</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -16375,12 +16375,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-35.17797550011811,173.1195352127189</t>
+          <t>-35.17797552123186,173.11953519473767</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>-35.17819483084127,173.1202755868483</t>
+          <t>-35.17819480343249,173.12027560187394</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -16423,12 +16423,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-35.17815086018433,173.11938586928082</t>
+          <t>-35.17815088129803,173.1193858512995</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-35.17832617373271,173.1202035839741</t>
+          <t>-35.17832620114149,173.12020356894845</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -16465,7 +16465,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-35.17732319727531,173.11794043660473</t>
+          <t>-35.177323192164486,173.1179404423163</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-35.177329550030755,173.11793333712103</t>
+          <t>-35.17732957047406,173.11793331427472</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -16523,12 +16523,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-35.178242694268384,173.1193076594912</t>
+          <t>-35.178242662597825,173.1193076864632</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>-35.17850534487879,173.1201053609827</t>
+          <t>-35.17850537228756,173.12010534595697</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -16561,7 +16561,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-35.177048965338834,173.11824690135865</t>
+          <t>-35.177048990893034,173.11824687280097</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -16571,12 +16571,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-35.17817602773244,173.11936443555436</t>
+          <t>-35.17817600661872,173.1193644535357</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>-35.17834686736026,173.12019223959368</t>
+          <t>-35.17834683995148,173.12019225461935</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -16609,7 +16609,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-35.17725523349853,173.1180163890171</t>
+          <t>-35.17725522327686,173.1180164004402</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -16619,12 +16619,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-35.178061433013724,173.11946202903002</t>
+          <t>-35.178061464684326,173.11946200205813</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-35.17834333162796,173.12019417790543</t>
+          <t>-35.17834330421918,173.1201941929311</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-35.1773207389684,173.11794318387047</t>
+          <t>-35.17732073385756,173.11794318958204</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -16713,7 +16713,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-35.17719485925937,173.11808385964707</t>
+          <t>-35.177194828594374,173.11808389391638</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -16723,12 +16723,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-35.17801186852969,173.119504240034</t>
+          <t>-35.17801187908656,173.11950423104335</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>-35.178232682376176,173.12025483646104</t>
+          <t>-35.178232709784965,173.12025482143542</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -16765,7 +16765,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-35.17704342518839,173.11825309265998</t>
+          <t>-35.17704340985586,173.11825310979455</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -16775,12 +16775,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-35.17803726835022,173.1194826085866</t>
+          <t>-35.178037300020826,173.1194825816147</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-35.178263681711535,173.12023784246563</t>
+          <t>-35.17826370912031,173.12023782743998</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -16817,7 +16817,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-35.17729937060555,173.1179670639425</t>
+          <t>-35.177299339940596,173.11796709821192</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -16827,7 +16827,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-35.17808202945412,173.11944448829746</t>
+          <t>-35.17808200834039,173.11944450627874</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -16869,7 +16869,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-35.17721891594247,173.11805697535738</t>
+          <t>-35.177218946607454,173.11805694108804</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-35.17727463420253,173.11799470792326</t>
+          <t>-35.17727462398088,173.1179947193464</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -16931,12 +16931,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-35.178011984655235,173.11950414113713</t>
+          <t>-35.178011952984626,173.119504168109</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>-35.1782305444909,173.12025600846027</t>
+          <t>-35.17823057189967,173.12025599343463</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>-35.178338343230386,173.12019691257754</t>
+          <t>-35.17833837063916,173.1201968975519</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -17021,7 +17021,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-35.177291786138866,173.11797553990863</t>
+          <t>-35.17729176569556,173.1179755627549</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -17031,7 +17031,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-35.178125787644085,173.11940722207822</t>
+          <t>-35.1781257559735,173.11940724905017</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -17073,7 +17073,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-35.17728466675684,173.1179834961207</t>
+          <t>-35.17728465653519,173.1179835075438</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-35.178027207657024,173.1194911766553</t>
+          <t>-35.17802717598642,173.11949120362715</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -17125,7 +17125,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-35.17729919683745,173.11796725813582</t>
+          <t>-35.1772992070591,173.11796724671268</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -17135,7 +17135,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-35.17804050930792,173.1194798484633</t>
+          <t>-35.178040477637325,173.1194798754352</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -17187,12 +17187,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-35.178269107510744,173.11928516481632</t>
+          <t>-35.17826911806759,173.11928515582565</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>-35.17853165729335,173.1200909362759</t>
+          <t>-35.178531684702115,173.12009092125012</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -17229,7 +17229,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-35.17725010222631,173.1180221234248</t>
+          <t>-35.17725010733714,173.11802211771322</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-35.17731923127493,173.11794486878387</t>
+          <t>-35.177319205720806,173.11794489734174</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>-35.17831022182301,173.12021232890982</t>
+          <t>-35.1783102492318,173.12021231388414</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -17305,7 +17305,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-35.17731927727235,173.11794481737974</t>
+          <t>-35.177319272161526,173.1179448230913</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-35.177351833224314,173.11790843465934</t>
+          <t>-35.17735182811348,173.1179084403709</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -17363,12 +17363,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-35.17811266546675,173.11941839745285</t>
+          <t>-35.17811267602361,173.1194183884622</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>-35.17832096606467,173.12020643885037</t>
+          <t>-35.17832093865588,173.12020645387605</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -17408,7 +17408,7 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>-35.17830964623863,173.12021264444866</t>
+          <t>-35.17830967364742,173.12021262942298</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-35.177273111175865,173.11799640996946</t>
+          <t>-35.17727309584337,173.11799642710415</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -17455,12 +17455,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-35.17810651081684,173.11942363899902</t>
+          <t>-35.17810654248742,173.1194236120271</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>-35.17838781607164,173.1201697912266</t>
+          <t>-35.17838778866285,173.1201698062523</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -17504,7 +17504,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>-35.17810627303568,173.12032413456564</t>
+          <t>-35.178106245626886,173.1203241495912</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -17537,7 +17537,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-35.17710594096343,173.1181832291446</t>
+          <t>-35.17710593074175,173.1181832405677</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -17547,12 +17547,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-35.1778855555648,173.11961181268052</t>
+          <t>-35.177885587235416,173.1196117857087</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>-35.17816237883443,173.12029337717226</t>
+          <t>-35.17816240624322,173.12029336214667</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -17585,7 +17585,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-35.17728162070378,173.11798690021385</t>
+          <t>-35.17728160026047,173.11798692306013</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -17595,12 +17595,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-35.17809613342206,173.1194324768015</t>
+          <t>-35.17809612286519,173.11943248579215</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>-35.17837000036776,173.12017955792186</t>
+          <t>-35.17837002777654,173.12017954289618</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -17647,7 +17647,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-35.17798225651449,173.11952945872437</t>
+          <t>-35.17798224595763,173.11952946771498</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-35.17720586799081,173.11807155695942</t>
+          <t>-35.17720585776915,173.11807156838253</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -17699,12 +17699,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-35.17791288731281,173.11958853601988</t>
+          <t>-35.177912855642184,173.11958856299165</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>-35.17818638893436,173.120280214738</t>
+          <t>-35.17818641634315,173.12028019971237</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -17741,7 +17741,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-35.177191792760134,173.11808728657897</t>
+          <t>-35.17719177231681,173.11808730942516</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -17751,12 +17751,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-35.17792395091597,173.11957911386776</t>
+          <t>-35.17792394035909,173.11957912285834</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>-35.17820546545102,173.120269756908</t>
+          <t>-35.17820549285982,173.1202697418824</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -17793,7 +17793,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-35.177044161149354,173.11825227019932</t>
+          <t>-35.17704414070599,173.11825229304546</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -17803,12 +17803,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-35.178029899657886,173.11948888404527</t>
+          <t>-35.178029910214754,173.11948887505466</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>-35.17816670942334,173.12029100312648</t>
+          <t>-35.17816668201455,173.12029101815207</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -17855,7 +17855,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-35.17796415148295,173.11954487762947</t>
+          <t>-35.177964140926086,173.11954488662008</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -17897,7 +17897,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-35.17723739670448,173.1180363223635</t>
+          <t>-35.1772374171478,173.11803629951729</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -17907,12 +17907,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-35.17811317219606,173.11941796590187</t>
+          <t>-35.17811319330979,173.11941794792057</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>-35.17839998556734,173.12016311982003</t>
+          <t>-35.178399958158565,173.1201631348457</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -17955,12 +17955,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-35.17795935866376,173.11954895936762</t>
+          <t>-35.17795933755003,173.11954897734884</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>-35.17822355525045,173.12025983999573</t>
+          <t>-35.178223582659214,173.1202598249701</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -17997,7 +17997,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-35.177174472148444,173.1181066430278</t>
+          <t>-35.17717449770261,173.11810661447004</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -18007,12 +18007,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-35.17798073632533,173.11953075337323</t>
+          <t>-35.17798076799594,173.1195307264014</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>-35.17817915301399,173.12028418149984</t>
+          <t>-35.17817918042278,173.1202841664742</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -18049,7 +18049,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-35.1772599047959,173.11801116864928</t>
+          <t>-35.17725987413092,173.11801120291867</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -18059,12 +18059,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-35.17806742931237,173.11945692234917</t>
+          <t>-35.1780674504261,173.11945690436792</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>-35.17827519340041,173.1202315316948</t>
+          <t>-35.1782752208092,173.12023151666915</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -18097,7 +18097,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-35.177094288255006,173.1181962514561</t>
+          <t>-35.177094303587516,173.1181962343215</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -18112,7 +18112,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>-35.17823224383561,173.12025507687116</t>
+          <t>-35.178232216426835,173.1202550918968</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -18149,7 +18149,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-35.17707607322904,173.1182166073777</t>
+          <t>-35.17707609878323,173.11821657882</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -18159,12 +18159,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-35.178219648658164,173.1193272861281</t>
+          <t>-35.178219680328716,173.1193272591561</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>-35.17843591846793,173.12014342112815</t>
+          <t>-35.17843589105916,173.12014343615385</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -18201,7 +18201,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-35.17736313836548,173.11789580065295</t>
+          <t>-35.17736312303301,173.11789581778768</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -18211,12 +18211,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-35.17813953267503,173.11939551625156</t>
+          <t>-35.17813950100446,173.1193955432235</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>-35.17830685054303,173.1202141770659</t>
+          <t>-35.178306877951826,173.12021416204024</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -18249,7 +18249,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-35.17735347379867,173.11790660124362</t>
+          <t>-35.17735348913115,173.1179065841089</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -18259,12 +18259,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-35.17810852717731,173.1194219217859</t>
+          <t>-35.17810853773416,173.11942191279522</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>-35.178310358866916,173.1202122537815</t>
+          <t>-35.17831033145813,173.12021226880717</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -18301,7 +18301,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-35.17747987971375,173.11776533662652</t>
+          <t>-35.17747985927048,173.11776535947288</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-35.178366916702416,173.1192018660635</t>
+          <t>-35.178366885031885,173.11920189303564</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -18353,7 +18353,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-35.17744134414737,173.11780840201928</t>
+          <t>-35.17744132370409,173.11780842486561</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-35.178235536722354,173.11931375516798</t>
+          <t>-35.17823556839293,173.11931372819595</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -18447,12 +18447,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-35.17838860045918,173.11918339915704</t>
+          <t>-35.178388611016025,173.11918339016634</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>-35.17869060068395,173.12000380183392</t>
+          <t>-35.17869062809271,173.12000378680816</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-35.17744177856697,173.11780791653428</t>
+          <t>-35.17744178878861,173.1178079051111</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -18523,7 +18523,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-35.178222541236075,173.11932482268458</t>
+          <t>-35.17822256234978,173.11932480470324</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -18565,7 +18565,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-35.177522570356935,173.11771762766318</t>
+          <t>-35.17752258057856,173.11771761624001</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -18575,12 +18575,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-35.178399136188055,173.1191744264307</t>
+          <t>-35.178399104517524,173.11917445340282</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>-35.17866502831673,173.12001782090047</t>
+          <t>-35.17866505572549,173.12001780587468</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -18617,7 +18617,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-35.17746172609076,173.1177856242012</t>
+          <t>-35.17746172097995,173.11778562991282</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -18649,7 +18649,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-35.177474615572294,173.11777121956717</t>
+          <t>-35.17747461046147,173.11777122527877</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -18659,12 +18659,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-35.17824973568872,173.1193016627108</t>
+          <t>-35.17824975680242,173.11930164472943</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>-35.17850057575347,173.12010797545983</t>
+          <t>-35.178500603162234,173.1201079604341</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -18701,7 +18701,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-35.176956234217634,173.1183505312953</t>
+          <t>-35.17695623932849,173.1183505255838</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -18716,7 +18716,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>-35.17830756317134,173.12021378639875</t>
+          <t>-35.178307535762556,173.1202138014244</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -18753,7 +18753,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-35.17708653511447,173.11820491586045</t>
+          <t>-35.17708653000362,173.11820492157196</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -18763,7 +18763,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-35.177953172337475,173.11955422786593</t>
+          <t>-35.177953204008105,173.11955420089413</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -18805,7 +18805,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-35.17730334682841,173.11796262034238</t>
+          <t>-35.1773033263851,173.11796264318866</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -18815,12 +18815,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-35.17816760336064,173.1193716101002</t>
+          <t>-35.178167582246914,173.1193716280815</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>-35.17840700221333,173.12015927324234</t>
+          <t>-35.17840702962211,173.12015925821666</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -18857,7 +18857,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-35.17733904594276,173.11792272501862</t>
+          <t>-35.17733907149689,173.11792269646074</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -18867,12 +18867,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-35.17819650803299,173.11934699366992</t>
+          <t>-35.178196476362416,173.1193470206419</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>-35.178454364570435,173.12013330882579</t>
+          <t>-35.1784543919792,173.12013329380005</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -18909,7 +18909,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-35.17725561681066,173.11801596064996</t>
+          <t>-35.177255621921496,173.1180159549384</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -18919,12 +18919,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-35.17810141185285,173.11942798148007</t>
+          <t>-35.17810144352343,173.11942795450815</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>-35.178307645397666,173.12021374132178</t>
+          <t>-35.17830761798889,173.12021375634743</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -18957,7 +18957,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-35.17722900472173,173.11804570074295</t>
+          <t>-35.17722897916757,173.11804572930075</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -18967,7 +18967,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-35.17800643174299,173.1195088702049</t>
+          <t>-35.17800641062926,173.11950888818615</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -19009,7 +19009,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-35.17727204812366,173.11799759797483</t>
+          <t>-35.17727203279119,173.11799761510952</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-35.178071134771464,173.11945376663584</t>
+          <t>-35.178071145328325,173.1194537576452</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -19061,7 +19061,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-35.177401397978926,173.1178530437681</t>
+          <t>-35.17740139286811,173.1178530494797</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -19071,7 +19071,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-35.178237394728434,173.11931217280952</t>
+          <t>-35.17823741584215,173.11931215482815</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-35.17729843532431,173.11796810915945</t>
+          <t>-35.177298409770174,173.11796813771727</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -19123,7 +19123,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-35.178192570325905,173.11935034718755</t>
+          <t>-35.17819255976906,173.11935035617822</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -19165,7 +19165,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-35.17707130481677,173.11822193624116</t>
+          <t>-35.177071315038454,173.1182219248181</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -19175,12 +19175,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-35.17827572665594,173.1192795276593</t>
+          <t>-35.17827569498539,173.11927955463136</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>-35.178468589721675,173.1201255104795</t>
+          <t>-35.17846861713045,173.1201254954538</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -19217,7 +19217,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-35.17721157678931,173.11806517715212</t>
+          <t>-35.17721157167847,173.1180651828637</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -19227,12 +19227,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-35.178353351156936,173.11921341911346</t>
+          <t>-35.17835336171377,173.11921341012274</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>-35.178530423898955,173.12009161243424</t>
+          <t>-35.17853045130772,173.12009159740848</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -19253,7 +19253,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-35.17747430892327,173.1177715622627</t>
+          <t>-35.17747427825836,173.11777159653226</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -19263,7 +19263,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-35.1783523376998,173.11921428222053</t>
+          <t>-35.178352327142946,173.11921429121122</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -19305,7 +19305,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-35.17737301247502,173.117884765885</t>
+          <t>-35.17737302269668,173.11788475446184</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -19315,7 +19315,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-35.1781623671594,173.11937606946626</t>
+          <t>-35.17816233548883,173.11937609643823</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -19357,7 +19357,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-35.1772644432115,173.11800609678153</t>
+          <t>-35.177264458543995,173.11800607964685</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -19372,7 +19372,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>-35.178170190339706,173.1202890948743</t>
+          <t>-35.17817021774851,173.12028907984867</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -19419,12 +19419,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-35.178205312450075,173.11933949545505</t>
+          <t>-35.17820534412063,173.11933946848305</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>-35.178388336838346,173.12016950573852</t>
+          <t>-35.178388364247134,173.1201694907128</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -19461,7 +19461,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-35.17736602086962,173.11789257932347</t>
+          <t>-35.17736604642372,173.11789255076556</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -19471,12 +19471,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-35.178280086635006,173.11927581450755</t>
+          <t>-35.178280054964446,173.11927584147958</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>-35.17850411148431,173.12010603714063</t>
+          <t>-35.178504138893075,173.12010602211487</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -19515,12 +19515,12 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-35.17830315335042,173.11925616986022</t>
+          <t>-35.17830318502096,173.11925614288816</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-35.17845420011781,173.12013339898007</t>
+          <t>-35.178454227526586,173.12013338395434</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -19563,12 +19563,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-35.178273393592036,173.11928151459992</t>
+          <t>-35.17827340414889,173.11928150560925</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>-35.17845754398771,173.12013156584302</t>
+          <t>-35.178457516578945,173.12013158086876</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -19611,12 +19611,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-35.17823281305432,173.1193160747615</t>
+          <t>-35.17823283416803,173.11931605678018</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>-35.17846875417429,173.12012542032522</t>
+          <t>-35.178468781583064,173.1201254052995</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -19645,7 +19645,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-35.17737047239623,173.11788760453933</t>
+          <t>-35.17737049795034,173.11788757598143</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -19655,7 +19655,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-35.17823625458835,173.1193131438022</t>
+          <t>-35.17823623347464,173.11931316178354</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -19703,12 +19703,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-35.17829804383572,173.11926052135286</t>
+          <t>-35.178298012165165,173.1192605483249</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>-35.17854719806234,173.12008241667903</t>
+          <t>-35.178547225471114,173.12008240165332</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -19745,7 +19745,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-35.17735252318549,173.11790766359667</t>
+          <t>-35.177352492520555,173.11790769786612</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -19755,7 +19755,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-35.17810818935775,173.11942220948652</t>
+          <t>-35.17810816824403,173.1194222274678</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -19797,7 +19797,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-35.17735454707161,173.11790540181275</t>
+          <t>-35.177354552182436,173.11790539610118</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -19807,7 +19807,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-35.17810322763301,173.11942643508937</t>
+          <t>-35.17810321707614,173.11942644408</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -19855,12 +19855,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-35.178321099991734,173.11924088568762</t>
+          <t>-35.1783210683212,173.11924091265968</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>-35.17855525623861,173.12007799910904</t>
+          <t>-35.17855528364738,173.1200779840833</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -19897,7 +19897,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-35.177374893257685,173.11788266402414</t>
+          <t>-35.177374883036045,173.1178826754473</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -19907,12 +19907,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-35.17820093135529,173.11934322658135</t>
+          <t>-35.178200910241586,173.11934324456269</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>-35.17831340124149,173.1202105859332</t>
+          <t>-35.178313373832715,173.12021060095884</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-35.17744021976721,173.11780965856858</t>
+          <t>-35.17744019421311,173.1178096871265</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -19959,12 +19959,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-35.17825975414083,173.11929313055816</t>
+          <t>-35.17825973302714,173.1192931485395</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>-35.178467575597224,173.12012606643108</t>
+          <t>-35.17846754818846,173.1201260814568</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-35.17744847373939,173.1178004343535</t>
+          <t>-35.177448499293476,173.11780040579558</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-35.178258445091274,173.11929424540227</t>
+          <t>-35.17825847676183,173.1192942184302</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -20045,7 +20045,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-35.17743243087888,173.1178183630274</t>
+          <t>-35.17743242065724,173.11781837445056</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -20055,12 +20055,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-35.17834202366167,173.11922306613198</t>
+          <t>-35.1783420553322,173.1192230391599</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>-35.178553118355126,173.1200791711175</t>
+          <t>-35.178553145763885,173.12007915609175</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -20097,7 +20097,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-35.1773818235326,173.11787491912295</t>
+          <t>-35.17738179286766,173.11787495339246</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -20107,7 +20107,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-35.1781558746919,173.11938159871977</t>
+          <t>-35.17815590636248,173.1193815717478</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -20149,7 +20149,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-35.17745292526217,173.11779545955935</t>
+          <t>-35.17745295081627,173.11779543100138</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -20159,12 +20159,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-35.178336903591315,173.11922742661943</t>
+          <t>-35.17833688247763,173.11922744460082</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>-35.17854643061698,173.12008283739996</t>
+          <t>-35.178546403208216,173.1200828524257</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>-35.178547526967506,173.12008223637008</t>
+          <t>-35.178547554376266,173.12008222134432</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -20287,12 +20287,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-35.17842225567089,173.11915473677257</t>
+          <t>-35.178422234557196,173.119154754754</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>-35.17871680345074,173.11998943716503</t>
+          <t>-35.17871677604198,173.11998945219082</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -20329,7 +20329,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-35.17739709466757,173.11785785292014</t>
+          <t>-35.177397074224295,173.11785787576648</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>-35.17851107331087,173.12010222060462</t>
+          <t>-35.1785110459021,173.12010223563036</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -20381,7 +20381,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-35.17743167958843,173.1178192026306</t>
+          <t>-35.17743168981007,173.11781919120745</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -20391,12 +20391,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-35.17829563687418,173.11926257122934</t>
+          <t>-35.17829564743103,173.11926256223867</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>-35.1785890512413,173.1200594723519</t>
+          <t>-35.17858907865006,173.12005945732616</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -20425,7 +20425,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-35.177524129155344,173.1177158856254</t>
+          <t>-35.1775241087121,173.1177159084718</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>-35.17862701237215,173.12003866166165</t>
+          <t>-35.178626984963394,173.12003867668741</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -20477,7 +20477,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-35.177041109977814,173.11825567998397</t>
+          <t>-35.17704108442363,173.11825570854165</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -20487,12 +20487,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-35.17837178340757,173.11919772134974</t>
+          <t>-35.17837176229388,173.11919773933113</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>-35.178623915182555,173.1200403595743</t>
+          <t>-35.178623942591315,173.1200403445485</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -20531,7 +20531,7 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-35.17811054353772,173.11942020457263</t>
+          <t>-35.17811053298089,173.11942021356327</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-35.17706975112183,173.1182236725481</t>
+          <t>-35.17706972045679,173.11822370681733</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -20579,7 +20579,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-35.178454432918265,173.1191273330655</t>
+          <t>-35.17845445403194,173.11912731508406</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -20613,7 +20613,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-35.1773321003323,173.11793048704638</t>
+          <t>-35.17733209522148,173.11793049275798</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -20643,12 +20643,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-35.17835709883692,173.1192102274152</t>
+          <t>-35.17835713050746,173.11921020044312</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>-35.178610594526134,173.12004766209972</t>
+          <t>-35.178610621934894,173.12004764707396</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -20685,7 +20685,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-35.177453492563,173.1177948255729</t>
+          <t>-35.177453482341356,173.1177948369961</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -20695,12 +20695,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-35.17834061960116,173.1192242618946</t>
+          <t>-35.17834065127169,173.11922423492248</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>-35.17858296649652,173.12006280807086</t>
+          <t>-35.17858299390528,173.12006279304512</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-35.17744947034899,173.11779932059366</t>
+          <t>-35.17744949590308,173.11779929203573</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -20747,12 +20747,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-35.178247149259995,173.11930386542633</t>
+          <t>-35.178247170373695,173.119303847445</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>-35.178457297308775,173.12013170107446</t>
+          <t>-35.178457269900015,173.12013171610016</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -20800,7 +20800,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>-35.178563725546134,173.12007335615186</t>
+          <t>-35.1785637529549,173.12007334112616</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -20837,7 +20837,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-35.1774245091086,173.11782721598578</t>
+          <t>-35.17742451421942,173.1178272102742</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -20847,12 +20847,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-35.17827683512521,173.1192785836377</t>
+          <t>-35.17827680345466,173.11927861060974</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>-35.17852940977467,173.1200921683866</t>
+          <t>-35.178529382365916,173.12009218341237</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -20889,7 +20889,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-35.17722116470795,173.11805446227234</t>
+          <t>-35.17722113915379,173.11805449083013</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -20913,7 +20913,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-35.17711364810488,173.11817461614007</t>
+          <t>-35.17711363788321,173.11817462756312</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -20923,7 +20923,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-35.17857000914702,173.1190289025118</t>
+          <t>-35.17857003026067,173.11902888453028</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-35.17743209867562,173.11781873428052</t>
+          <t>-35.17743208845398,173.11781874570372</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>-35.178429422589126,173.12014698222018</t>
+          <t>-35.17842939518034,173.12014699724588</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -21005,7 +21005,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-35.177448570844945,173.11780032583331</t>
+          <t>-35.17744856573412,173.1178003315449</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -21015,7 +21015,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-35.17829606970499,173.1192622026112</t>
+          <t>-35.17829609081869,173.11926218462986</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -21057,7 +21057,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-35.17744272917926,173.11780685417892</t>
+          <t>-35.17744271895763,173.1178068656021</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -21067,12 +21067,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-35.178252068752975,173.11929967577132</t>
+          <t>-35.178252047639276,173.11929969375268</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>-35.178486569873556,173.12011565360638</t>
+          <t>-35.178486542464775,173.1201156686321</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -21115,12 +21115,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-35.1784002235428,173.11917350038766</t>
+          <t>-35.17840021298595,173.11917350937838</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>-35.17853691977604,173.1200880513334</t>
+          <t>-35.17853694718481,173.12008803630764</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -21163,12 +21163,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-35.17839810161751,173.11917530752015</t>
+          <t>-35.17839806994698,173.1191753344923</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>-35.17857573058367,173.12006677487116</t>
+          <t>-35.178575757992434,173.1200667598454</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -21205,7 +21205,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-35.17748034990888,173.11776481115993</t>
+          <t>-35.177480324354796,173.1177648397179</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -21215,12 +21215,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-35.17831387910807,173.1192470353202</t>
+          <t>-35.17831390022176,173.11924701733884</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>-35.17850548192262,173.12010528585404</t>
+          <t>-35.178505454513854,173.12010530087977</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -21257,7 +21257,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-35.17744713981576,173.11780192507817</t>
+          <t>-35.17744717048066,173.11780189080864</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -21267,12 +21267,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-35.178183385861324,173.11935816906387</t>
+          <t>-35.178183396418184,173.11935816007323</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>-35.178314990950724,173.12020971444485</t>
+          <t>-35.1783150183595,173.12020969941918</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -21337,7 +21337,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-35.17738621883944,173.1178700071643</t>
+          <t>-35.177386244393546,173.1178699786064</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -21347,12 +21347,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-35.17816908132063,173.11937035140804</t>
+          <t>-35.17816906020691,173.11937036938937</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>-35.17838060756387,173.12017374298227</t>
+          <t>-35.178380634972626,173.1201737279566</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -21395,12 +21395,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-35.17832538607167,173.11923723546656</t>
+          <t>-35.17832535440113,173.11923726243865</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>-35.17858913346759,173.12005942727464</t>
+          <t>-35.178589160876356,173.12005941224888</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -21437,7 +21437,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-35.177461741423215,173.11778560706642</t>
+          <t>-35.17746172097995,173.11778562991282</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -21447,7 +21447,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-35.17831161994263,173.11924895932785</t>
+          <t>-35.17831160938579,173.11924896831854</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -21489,7 +21489,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-35.17746562053383,173.11778127196888</t>
+          <t>-35.17746564097709,173.11778124912252</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -21513,7 +21513,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-35.177442136324295,173.11780751672313</t>
+          <t>-35.17744212099183,173.1178075338579</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -21523,12 +21523,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-35.17829346216329,173.11926442331065</t>
+          <t>-35.17829343049274,173.1192644502827</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>-35.17840453542374,173.12016062555486</t>
+          <t>-35.17840456283251,173.12016061052918</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-35.17751036573108,173.11773126696008</t>
+          <t>-35.177510355509455,173.11773127838327</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -21575,12 +21575,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-35.17844835217908,173.11913251172047</t>
+          <t>-35.178448320508565,173.1191325386926</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>-35.178719599143314,173.11998790453245</t>
+          <t>-35.17871957173457,173.11998791955824</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -21627,12 +21627,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-35.17833529895069,173.11922879320508</t>
+          <t>-35.178335330621216,173.119228766233</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>-35.17853881098074,173.1200870145571</t>
+          <t>-35.17853883838951,173.12008699953134</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -21669,7 +21669,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-35.17741140496588,173.11784186048868</t>
+          <t>-35.17741142540916,173.11784183764232</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -21679,12 +21679,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-35.17824627304128,173.1193046116524</t>
+          <t>-35.17824628359813,173.1193046026617</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>-35.1783991907129,173.12016355556509</t>
+          <t>-35.178399218121676,173.12016354053938</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -21727,12 +21727,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-35.17835906241008,173.11920855514504</t>
+          <t>-35.17835905185322,173.11920856413573</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>-35.17860711361379,173.12004957037243</t>
+          <t>-35.17860708620503,173.12004958539822</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -21769,7 +21769,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-35.17744374623219,173.1178057175729</t>
+          <t>-35.17744371556728,173.11780575184244</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -21821,7 +21821,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-35.17754687738772,173.11769046328922</t>
+          <t>-35.17754689783096,173.11769044044283</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -21831,12 +21831,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-35.178477087892446,173.11910803897268</t>
+          <t>-35.17847706677877,173.11910805695413</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>-35.17880865016403,173.1199390856222</t>
+          <t>-35.178808622755284,173.11993910064805</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -21873,7 +21873,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-35.1774288839702,173.11782232686835</t>
+          <t>-35.17742889930266,173.11782230973355</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -21883,7 +21883,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-35.178279516565105,173.1192763000044</t>
+          <t>-35.17827953767882,173.119276282023</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -21927,7 +21927,7 @@
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-35.17825944799215,173.11929339128784</t>
+          <t>-35.178259437435294,173.1192934002785</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -21969,7 +21969,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-35.17743279885787,173.11781795179317</t>
+          <t>-35.17743281930114,173.1178179289468</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -22021,7 +22021,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-35.17741424147118,173.1178386905596</t>
+          <t>-35.17741421591709,173.11783871911754</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -22031,12 +22031,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-35.17818798865054,173.11935424913528</t>
+          <t>-35.17818797809369,173.11935425812595</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>-35.17842706543477,173.12014827443068</t>
+          <t>-35.178427092843535,173.12014825940497</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -22079,7 +22079,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-35.17839957957541,173.11917404882092</t>
+          <t>-35.178399547904895,173.11917407579304</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -22113,7 +22113,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-35.17737777065066,173.1178794484053</t>
+          <t>-35.177377739985715,173.11787948267477</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -22123,12 +22123,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-35.178104293876,173.11942552703434</t>
+          <t>-35.17810432554658,173.1194255000624</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>-35.17833957662538,173.1201962364224</t>
+          <t>-35.17833960403417,173.12019622139672</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -22171,12 +22171,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-35.178304641866035,173.11925490217322</t>
+          <t>-35.178304662979734,173.11925488419186</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>-35.178583788759326,173.12006235729808</t>
+          <t>-35.17858381616809,173.12006234227232</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -22219,12 +22219,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-35.178414211358046,173.11916158769597</t>
+          <t>-35.17841417968752,173.11916161466814</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>-35.17856528784556,173.12007249968394</t>
+          <t>-35.17856531525433,173.1200724846582</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -22261,7 +22261,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-35.177417037089846,173.117835566323</t>
+          <t>-35.17741700642491,173.1178356005925</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -22271,12 +22271,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-35.17824737095389,173.11930367662217</t>
+          <t>-35.178247392067604,173.1193036586408</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>-35.178463053150345,173.12012854567436</t>
+          <t>-35.17846302574158,173.12012856070007</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -22313,7 +22313,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-35.17745703947076,173.1177908617296</t>
+          <t>-35.17745707013567,173.11779082746003</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -22328,7 +22328,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>-35.1785799789416,173.12006444587865</t>
+          <t>-35.17857995153285,173.1200644609044</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -22365,7 +22365,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-35.1773718012101,173.11788611952903</t>
+          <t>-35.17737182676421,173.11788609097115</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -22375,7 +22375,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-35.178224504810835,173.11932315041992</t>
+          <t>-35.178224483697115,173.11932316840125</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -22417,7 +22417,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-35.17740218504536,173.11785216418443</t>
+          <t>-35.17740219015618,173.11785215847283</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -22427,12 +22427,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-35.17827945322402,173.1192763539485</t>
+          <t>-35.17827946378087,173.1192763449578</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>-35.17856484930537,173.12007274009602</t>
+          <t>-35.17856482189661,173.12007275512178</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-35.177393920847564,173.1178613998122</t>
+          <t>-35.177393951512485,173.11786136554272</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">

--- a/data/nzd0061/nzd0061.xlsx
+++ b/data/nzd0061/nzd0061.xlsx
@@ -10861,13 +10861,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.065</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0569</v>
+        <v>0.0276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0835</v>
+        <v>0.0315</v>
       </c>
       <c r="I2" t="n">
         <v>-1.881775911675115</v>
@@ -10939,13 +10939,13 @@
         <v>0.1434347124629537</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0434</v>
+        <v>0.0465</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0578</v>
+        <v>0.0706</v>
       </c>
       <c r="I3" t="n">
         <v>-2.296843117844323</v>
@@ -11017,13 +11017,13 @@
         <v>0.2863950476837078</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0297</v>
+        <v>0.0376</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0401</v>
+        <v>0.0525</v>
       </c>
       <c r="I4" t="n">
         <v>-2.426876623238033</v>
@@ -11095,13 +11095,13 @@
         <v>0.4298297601493486</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0289</v>
+        <v>0.0326</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0368</v>
+        <v>0.0459</v>
       </c>
       <c r="I5" t="n">
         <v>-2.015678593291262</v>
@@ -11173,13 +11173,13 @@
         <v>0.5704477380451769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.024</v>
+        <v>0.0247</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0275</v>
+        <v>0.0312</v>
       </c>
       <c r="I6" t="n">
         <v>-1.706062695167226</v>
@@ -11254,10 +11254,10 @@
         <v>0.025</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0217</v>
+        <v>0.0246</v>
       </c>
       <c r="H7" t="n">
-        <v>0.027</v>
+        <v>0.0262</v>
       </c>
       <c r="I7" t="n">
         <v>-1.080741159303076</v>
@@ -11328,9 +11328,15 @@
       <c r="E8" t="n">
         <v>0.8572817439167177</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0268</v>
+      </c>
       <c r="I8" t="n">
         <v>-0.9137125557359844</v>
       </c>
@@ -11401,13 +11407,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0243</v>
+        <v>0.0295</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0281</v>
+        <v>0.0352</v>
       </c>
       <c r="I9" t="n">
         <v>-0.3830880314269236</v>

--- a/data/nzd0061/nzd0061.xlsx
+++ b/data/nzd0061/nzd0061.xlsx
@@ -504,10 +504,10 @@
         <v>423.59</v>
       </c>
       <c r="E2" t="n">
-        <v>436.92</v>
+        <v>435.56</v>
       </c>
       <c r="F2" t="n">
-        <v>441.3</v>
+        <v>438.77</v>
       </c>
       <c r="G2" t="n">
         <v>421.59</v>
@@ -540,10 +540,10 @@
         <v>410.6</v>
       </c>
       <c r="E3" t="n">
-        <v>429.88</v>
+        <v>427.38</v>
       </c>
       <c r="F3" t="n">
-        <v>427.04</v>
+        <v>422.37</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
@@ -574,10 +574,10 @@
         <v>405.22</v>
       </c>
       <c r="E4" t="n">
-        <v>411.94</v>
+        <v>410.19</v>
       </c>
       <c r="F4" t="n">
-        <v>425.45</v>
+        <v>422.18</v>
       </c>
       <c r="G4" t="n">
         <v>418.78</v>
@@ -610,10 +610,10 @@
         <v>407.54</v>
       </c>
       <c r="E5" t="n">
-        <v>414.3</v>
+        <v>413.05</v>
       </c>
       <c r="F5" t="n">
-        <v>428.87</v>
+        <v>426.54</v>
       </c>
       <c r="G5" t="n">
         <v>420.11</v>
@@ -640,10 +640,10 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>417.69</v>
+        <v>421.26</v>
       </c>
       <c r="F6" t="n">
-        <v>429.67</v>
+        <v>436.34</v>
       </c>
       <c r="G6" t="n">
         <v>411.56</v>
@@ -676,10 +676,10 @@
         <v>406</v>
       </c>
       <c r="E7" t="n">
-        <v>422.21</v>
+        <v>424.35</v>
       </c>
       <c r="F7" t="n">
-        <v>429.9</v>
+        <v>433.9</v>
       </c>
       <c r="G7" t="n">
         <v>410.08</v>
@@ -712,10 +712,10 @@
         <v>403.78</v>
       </c>
       <c r="E8" t="n">
-        <v>417.68</v>
+        <v>415.25</v>
       </c>
       <c r="F8" t="n">
-        <v>420.94</v>
+        <v>416.41</v>
       </c>
       <c r="G8" t="n">
         <v>404.26</v>
@@ -742,7 +742,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>427.32</v>
+        <v>424.61</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -770,10 +770,10 @@
         <v>400.46</v>
       </c>
       <c r="E10" t="n">
-        <v>408.76</v>
+        <v>407.37</v>
       </c>
       <c r="F10" t="n">
-        <v>413.93</v>
+        <v>411.33</v>
       </c>
       <c r="G10" t="n">
         <v>402.96</v>
@@ -806,10 +806,10 @@
         <v>403.06</v>
       </c>
       <c r="E11" t="n">
-        <v>411.47</v>
+        <v>410.43</v>
       </c>
       <c r="F11" t="n">
-        <v>415.8</v>
+        <v>413.87</v>
       </c>
       <c r="G11" t="n">
         <v>409.32</v>
@@ -842,10 +842,10 @@
         <v>396.16</v>
       </c>
       <c r="E12" t="n">
-        <v>418.95</v>
+        <v>420.34</v>
       </c>
       <c r="F12" t="n">
-        <v>424.68</v>
+        <v>427.28</v>
       </c>
       <c r="G12" t="n">
         <v>420.65</v>
@@ -878,10 +878,10 @@
         <v>393.77</v>
       </c>
       <c r="E13" t="n">
-        <v>399.8</v>
+        <v>401.41</v>
       </c>
       <c r="F13" t="n">
-        <v>403.45</v>
+        <v>406.45</v>
       </c>
       <c r="G13" t="n">
         <v>389.16</v>
@@ -914,10 +914,10 @@
         <v>396.46</v>
       </c>
       <c r="E14" t="n">
-        <v>404.01</v>
+        <v>406.26</v>
       </c>
       <c r="F14" t="n">
-        <v>408.27</v>
+        <v>412.47</v>
       </c>
       <c r="G14" t="n">
         <v>392.58</v>
@@ -950,10 +950,10 @@
         <v>413.94</v>
       </c>
       <c r="E15" t="n">
-        <v>424.58</v>
+        <v>427.4</v>
       </c>
       <c r="F15" t="n">
-        <v>431.76</v>
+        <v>437.03</v>
       </c>
       <c r="G15" t="n">
         <v>415.99</v>
@@ -986,10 +986,10 @@
         <v>420.23</v>
       </c>
       <c r="E16" t="n">
-        <v>427.65</v>
+        <v>429.4</v>
       </c>
       <c r="F16" t="n">
-        <v>430.83</v>
+        <v>434.1</v>
       </c>
       <c r="G16" t="n">
         <v>413.87</v>
@@ -1020,11 +1020,9 @@
         <v>393.96</v>
       </c>
       <c r="E17" t="n">
-        <v>413.58</v>
-      </c>
-      <c r="F17" t="n">
-        <v>399.23</v>
-      </c>
+        <v>410.76</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
         <v>373.99</v>
@@ -1054,10 +1052,10 @@
         <v>447</v>
       </c>
       <c r="E18" t="n">
-        <v>457.47</v>
+        <v>455.43</v>
       </c>
       <c r="F18" t="n">
-        <v>451.4</v>
+        <v>447.6</v>
       </c>
       <c r="G18" t="n">
         <v>424.04</v>
@@ -1090,10 +1088,10 @@
         <v>422.48</v>
       </c>
       <c r="E19" t="n">
-        <v>427.72</v>
+        <v>429.33</v>
       </c>
       <c r="F19" t="n">
-        <v>422.19</v>
+        <v>425.19</v>
       </c>
       <c r="G19" t="n">
         <v>407.62</v>
@@ -1126,10 +1124,10 @@
         <v>430.48</v>
       </c>
       <c r="E20" t="n">
-        <v>438.22</v>
+        <v>440.76</v>
       </c>
       <c r="F20" t="n">
-        <v>436.34</v>
+        <v>441.07</v>
       </c>
       <c r="G20" t="n">
         <v>424.92</v>
@@ -1162,10 +1160,10 @@
         <v>435.07</v>
       </c>
       <c r="E21" t="n">
-        <v>444.45</v>
+        <v>445.88</v>
       </c>
       <c r="F21" t="n">
-        <v>451.59</v>
+        <v>454.26</v>
       </c>
       <c r="G21" t="n">
         <v>427</v>
@@ -1198,10 +1196,10 @@
         <v>457.47</v>
       </c>
       <c r="E22" t="n">
-        <v>470.85</v>
+        <v>469.31</v>
       </c>
       <c r="F22" t="n">
-        <v>472.88</v>
+        <v>470.01</v>
       </c>
       <c r="G22" t="n">
         <v>446.46</v>
@@ -1233,7 +1231,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>414.13</v>
+        <v>417.2</v>
       </c>
       <c r="G23" t="n">
         <v>403.16</v>
@@ -1265,9 +1263,11 @@
       <c r="D24" t="n">
         <v>423.09</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>431.07</v>
+      </c>
       <c r="F24" t="n">
-        <v>427.6</v>
+        <v>434.6</v>
       </c>
       <c r="G24" t="n">
         <v>419.98</v>
@@ -1319,7 +1319,7 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>415.63</v>
+        <v>425.3</v>
       </c>
       <c r="G26" t="n">
         <v>423.23</v>
@@ -1341,10 +1341,10 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>483.09</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>463.82</v>
+      </c>
       <c r="G27" t="n">
         <v>453.83</v>
       </c>
@@ -1376,10 +1376,10 @@
         <v>415.88</v>
       </c>
       <c r="E28" t="n">
-        <v>420.19</v>
+        <v>421.55</v>
       </c>
       <c r="F28" t="n">
-        <v>420.9</v>
+        <v>423.43</v>
       </c>
       <c r="G28" t="n">
         <v>419.22</v>
@@ -1412,10 +1412,10 @@
         <v>421.71</v>
       </c>
       <c r="E29" t="n">
-        <v>429.37</v>
+        <v>430.19</v>
       </c>
       <c r="F29" t="n">
-        <v>425.1</v>
+        <v>426.63</v>
       </c>
       <c r="G29" t="n">
         <v>413.04</v>
@@ -1448,10 +1448,10 @@
         <v>416.53</v>
       </c>
       <c r="E30" t="n">
-        <v>418.99</v>
+        <v>421.78</v>
       </c>
       <c r="F30" t="n">
-        <v>419.96</v>
+        <v>425.16</v>
       </c>
       <c r="G30" t="n">
         <v>408.14</v>
@@ -1484,10 +1484,10 @@
         <v>450.77</v>
       </c>
       <c r="E31" t="n">
-        <v>455.6</v>
+        <v>453.1</v>
       </c>
       <c r="F31" t="n">
-        <v>451.48</v>
+        <v>446.81</v>
       </c>
       <c r="G31" t="n">
         <v>428.14</v>
@@ -1520,10 +1520,10 @@
         <v>454.06</v>
       </c>
       <c r="E32" t="n">
-        <v>459.46</v>
+        <v>457.35</v>
       </c>
       <c r="F32" t="n">
-        <v>460.86</v>
+        <v>456.93</v>
       </c>
       <c r="G32" t="n">
         <v>442.38</v>
@@ -1556,10 +1556,10 @@
         <v>439.74</v>
       </c>
       <c r="E33" t="n">
-        <v>447.93</v>
+        <v>450.32</v>
       </c>
       <c r="F33" t="n">
-        <v>452.44</v>
+        <v>456.91</v>
       </c>
       <c r="G33" t="n">
         <v>431.7</v>
@@ -1592,10 +1592,10 @@
         <v>428.8</v>
       </c>
       <c r="E34" t="n">
-        <v>436.36</v>
+        <v>436.9</v>
       </c>
       <c r="F34" t="n">
-        <v>439.87</v>
+        <v>440.87</v>
       </c>
       <c r="G34" t="n">
         <v>423.77</v>
@@ -1628,10 +1628,10 @@
         <v>445.49</v>
       </c>
       <c r="E35" t="n">
-        <v>467.6</v>
+        <v>466.42</v>
       </c>
       <c r="F35" t="n">
-        <v>468.9</v>
+        <v>466.7</v>
       </c>
       <c r="G35" t="n">
         <v>453.52</v>
@@ -1660,10 +1660,10 @@
         <v>450.92</v>
       </c>
       <c r="E36" t="n">
-        <v>464.04</v>
+        <v>462.58</v>
       </c>
       <c r="F36" t="n">
-        <v>470.76</v>
+        <v>468.03</v>
       </c>
       <c r="G36" t="n">
         <v>455.93</v>
@@ -1696,10 +1696,10 @@
         <v>445.82</v>
       </c>
       <c r="E37" t="n">
-        <v>465.74</v>
+        <v>463.78</v>
       </c>
       <c r="F37" t="n">
-        <v>471.65</v>
+        <v>467.98</v>
       </c>
       <c r="G37" t="n">
         <v>459.32</v>
@@ -1732,10 +1732,10 @@
         <v>437.43</v>
       </c>
       <c r="E38" t="n">
-        <v>450.4</v>
+        <v>449.94</v>
       </c>
       <c r="F38" t="n">
-        <v>456.66</v>
+        <v>455.79</v>
       </c>
       <c r="G38" t="n">
         <v>443.52</v>
@@ -1766,10 +1766,10 @@
         <v>456.69</v>
       </c>
       <c r="E39" t="n">
-        <v>470.5</v>
+        <v>468.36</v>
       </c>
       <c r="F39" t="n">
-        <v>467.17</v>
+        <v>463.17</v>
       </c>
       <c r="G39" t="n">
         <v>452.53</v>
@@ -1802,10 +1802,10 @@
         <v>430.16</v>
       </c>
       <c r="E40" t="n">
-        <v>451.42</v>
+        <v>449.81</v>
       </c>
       <c r="F40" t="n">
-        <v>444.33</v>
+        <v>441.33</v>
       </c>
       <c r="G40" t="n">
         <v>431.82</v>
@@ -1838,10 +1838,10 @@
         <v>417.88</v>
       </c>
       <c r="E41" t="n">
-        <v>420.54</v>
+        <v>423.47</v>
       </c>
       <c r="F41" t="n">
-        <v>427.77</v>
+        <v>433.24</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
@@ -1872,10 +1872,10 @@
         <v>429.76</v>
       </c>
       <c r="E42" t="n">
-        <v>439.44</v>
+        <v>437.9</v>
       </c>
       <c r="F42" t="n">
-        <v>432.87</v>
+        <v>430</v>
       </c>
       <c r="G42" t="n">
         <v>419.18</v>
@@ -1926,10 +1926,10 @@
         <v>407.29</v>
       </c>
       <c r="E44" t="n">
-        <v>416.66</v>
+        <v>417.62</v>
       </c>
       <c r="F44" t="n">
-        <v>414.97</v>
+        <v>416.77</v>
       </c>
       <c r="G44" t="n">
         <v>403.39</v>
@@ -1962,10 +1962,10 @@
         <v>427.65</v>
       </c>
       <c r="E45" t="n">
-        <v>441.58</v>
+        <v>441.19</v>
       </c>
       <c r="F45" t="n">
-        <v>438.29</v>
+        <v>437.56</v>
       </c>
       <c r="G45" t="n">
         <v>414.53</v>
@@ -1992,10 +1992,10 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>474.46</v>
+        <v>471.89</v>
       </c>
       <c r="F46" t="n">
-        <v>472.8</v>
+        <v>468</v>
       </c>
       <c r="G46" t="n">
         <v>447.53</v>
@@ -2028,10 +2028,10 @@
         <v>417.55</v>
       </c>
       <c r="E47" t="n">
-        <v>421.18</v>
+        <v>422.22</v>
       </c>
       <c r="F47" t="n">
-        <v>425.29</v>
+        <v>427.22</v>
       </c>
       <c r="G47" t="n">
         <v>404.17</v>
@@ -2064,10 +2064,10 @@
         <v>432.86</v>
       </c>
       <c r="E48" t="n">
-        <v>436.83</v>
+        <v>438.79</v>
       </c>
       <c r="F48" t="n">
-        <v>442.36</v>
+        <v>446.03</v>
       </c>
       <c r="G48" t="n">
         <v>429.83</v>
@@ -2100,10 +2100,10 @@
         <v>423.35</v>
       </c>
       <c r="E49" t="n">
-        <v>425.46</v>
+        <v>429.14</v>
       </c>
       <c r="F49" t="n">
-        <v>427.5</v>
+        <v>434.37</v>
       </c>
       <c r="G49" t="n">
         <v>421.94</v>
@@ -2136,10 +2136,10 @@
         <v>447.62</v>
       </c>
       <c r="E50" t="n">
-        <v>447.61</v>
+        <v>445.97</v>
       </c>
       <c r="F50" t="n">
-        <v>444.3</v>
+        <v>441.23</v>
       </c>
       <c r="G50" t="n">
         <v>404.64</v>
@@ -2172,10 +2172,10 @@
         <v>430.26</v>
       </c>
       <c r="E51" t="n">
-        <v>436.87</v>
+        <v>439.51</v>
       </c>
       <c r="F51" t="n">
-        <v>438.47</v>
+        <v>443.4</v>
       </c>
       <c r="G51" t="n">
         <v>425.32</v>
@@ -2208,10 +2208,10 @@
         <v>443.25</v>
       </c>
       <c r="E52" t="n">
-        <v>451.53</v>
+        <v>451.14</v>
       </c>
       <c r="F52" t="n">
-        <v>450.59</v>
+        <v>449.86</v>
       </c>
       <c r="G52" t="n">
         <v>430.83</v>
@@ -2244,10 +2244,10 @@
         <v>424.21</v>
       </c>
       <c r="E53" t="n">
-        <v>432.61</v>
+        <v>436</v>
       </c>
       <c r="F53" t="n">
-        <v>436.49</v>
+        <v>442.82</v>
       </c>
       <c r="G53" t="n">
         <v>424.52</v>
@@ -2306,10 +2306,10 @@
         <v>408.16</v>
       </c>
       <c r="E55" t="n">
-        <v>417.54</v>
+        <v>418.5</v>
       </c>
       <c r="F55" t="n">
-        <v>416.72</v>
+        <v>418.52</v>
       </c>
       <c r="G55" t="n">
         <v>408.81</v>
@@ -2336,10 +2336,10 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>440.93</v>
+        <v>439.25</v>
       </c>
       <c r="F56" t="n">
-        <v>428.99</v>
+        <v>425.86</v>
       </c>
       <c r="G56" t="n">
         <v>437.9</v>
@@ -2372,10 +2372,10 @@
         <v>397.45</v>
       </c>
       <c r="E57" t="n">
-        <v>401.25</v>
+        <v>404.46</v>
       </c>
       <c r="F57" t="n">
-        <v>400.67</v>
+        <v>406.67</v>
       </c>
       <c r="G57" t="n">
         <v>392.85</v>
@@ -2408,7 +2408,7 @@
         <v>405.69</v>
       </c>
       <c r="E58" t="n">
-        <v>413.01</v>
+        <v>415.3</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2440,10 +2440,10 @@
         <v>407</v>
       </c>
       <c r="E59" t="n">
-        <v>416.94</v>
+        <v>416.15</v>
       </c>
       <c r="F59" t="n">
-        <v>422.63</v>
+        <v>421.16</v>
       </c>
       <c r="G59" t="n">
         <v>421.34</v>
@@ -2476,10 +2476,10 @@
         <v>398.45</v>
       </c>
       <c r="E60" t="n">
-        <v>403.07</v>
+        <v>407.46</v>
       </c>
       <c r="F60" t="n">
-        <v>428.51</v>
+        <v>436.71</v>
       </c>
       <c r="G60" t="n">
         <v>436.94</v>
@@ -2510,10 +2510,10 @@
         <v>417.69</v>
       </c>
       <c r="E61" t="n">
-        <v>431.02</v>
+        <v>434.91</v>
       </c>
       <c r="F61" t="n">
-        <v>436.6</v>
+        <v>443.87</v>
       </c>
       <c r="G61" t="n">
         <v>425.82</v>
@@ -2546,10 +2546,10 @@
         <v>406.87</v>
       </c>
       <c r="E62" t="n">
-        <v>424.62</v>
+        <v>425.98</v>
       </c>
       <c r="F62" t="n">
-        <v>430.37</v>
+        <v>432.9</v>
       </c>
       <c r="G62" t="n">
         <v>420.13</v>
@@ -2604,10 +2604,10 @@
         <v>400.07</v>
       </c>
       <c r="E64" t="n">
-        <v>411.78</v>
+        <v>409.24</v>
       </c>
       <c r="F64" t="n">
-        <v>418.17</v>
+        <v>413.44</v>
       </c>
       <c r="G64" t="n">
         <v>412.51</v>
@@ -2664,10 +2664,10 @@
         <v>413.28</v>
       </c>
       <c r="E66" t="n">
-        <v>428.04</v>
+        <v>427.04</v>
       </c>
       <c r="F66" t="n">
-        <v>435.72</v>
+        <v>433.85</v>
       </c>
       <c r="G66" t="n">
         <v>428.69</v>
@@ -2722,10 +2722,10 @@
         <v>397.07</v>
       </c>
       <c r="E68" t="n">
-        <v>399.09</v>
+        <v>399.63</v>
       </c>
       <c r="F68" t="n">
-        <v>396.12</v>
+        <v>397.12</v>
       </c>
       <c r="G68" t="n">
         <v>390.17</v>
@@ -2758,7 +2758,7 @@
         <v>423.95</v>
       </c>
       <c r="E69" t="n">
-        <v>426.48</v>
+        <v>430.19</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -2788,10 +2788,10 @@
         <v>406.44</v>
       </c>
       <c r="E70" t="n">
-        <v>413.48</v>
+        <v>418.48</v>
       </c>
       <c r="F70" t="n">
-        <v>408.14</v>
+        <v>417.47</v>
       </c>
       <c r="G70" t="n">
         <v>402.88</v>
@@ -2819,7 +2819,9 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>456.28</v>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
         <v>424.74</v>
@@ -2852,10 +2854,10 @@
         <v>415.72</v>
       </c>
       <c r="E72" t="n">
-        <v>418.14</v>
+        <v>421.85</v>
       </c>
       <c r="F72" t="n">
-        <v>415.67</v>
+        <v>422.6</v>
       </c>
       <c r="G72" t="n">
         <v>403.52</v>
@@ -2888,10 +2890,10 @@
         <v>411.65</v>
       </c>
       <c r="E73" t="n">
-        <v>415.81</v>
+        <v>417.85</v>
       </c>
       <c r="F73" t="n">
-        <v>412.5</v>
+        <v>416.3</v>
       </c>
       <c r="G73" t="n">
         <v>401.49</v>
@@ -2924,10 +2926,10 @@
         <v>431.46</v>
       </c>
       <c r="E74" t="n">
-        <v>431.31</v>
+        <v>434.42</v>
       </c>
       <c r="F74" t="n">
-        <v>428.76</v>
+        <v>434.56</v>
       </c>
       <c r="G74" t="n">
         <v>419.01</v>
@@ -2960,10 +2962,10 @@
         <v>437.87</v>
       </c>
       <c r="E75" t="n">
-        <v>438.03</v>
+        <v>442.85</v>
       </c>
       <c r="F75" t="n">
-        <v>427.38</v>
+        <v>436.38</v>
       </c>
       <c r="G75" t="n">
         <v>417.14</v>
@@ -2996,10 +2998,10 @@
         <v>396.12</v>
       </c>
       <c r="E76" t="n">
-        <v>396.53</v>
+        <v>400.21</v>
       </c>
       <c r="F76" t="n">
-        <v>394.19</v>
+        <v>401.06</v>
       </c>
       <c r="G76" t="n">
         <v>387.96</v>
@@ -3032,10 +3034,10 @@
         <v>428.04</v>
       </c>
       <c r="E77" t="n">
-        <v>427.01</v>
+        <v>431.65</v>
       </c>
       <c r="F77" t="n">
-        <v>422.73</v>
+        <v>431.4</v>
       </c>
       <c r="G77" t="n">
         <v>401.58</v>
@@ -3068,10 +3070,10 @@
         <v>396.02</v>
       </c>
       <c r="E78" t="n">
-        <v>412.05</v>
+        <v>408.76</v>
       </c>
       <c r="F78" t="n">
-        <v>426.89</v>
+        <v>420.76</v>
       </c>
       <c r="G78" t="n">
         <v>399.07</v>
@@ -3102,7 +3104,7 @@
         <v>376.37</v>
       </c>
       <c r="E79" t="n">
-        <v>378.38</v>
+        <v>377.09</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
@@ -3130,10 +3132,10 @@
         <v>396.11</v>
       </c>
       <c r="E80" t="n">
-        <v>414.89</v>
+        <v>415.68</v>
       </c>
       <c r="F80" t="n">
-        <v>419.22</v>
+        <v>420.69</v>
       </c>
       <c r="G80" t="n">
         <v>415.97</v>
@@ -3166,7 +3168,7 @@
         <v>426.12</v>
       </c>
       <c r="E81" t="n">
-        <v>440.22</v>
+        <v>443.61</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -3192,7 +3194,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>406.69</v>
+        <v>406.33</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3242,10 +3244,10 @@
         <v>390.53</v>
       </c>
       <c r="E84" t="n">
-        <v>404.39</v>
+        <v>408</v>
       </c>
       <c r="F84" t="n">
-        <v>411</v>
+        <v>417.73</v>
       </c>
       <c r="G84" t="n">
         <v>401.96</v>
@@ -3278,10 +3280,10 @@
         <v>385.47</v>
       </c>
       <c r="E85" t="n">
-        <v>396.11</v>
+        <v>397.57</v>
       </c>
       <c r="F85" t="n">
-        <v>402.99</v>
+        <v>405.72</v>
       </c>
       <c r="G85" t="n">
         <v>403.32</v>
@@ -3309,7 +3311,9 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>437</v>
+      </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
         <v>415.93</v>
@@ -3340,10 +3344,10 @@
         <v>373.37</v>
       </c>
       <c r="E87" t="n">
-        <v>379.2</v>
+        <v>378.16</v>
       </c>
       <c r="F87" t="n">
-        <v>382.11</v>
+        <v>380.18</v>
       </c>
       <c r="G87" t="n">
         <v>371.82</v>
@@ -3376,10 +3380,10 @@
         <v>393.44</v>
       </c>
       <c r="E88" t="n">
-        <v>402.03</v>
+        <v>400.6</v>
       </c>
       <c r="F88" t="n">
-        <v>403.64</v>
+        <v>400.97</v>
       </c>
       <c r="G88" t="n">
         <v>403.79</v>
@@ -3436,10 +3440,10 @@
         <v>394.35</v>
       </c>
       <c r="E90" t="n">
-        <v>407.12</v>
+        <v>408.98</v>
       </c>
       <c r="F90" t="n">
-        <v>400.5</v>
+        <v>403.97</v>
       </c>
       <c r="G90" t="n">
         <v>421.23</v>
@@ -3472,10 +3476,10 @@
         <v>409.32</v>
       </c>
       <c r="E91" t="n">
-        <v>430.48</v>
+        <v>430.02</v>
       </c>
       <c r="F91" t="n">
-        <v>420.22</v>
+        <v>419.35</v>
       </c>
       <c r="G91" t="n">
         <v>433.52</v>
@@ -3530,10 +3534,10 @@
         <v>388.62</v>
       </c>
       <c r="E93" t="n">
-        <v>397.09</v>
+        <v>401.23</v>
       </c>
       <c r="F93" t="n">
-        <v>391.81</v>
+        <v>399.54</v>
       </c>
       <c r="G93" t="n">
         <v>402.04</v>
@@ -3566,10 +3570,10 @@
         <v>395.67</v>
       </c>
       <c r="E94" t="n">
-        <v>405.93</v>
+        <v>409.75</v>
       </c>
       <c r="F94" t="n">
-        <v>395.86</v>
+        <v>402.99</v>
       </c>
       <c r="G94" t="n">
         <v>399.93</v>
@@ -3622,10 +3626,10 @@
         <v>408.29</v>
       </c>
       <c r="E96" t="n">
-        <v>412.63</v>
+        <v>411.31</v>
       </c>
       <c r="F96" t="n">
-        <v>412.6</v>
+        <v>410.13</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3647,7 +3651,7 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>449.52</v>
+        <v>443.45</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
@@ -3678,10 +3682,10 @@
         <v>405.42</v>
       </c>
       <c r="E98" t="n">
-        <v>411.63</v>
+        <v>411.42</v>
       </c>
       <c r="F98" t="n">
-        <v>408.8</v>
+        <v>408.4</v>
       </c>
       <c r="G98" t="n">
         <v>396.57</v>
@@ -3714,10 +3718,10 @@
         <v>426.44</v>
       </c>
       <c r="E99" t="n">
-        <v>439.24</v>
+        <v>438.56</v>
       </c>
       <c r="F99" t="n">
-        <v>433.76</v>
+        <v>432.49</v>
       </c>
       <c r="G99" t="n">
         <v>435.23</v>
@@ -3750,10 +3754,10 @@
         <v>409.34</v>
       </c>
       <c r="E100" t="n">
-        <v>419.6</v>
+        <v>418.99</v>
       </c>
       <c r="F100" t="n">
-        <v>414.21</v>
+        <v>413.08</v>
       </c>
       <c r="G100" t="n">
         <v>403.36</v>
@@ -3786,10 +3790,10 @@
         <v>429.27</v>
       </c>
       <c r="E101" t="n">
-        <v>425.62</v>
+        <v>422.37</v>
       </c>
       <c r="F101" t="n">
-        <v>418</v>
+        <v>411.93</v>
       </c>
       <c r="G101" t="n">
         <v>412.29</v>
@@ -3822,10 +3826,10 @@
         <v>450.81</v>
       </c>
       <c r="E102" t="n">
-        <v>449.72</v>
+        <v>446.72</v>
       </c>
       <c r="F102" t="n">
-        <v>439.79</v>
+        <v>434.19</v>
       </c>
       <c r="G102" t="n">
         <v>413</v>
@@ -3858,10 +3862,10 @@
         <v>409.9</v>
       </c>
       <c r="E103" t="n">
-        <v>420.3</v>
+        <v>420.05</v>
       </c>
       <c r="F103" t="n">
-        <v>422.26</v>
+        <v>421.79</v>
       </c>
       <c r="G103" t="n">
         <v>421.98</v>
@@ -3890,10 +3894,10 @@
         <v>396.86</v>
       </c>
       <c r="E104" t="n">
-        <v>404.17</v>
+        <v>409.35</v>
       </c>
       <c r="F104" t="n">
-        <v>398.34</v>
+        <v>408.01</v>
       </c>
       <c r="G104" t="n">
         <v>403.48</v>
@@ -3926,10 +3930,10 @@
         <v>408.25</v>
       </c>
       <c r="E105" t="n">
-        <v>416.91</v>
+        <v>421.48</v>
       </c>
       <c r="F105" t="n">
-        <v>424.51</v>
+        <v>433.04</v>
       </c>
       <c r="G105" t="n">
         <v>408.55</v>
@@ -3962,10 +3966,10 @@
         <v>409.19</v>
       </c>
       <c r="E106" t="n">
-        <v>418.45</v>
+        <v>422.59</v>
       </c>
       <c r="F106" t="n">
-        <v>439.64</v>
+        <v>447.37</v>
       </c>
       <c r="G106" t="n">
         <v>428.47</v>
@@ -3998,10 +4002,10 @@
         <v>397.9</v>
       </c>
       <c r="E107" t="n">
-        <v>418.81</v>
+        <v>415.95</v>
       </c>
       <c r="F107" t="n">
-        <v>420.68</v>
+        <v>415.35</v>
       </c>
       <c r="G107" t="n">
         <v>409.64</v>
@@ -4032,10 +4036,10 @@
         <v>379.96</v>
       </c>
       <c r="E108" t="n">
-        <v>387.45</v>
+        <v>386.7</v>
       </c>
       <c r="F108" t="n">
-        <v>386.43</v>
+        <v>385.03</v>
       </c>
       <c r="G108" t="n">
         <v>362.98</v>
@@ -4064,10 +4068,10 @@
         <v>381.67</v>
       </c>
       <c r="E109" t="n">
-        <v>392.02</v>
+        <v>391.31</v>
       </c>
       <c r="F109" t="n">
-        <v>391.86</v>
+        <v>390.53</v>
       </c>
       <c r="G109" t="n">
         <v>376.22</v>
@@ -4098,10 +4102,10 @@
         <v>391</v>
       </c>
       <c r="E110" t="n">
-        <v>411.71</v>
+        <v>410.82</v>
       </c>
       <c r="F110" t="n">
-        <v>432.46</v>
+        <v>430.79</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
@@ -4132,10 +4136,10 @@
         <v>400.99</v>
       </c>
       <c r="E111" t="n">
-        <v>404.89</v>
+        <v>407.1</v>
       </c>
       <c r="F111" t="n">
-        <v>422.54</v>
+        <v>426.67</v>
       </c>
       <c r="G111" t="n">
         <v>400.57</v>
@@ -4168,10 +4172,10 @@
         <v>391.4</v>
       </c>
       <c r="E112" t="n">
-        <v>409.31</v>
+        <v>408.56</v>
       </c>
       <c r="F112" t="n">
-        <v>415.07</v>
+        <v>413.67</v>
       </c>
       <c r="G112" t="n">
         <v>396.97</v>
@@ -4204,10 +4208,10 @@
         <v>403.95</v>
       </c>
       <c r="E113" t="n">
-        <v>413.43</v>
+        <v>417.75</v>
       </c>
       <c r="F113" t="n">
-        <v>417.94</v>
+        <v>426.01</v>
       </c>
       <c r="G113" t="n">
         <v>409.89</v>
@@ -4240,10 +4244,10 @@
         <v>411.37</v>
       </c>
       <c r="E114" t="n">
-        <v>423.91</v>
+        <v>422.12</v>
       </c>
       <c r="F114" t="n">
-        <v>423.72</v>
+        <v>420.39</v>
       </c>
       <c r="G114" t="n">
         <v>422.19</v>
@@ -4276,10 +4280,10 @@
         <v>395.28</v>
       </c>
       <c r="E115" t="n">
-        <v>404.88</v>
+        <v>408.74</v>
       </c>
       <c r="F115" t="n">
-        <v>397.25</v>
+        <v>404.45</v>
       </c>
       <c r="G115" t="n">
         <v>401.01</v>
@@ -4312,10 +4316,10 @@
         <v>404.91</v>
       </c>
       <c r="E116" t="n">
-        <v>416.17</v>
+        <v>420.67</v>
       </c>
       <c r="F116" t="n">
-        <v>416.74</v>
+        <v>425.14</v>
       </c>
       <c r="G116" t="n">
         <v>418.54</v>
@@ -4348,10 +4352,10 @@
         <v>403.55</v>
       </c>
       <c r="E117" t="n">
-        <v>413.19</v>
+        <v>417.73</v>
       </c>
       <c r="F117" t="n">
-        <v>418.04</v>
+        <v>426.51</v>
       </c>
       <c r="G117" t="n">
         <v>412.19</v>
@@ -4384,10 +4388,10 @@
         <v>399.3</v>
       </c>
       <c r="E118" t="n">
-        <v>417.08</v>
+        <v>414.33</v>
       </c>
       <c r="F118" t="n">
-        <v>427.19</v>
+        <v>422.06</v>
       </c>
       <c r="G118" t="n">
         <v>419.23</v>
@@ -4420,10 +4424,10 @@
         <v>396.6</v>
       </c>
       <c r="E119" t="n">
-        <v>416.02</v>
+        <v>415.81</v>
       </c>
       <c r="F119" t="n">
-        <v>428.01</v>
+        <v>427.61</v>
       </c>
       <c r="G119" t="n">
         <v>426.95</v>
@@ -4456,10 +4460,10 @@
         <v>407.27</v>
       </c>
       <c r="E120" t="n">
-        <v>426.11</v>
+        <v>427.4</v>
       </c>
       <c r="F120" t="n">
-        <v>432.01</v>
+        <v>434.41</v>
       </c>
       <c r="G120" t="n">
         <v>421.8</v>
@@ -4492,10 +4496,10 @@
         <v>400.14</v>
       </c>
       <c r="E121" t="n">
-        <v>414.2</v>
+        <v>418.49</v>
       </c>
       <c r="F121" t="n">
-        <v>418.81</v>
+        <v>426.81</v>
       </c>
       <c r="G121" t="n">
         <v>415.17</v>
@@ -4528,10 +4532,10 @@
         <v>378.47</v>
       </c>
       <c r="E122" t="n">
-        <v>389.32</v>
+        <v>388.39</v>
       </c>
       <c r="F122" t="n">
-        <v>398.04</v>
+        <v>396.31</v>
       </c>
       <c r="G122" t="n">
         <v>420.29</v>
@@ -4586,10 +4590,10 @@
         <v>405.2</v>
       </c>
       <c r="E124" t="n">
-        <v>415.25</v>
+        <v>414.75</v>
       </c>
       <c r="F124" t="n">
-        <v>414.63</v>
+        <v>413.7</v>
       </c>
       <c r="G124" t="n">
         <v>420.52</v>
@@ -4622,10 +4626,10 @@
         <v>397.5</v>
       </c>
       <c r="E125" t="n">
-        <v>412.82</v>
+        <v>412.07</v>
       </c>
       <c r="F125" t="n">
-        <v>422.14</v>
+        <v>420.74</v>
       </c>
       <c r="G125" t="n">
         <v>413.17</v>
@@ -4656,10 +4660,10 @@
         <v>395.2</v>
       </c>
       <c r="E126" t="n">
-        <v>409.11</v>
+        <v>410.68</v>
       </c>
       <c r="F126" t="n">
-        <v>409.46</v>
+        <v>412.39</v>
       </c>
       <c r="G126" t="n">
         <v>397.97</v>
@@ -4686,10 +4690,10 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="n">
-        <v>404.32</v>
+        <v>408.53</v>
       </c>
       <c r="F127" t="n">
-        <v>404.6</v>
+        <v>412.47</v>
       </c>
       <c r="G127" t="n">
         <v>396.64</v>
@@ -4722,10 +4726,10 @@
         <v>396.22</v>
       </c>
       <c r="E128" t="n">
-        <v>401.23</v>
+        <v>402.69</v>
       </c>
       <c r="F128" t="n">
-        <v>407.56</v>
+        <v>410.29</v>
       </c>
       <c r="G128" t="n">
         <v>397.12</v>
@@ -4754,7 +4758,7 @@
         <v>414.82</v>
       </c>
       <c r="E129" t="n">
-        <v>446.47</v>
+        <v>443.22</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
@@ -4788,10 +4792,10 @@
         <v>430.57</v>
       </c>
       <c r="E130" t="n">
-        <v>434.48</v>
+        <v>433.44</v>
       </c>
       <c r="F130" t="n">
-        <v>431.55</v>
+        <v>429.62</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
@@ -4822,10 +4826,10 @@
         <v>392.36</v>
       </c>
       <c r="E131" t="n">
-        <v>396.48</v>
+        <v>400.91</v>
       </c>
       <c r="F131" t="n">
-        <v>385.55</v>
+        <v>393.82</v>
       </c>
       <c r="G131" t="n">
         <v>389.15</v>
@@ -4858,10 +4862,10 @@
         <v>408.21</v>
       </c>
       <c r="E132" t="n">
-        <v>412.99</v>
+        <v>417.17</v>
       </c>
       <c r="F132" t="n">
-        <v>406.26</v>
+        <v>414.06</v>
       </c>
       <c r="G132" t="n">
         <v>403.17</v>
@@ -4894,10 +4898,10 @@
         <v>416.96</v>
       </c>
       <c r="E133" t="n">
-        <v>418.56</v>
+        <v>423.1</v>
       </c>
       <c r="F133" t="n">
-        <v>415.54</v>
+        <v>424.01</v>
       </c>
       <c r="G133" t="n">
         <v>407.45</v>
@@ -4930,10 +4934,10 @@
         <v>415.66</v>
       </c>
       <c r="E134" t="n">
-        <v>416.49</v>
+        <v>420.92</v>
       </c>
       <c r="F134" t="n">
-        <v>414.24</v>
+        <v>422.51</v>
       </c>
       <c r="G134" t="n">
         <v>406.43</v>
@@ -4966,10 +4970,10 @@
         <v>410.4</v>
       </c>
       <c r="E135" t="n">
-        <v>433.12</v>
+        <v>432.44</v>
       </c>
       <c r="F135" t="n">
-        <v>444.78</v>
+        <v>443.51</v>
       </c>
       <c r="G135" t="n">
         <v>439.55</v>
@@ -5002,10 +5006,10 @@
         <v>410.66</v>
       </c>
       <c r="E136" t="n">
-        <v>419.78</v>
+        <v>423.96</v>
       </c>
       <c r="F136" t="n">
-        <v>415.14</v>
+        <v>422.94</v>
       </c>
       <c r="G136" t="n">
         <v>402.87</v>
@@ -5038,10 +5042,10 @@
         <v>395.89</v>
       </c>
       <c r="E137" t="n">
-        <v>400.5</v>
+        <v>401.64</v>
       </c>
       <c r="F137" t="n">
-        <v>404.07</v>
+        <v>406.2</v>
       </c>
       <c r="G137" t="n">
         <v>400.91</v>
@@ -5074,10 +5078,10 @@
         <v>424.77</v>
       </c>
       <c r="E138" t="n">
-        <v>432.54</v>
+        <v>429.15</v>
       </c>
       <c r="F138" t="n">
-        <v>411.2</v>
+        <v>404.87</v>
       </c>
       <c r="G138" t="n">
         <v>407.22</v>
@@ -5110,10 +5114,10 @@
         <v>408.35</v>
       </c>
       <c r="E139" t="n">
-        <v>420.19</v>
+        <v>424.4</v>
       </c>
       <c r="F139" t="n">
-        <v>425.37</v>
+        <v>433.24</v>
       </c>
       <c r="G139" t="n">
         <v>417.29</v>
@@ -5146,10 +5150,10 @@
         <v>403.86</v>
       </c>
       <c r="E140" t="n">
-        <v>418.01</v>
+        <v>418.15</v>
       </c>
       <c r="F140" t="n">
-        <v>440.34</v>
+        <v>440.61</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
@@ -5180,10 +5184,10 @@
         <v>404.75</v>
       </c>
       <c r="E141" t="n">
-        <v>425.9</v>
+        <v>424.9</v>
       </c>
       <c r="F141" t="n">
-        <v>443.3</v>
+        <v>441.43</v>
       </c>
       <c r="G141" t="n">
         <v>435.57</v>
@@ -5216,10 +5220,10 @@
         <v>387.58</v>
       </c>
       <c r="E142" t="n">
-        <v>404.13</v>
+        <v>401.84</v>
       </c>
       <c r="F142" t="n">
-        <v>416.9</v>
+        <v>412.63</v>
       </c>
       <c r="G142" t="n">
         <v>412.56</v>
@@ -5252,10 +5256,10 @@
         <v>387.63</v>
       </c>
       <c r="E143" t="n">
-        <v>405.66</v>
+        <v>409.45</v>
       </c>
       <c r="F143" t="n">
-        <v>416.93</v>
+        <v>424</v>
       </c>
       <c r="G143" t="n">
         <v>404.49</v>
@@ -5286,10 +5290,10 @@
         <v>390.42</v>
       </c>
       <c r="E144" t="n">
-        <v>403.4</v>
+        <v>407.97</v>
       </c>
       <c r="F144" t="n">
-        <v>419.05</v>
+        <v>427.58</v>
       </c>
       <c r="G144" t="n">
         <v>409.31</v>
@@ -5322,10 +5326,10 @@
         <v>363.97</v>
       </c>
       <c r="E145" t="n">
-        <v>373.67</v>
+        <v>373.46</v>
       </c>
       <c r="F145" t="n">
-        <v>384.34</v>
+        <v>383.94</v>
       </c>
       <c r="G145" t="n">
         <v>382.64</v>
@@ -5358,10 +5362,10 @@
         <v>374.32</v>
       </c>
       <c r="E146" t="n">
-        <v>383.76</v>
+        <v>387.72</v>
       </c>
       <c r="F146" t="n">
-        <v>388.39</v>
+        <v>395.79</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
@@ -5387,9 +5391,11 @@
       <c r="D147" t="n">
         <v>381.01</v>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>427.29</v>
+      </c>
       <c r="F147" t="n">
-        <v>427.62</v>
+        <v>422.02</v>
       </c>
       <c r="G147" t="n">
         <v>415.96</v>
@@ -5420,7 +5426,7 @@
         <v>362.3</v>
       </c>
       <c r="E148" t="n">
-        <v>369.99</v>
+        <v>369.06</v>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
@@ -5445,7 +5451,7 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
-        <v>410.81</v>
+        <v>404.14</v>
       </c>
       <c r="G149" t="n">
         <v>401.35</v>
@@ -5478,10 +5484,10 @@
         <v>377.98</v>
       </c>
       <c r="E150" t="n">
-        <v>389.5</v>
+        <v>392.39</v>
       </c>
       <c r="F150" t="n">
-        <v>398.26</v>
+        <v>403.66</v>
       </c>
       <c r="G150" t="n">
         <v>397.16</v>
@@ -5514,10 +5520,10 @@
         <v>363.16</v>
       </c>
       <c r="E151" t="n">
-        <v>376.1</v>
+        <v>373.89</v>
       </c>
       <c r="F151" t="n">
-        <v>384.76</v>
+        <v>380.63</v>
       </c>
       <c r="G151" t="n">
         <v>370.3</v>
@@ -5576,10 +5582,10 @@
         <v>372.52</v>
       </c>
       <c r="E153" t="n">
-        <v>381.85</v>
+        <v>385.74</v>
       </c>
       <c r="F153" t="n">
-        <v>386.08</v>
+        <v>393.35</v>
       </c>
       <c r="G153" t="n">
         <v>386.26</v>
@@ -5612,10 +5618,10 @@
         <v>414.23</v>
       </c>
       <c r="E154" t="n">
-        <v>420.24</v>
+        <v>417.74</v>
       </c>
       <c r="F154" t="n">
-        <v>412.64</v>
+        <v>407.97</v>
       </c>
       <c r="G154" t="n">
         <v>397.52</v>
@@ -5648,10 +5654,10 @@
         <v>425.86</v>
       </c>
       <c r="E155" t="n">
-        <v>433.28</v>
+        <v>429.74</v>
       </c>
       <c r="F155" t="n">
-        <v>421.22</v>
+        <v>414.62</v>
       </c>
       <c r="G155" t="n">
         <v>408.84</v>
@@ -5684,10 +5690,10 @@
         <v>392.59</v>
       </c>
       <c r="E156" t="n">
-        <v>404.98</v>
+        <v>403.84</v>
       </c>
       <c r="F156" t="n">
-        <v>401.31</v>
+        <v>399.18</v>
       </c>
       <c r="G156" t="n">
         <v>399.49</v>
@@ -5720,10 +5726,10 @@
         <v>386.58</v>
       </c>
       <c r="E157" t="n">
-        <v>396.47</v>
+        <v>396.51</v>
       </c>
       <c r="F157" t="n">
-        <v>397.43</v>
+        <v>397.5</v>
       </c>
       <c r="G157" t="n">
         <v>394.52</v>
@@ -5756,10 +5762,10 @@
         <v>391.58</v>
       </c>
       <c r="E158" t="n">
-        <v>403.98</v>
+        <v>408.44</v>
       </c>
       <c r="F158" t="n">
-        <v>413.23</v>
+        <v>421.56</v>
       </c>
       <c r="G158" t="n">
         <v>413.3</v>
@@ -5790,10 +5796,10 @@
         <v>404.18</v>
       </c>
       <c r="E159" t="n">
-        <v>417.07</v>
+        <v>421.68</v>
       </c>
       <c r="F159" t="n">
-        <v>426.75</v>
+        <v>435.35</v>
       </c>
       <c r="G159" t="n">
         <v>418.43</v>
@@ -5826,10 +5832,10 @@
         <v>397.71</v>
       </c>
       <c r="E160" t="n">
-        <v>409.13</v>
+        <v>412.45</v>
       </c>
       <c r="F160" t="n">
-        <v>433.22</v>
+        <v>439.42</v>
       </c>
       <c r="G160" t="n">
         <v>413.97</v>
@@ -5862,10 +5868,10 @@
         <v>379.97</v>
       </c>
       <c r="E161" t="n">
-        <v>403.61</v>
+        <v>404.25</v>
       </c>
       <c r="F161" t="n">
-        <v>416.04</v>
+        <v>417.24</v>
       </c>
       <c r="G161" t="n">
         <v>409.86</v>
@@ -5898,10 +5904,10 @@
         <v>386.42</v>
       </c>
       <c r="E162" t="n">
-        <v>409.58</v>
+        <v>410.01</v>
       </c>
       <c r="F162" t="n">
-        <v>415.44</v>
+        <v>416.24</v>
       </c>
       <c r="G162" t="n">
         <v>416.21</v>
@@ -5934,10 +5940,10 @@
         <v>379.86</v>
       </c>
       <c r="E163" t="n">
-        <v>399.99</v>
+        <v>397.78</v>
       </c>
       <c r="F163" t="n">
-        <v>419.31</v>
+        <v>415.18</v>
       </c>
       <c r="G163" t="n">
         <v>412.14</v>
@@ -5970,7 +5976,7 @@
         <v>368.41</v>
       </c>
       <c r="E164" t="n">
-        <v>391.22</v>
+        <v>389.54</v>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
@@ -5998,10 +6004,10 @@
         <v>366.13</v>
       </c>
       <c r="E165" t="n">
-        <v>374.52</v>
+        <v>374.2</v>
       </c>
       <c r="F165" t="n">
-        <v>377.53</v>
+        <v>376.93</v>
       </c>
       <c r="G165" t="n">
         <v>385.1</v>
@@ -6034,10 +6040,10 @@
         <v>383.65</v>
       </c>
       <c r="E166" t="n">
-        <v>393.46</v>
+        <v>397.75</v>
       </c>
       <c r="F166" t="n">
-        <v>400.22</v>
+        <v>408.22</v>
       </c>
       <c r="G166" t="n">
         <v>406.71</v>
@@ -6070,10 +6076,10 @@
         <v>405.79</v>
       </c>
       <c r="E167" t="n">
-        <v>418.28</v>
+        <v>423.78</v>
       </c>
       <c r="F167" t="n">
-        <v>413.41</v>
+        <v>423.68</v>
       </c>
       <c r="G167" t="n">
         <v>417.65</v>
@@ -6106,10 +6112,10 @@
         <v>384.63</v>
       </c>
       <c r="E168" t="n">
-        <v>403.5</v>
+        <v>403.96</v>
       </c>
       <c r="F168" t="n">
-        <v>417.05</v>
+        <v>417.92</v>
       </c>
       <c r="G168" t="n">
         <v>420.74</v>
@@ -6142,10 +6148,10 @@
         <v>375.27</v>
       </c>
       <c r="E169" t="n">
-        <v>390.42</v>
+        <v>390.46</v>
       </c>
       <c r="F169" t="n">
-        <v>409.63</v>
+        <v>409.7</v>
       </c>
       <c r="G169" t="n">
         <v>400.29</v>
@@ -6174,10 +6180,10 @@
         <v>378.06</v>
       </c>
       <c r="E170" t="n">
-        <v>404.24</v>
+        <v>400.95</v>
       </c>
       <c r="F170" t="n">
-        <v>408.02</v>
+        <v>401.89</v>
       </c>
       <c r="G170" t="n">
         <v>408.62</v>
@@ -6210,10 +6216,10 @@
         <v>380.11</v>
       </c>
       <c r="E171" t="n">
-        <v>401.25</v>
+        <v>399.07</v>
       </c>
       <c r="F171" t="n">
-        <v>410.9</v>
+        <v>406.83</v>
       </c>
       <c r="G171" t="n">
         <v>409.54</v>
@@ -6244,10 +6250,10 @@
         <v>376.15</v>
       </c>
       <c r="E172" t="n">
-        <v>387.47</v>
+        <v>390.61</v>
       </c>
       <c r="F172" t="n">
-        <v>401.62</v>
+        <v>407.49</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
@@ -6276,10 +6282,10 @@
         <v>377.08</v>
       </c>
       <c r="E173" t="n">
-        <v>393.16</v>
+        <v>395.52</v>
       </c>
       <c r="F173" t="n">
-        <v>399.31</v>
+        <v>403.71</v>
       </c>
       <c r="G173" t="n">
         <v>397.38</v>
@@ -6312,10 +6318,10 @@
         <v>372.84</v>
       </c>
       <c r="E174" t="n">
-        <v>385.18</v>
+        <v>385.22</v>
       </c>
       <c r="F174" t="n">
-        <v>389.38</v>
+        <v>389.45</v>
       </c>
       <c r="G174" t="n">
         <v>394.59</v>
@@ -6348,10 +6354,10 @@
         <v>391.74</v>
       </c>
       <c r="E175" t="n">
-        <v>405.57</v>
+        <v>409.43</v>
       </c>
       <c r="F175" t="n">
-        <v>414.6</v>
+        <v>421.8</v>
       </c>
       <c r="G175" t="n">
         <v>412.09</v>
@@ -6384,10 +6390,10 @@
         <v>390.51</v>
       </c>
       <c r="E176" t="n">
-        <v>412.21</v>
+        <v>417.14</v>
       </c>
       <c r="F176" t="n">
-        <v>423.71</v>
+        <v>432.91</v>
       </c>
       <c r="G176" t="n">
         <v>416.68</v>
@@ -6420,10 +6426,10 @@
         <v>372.39</v>
       </c>
       <c r="E177" t="n">
-        <v>387.7</v>
+        <v>386.24</v>
       </c>
       <c r="F177" t="n">
-        <v>400.72</v>
+        <v>397.99</v>
       </c>
       <c r="G177" t="n">
         <v>402.8</v>
@@ -6456,10 +6462,10 @@
         <v>379.63</v>
       </c>
       <c r="E178" t="n">
-        <v>405.28</v>
+        <v>408.89</v>
       </c>
       <c r="F178" t="n">
-        <v>412.82</v>
+        <v>419.55</v>
       </c>
       <c r="G178" t="n">
         <v>404.9</v>
@@ -6492,10 +6498,10 @@
         <v>375.67</v>
       </c>
       <c r="E179" t="n">
-        <v>391.78</v>
+        <v>393.14</v>
       </c>
       <c r="F179" t="n">
-        <v>396.76</v>
+        <v>399.29</v>
       </c>
       <c r="G179" t="n">
         <v>398.21</v>
@@ -6528,10 +6534,10 @@
         <v>376.55</v>
       </c>
       <c r="E180" t="n">
-        <v>390.51</v>
+        <v>391.47</v>
       </c>
       <c r="F180" t="n">
-        <v>396.44</v>
+        <v>398.24</v>
       </c>
       <c r="G180" t="n">
         <v>403.95</v>
@@ -6560,10 +6566,10 @@
         <v>368.8</v>
       </c>
       <c r="E181" t="n">
-        <v>386.96</v>
+        <v>385.92</v>
       </c>
       <c r="F181" t="n">
-        <v>401.72</v>
+        <v>399.79</v>
       </c>
       <c r="G181" t="n">
         <v>404.08</v>
@@ -6596,10 +6602,10 @@
         <v>387.76</v>
       </c>
       <c r="E182" t="n">
-        <v>402.08</v>
+        <v>404.54</v>
       </c>
       <c r="F182" t="n">
-        <v>424.89</v>
+        <v>429.49</v>
       </c>
       <c r="G182" t="n">
         <v>423.49</v>
@@ -6632,10 +6638,10 @@
         <v>369.23</v>
       </c>
       <c r="E183" t="n">
-        <v>387.44</v>
+        <v>386.55</v>
       </c>
       <c r="F183" t="n">
-        <v>405.22</v>
+        <v>403.55</v>
       </c>
       <c r="G183" t="n">
         <v>406.2</v>
@@ -6692,10 +6698,10 @@
         <v>365.42</v>
       </c>
       <c r="E185" t="n">
-        <v>377.64</v>
+        <v>380.89</v>
       </c>
       <c r="F185" t="n">
-        <v>376.41</v>
+        <v>382.48</v>
       </c>
       <c r="G185" t="n">
         <v>383.07</v>
@@ -6726,10 +6732,10 @@
         <v>361.68</v>
       </c>
       <c r="E186" t="n">
-        <v>371.97</v>
+        <v>368.83</v>
       </c>
       <c r="F186" t="n">
-        <v>395.59</v>
+        <v>389.72</v>
       </c>
       <c r="G186" t="n">
         <v>407.63</v>
@@ -6762,10 +6768,10 @@
         <v>373.84</v>
       </c>
       <c r="E187" t="n">
-        <v>381.49</v>
+        <v>384.99</v>
       </c>
       <c r="F187" t="n">
-        <v>392.62</v>
+        <v>399.15</v>
       </c>
       <c r="G187" t="n">
         <v>394.9</v>
@@ -6798,10 +6804,10 @@
         <v>372.22</v>
       </c>
       <c r="E188" t="n">
-        <v>378.84</v>
+        <v>379.41</v>
       </c>
       <c r="F188" t="n">
-        <v>386.74</v>
+        <v>387.81</v>
       </c>
       <c r="G188" t="n">
         <v>384.37</v>
@@ -6830,10 +6836,10 @@
         <v>351.14</v>
       </c>
       <c r="E189" t="n">
-        <v>367.39</v>
+        <v>370.89</v>
       </c>
       <c r="F189" t="n">
-        <v>366.27</v>
+        <v>372.8</v>
       </c>
       <c r="G189" t="n">
         <v>402.11</v>
@@ -6866,10 +6872,10 @@
         <v>366.29</v>
       </c>
       <c r="E190" t="n">
-        <v>380.35</v>
+        <v>378.46</v>
       </c>
       <c r="F190" t="n">
-        <v>393.3</v>
+        <v>389.77</v>
       </c>
       <c r="G190" t="n">
         <v>401.22</v>
@@ -6898,10 +6904,10 @@
         <v>389.96</v>
       </c>
       <c r="E191" t="n">
-        <v>405.33</v>
+        <v>410.01</v>
       </c>
       <c r="F191" t="n">
-        <v>418.68</v>
+        <v>427.41</v>
       </c>
       <c r="G191" t="n">
         <v>414.24</v>
@@ -6934,10 +6940,10 @@
         <v>357.27</v>
       </c>
       <c r="E192" t="n">
-        <v>376.44</v>
+        <v>373.33</v>
       </c>
       <c r="F192" t="n">
-        <v>394</v>
+        <v>388.2</v>
       </c>
       <c r="G192" t="n">
         <v>404.25</v>
@@ -6988,10 +6994,10 @@
         <v>366.76</v>
       </c>
       <c r="E194" t="n">
-        <v>379.97</v>
+        <v>378.93</v>
       </c>
       <c r="F194" t="n">
-        <v>396.75</v>
+        <v>394.82</v>
       </c>
       <c r="G194" t="n">
         <v>406.11</v>
@@ -7022,10 +7028,10 @@
         <v>368.99</v>
       </c>
       <c r="E195" t="n">
-        <v>383.33</v>
+        <v>382.29</v>
       </c>
       <c r="F195" t="n">
-        <v>400.36</v>
+        <v>398.43</v>
       </c>
       <c r="G195" t="n">
         <v>399.7</v>
@@ -7056,10 +7062,10 @@
         <v>376.43</v>
       </c>
       <c r="E196" t="n">
-        <v>391.78</v>
+        <v>393.67</v>
       </c>
       <c r="F196" t="n">
-        <v>396.35</v>
+        <v>399.88</v>
       </c>
       <c r="G196" t="n">
         <v>392.02</v>
@@ -7092,10 +7098,10 @@
         <v>367.5</v>
       </c>
       <c r="E197" t="n">
-        <v>386.17</v>
+        <v>384.92</v>
       </c>
       <c r="F197" t="n">
-        <v>412.21</v>
+        <v>409.88</v>
       </c>
       <c r="G197" t="n">
         <v>424.25</v>
@@ -7128,10 +7134,10 @@
         <v>375.27</v>
       </c>
       <c r="E198" t="n">
-        <v>386.76</v>
+        <v>387.05</v>
       </c>
       <c r="F198" t="n">
-        <v>391.35</v>
+        <v>391.88</v>
       </c>
       <c r="G198" t="n">
         <v>397.82</v>
@@ -7186,10 +7192,10 @@
         <v>342.07</v>
       </c>
       <c r="E200" t="n">
-        <v>351.47</v>
+        <v>348.11</v>
       </c>
       <c r="F200" t="n">
-        <v>368.01</v>
+        <v>361.74</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
@@ -7218,10 +7224,10 @@
         <v>373.41</v>
       </c>
       <c r="E201" t="n">
-        <v>387.92</v>
+        <v>392.92</v>
       </c>
       <c r="F201" t="n">
-        <v>394.88</v>
+        <v>404.21</v>
       </c>
       <c r="G201" t="n">
         <v>404.42</v>
@@ -7254,10 +7260,10 @@
         <v>372.03</v>
       </c>
       <c r="E202" t="n">
-        <v>384.94</v>
+        <v>385.58</v>
       </c>
       <c r="F202" t="n">
-        <v>388.07</v>
+        <v>389.27</v>
       </c>
       <c r="G202" t="n">
         <v>385.4</v>
@@ -7290,10 +7296,10 @@
         <v>372.71</v>
       </c>
       <c r="E203" t="n">
-        <v>384.22</v>
+        <v>387.83</v>
       </c>
       <c r="F203" t="n">
-        <v>377.91</v>
+        <v>384.64</v>
       </c>
       <c r="G203" t="n">
         <v>387.69</v>
@@ -7326,10 +7332,10 @@
         <v>364.54</v>
       </c>
       <c r="E204" t="n">
-        <v>393.68</v>
+        <v>390.61</v>
       </c>
       <c r="F204" t="n">
-        <v>394.11</v>
+        <v>388.38</v>
       </c>
       <c r="G204" t="n">
         <v>383.92</v>
@@ -7362,10 +7368,10 @@
         <v>363.3</v>
       </c>
       <c r="E205" t="n">
-        <v>386.96</v>
+        <v>384.75</v>
       </c>
       <c r="F205" t="n">
-        <v>397.63</v>
+        <v>393.5</v>
       </c>
       <c r="G205" t="n">
         <v>389.26</v>
@@ -7398,10 +7404,10 @@
         <v>363.4</v>
       </c>
       <c r="E206" t="n">
-        <v>380.67</v>
+        <v>384.81</v>
       </c>
       <c r="F206" t="n">
-        <v>383.58</v>
+        <v>391.31</v>
       </c>
       <c r="G206" t="n">
         <v>386.85</v>
@@ -7434,10 +7440,10 @@
         <v>382.07</v>
       </c>
       <c r="E207" t="n">
-        <v>405.17</v>
+        <v>408.74</v>
       </c>
       <c r="F207" t="n">
-        <v>415.23</v>
+        <v>421.9</v>
       </c>
       <c r="G207" t="n">
         <v>404.82</v>
@@ -7464,9 +7470,7 @@
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
-      <c r="F208" t="n">
-        <v>366.08</v>
-      </c>
+      <c r="F208" t="inlineStr"/>
       <c r="G208" t="n">
         <v>367.45</v>
       </c>
@@ -7496,10 +7500,10 @@
         <v>380.39</v>
       </c>
       <c r="E209" t="n">
-        <v>392.44</v>
+        <v>398.05</v>
       </c>
       <c r="F209" t="n">
-        <v>399.63</v>
+        <v>410.1</v>
       </c>
       <c r="G209" t="n">
         <v>406.85</v>
@@ -7532,10 +7536,10 @@
         <v>370.48</v>
       </c>
       <c r="E210" t="n">
-        <v>381.83</v>
+        <v>381.12</v>
       </c>
       <c r="F210" t="n">
-        <v>400.44</v>
+        <v>399.11</v>
       </c>
       <c r="G210" t="n">
         <v>399.69</v>
@@ -7568,10 +7572,10 @@
         <v>368.97</v>
       </c>
       <c r="E211" t="n">
-        <v>390.71</v>
+        <v>391.89</v>
       </c>
       <c r="F211" t="n">
-        <v>398.51</v>
+        <v>400.71</v>
       </c>
       <c r="G211" t="n">
         <v>401.16</v>
@@ -7626,10 +7630,10 @@
         <v>366.8</v>
       </c>
       <c r="E213" t="n">
-        <v>393.78</v>
+        <v>397.57</v>
       </c>
       <c r="F213" t="n">
-        <v>410.99</v>
+        <v>418.06</v>
       </c>
       <c r="G213" t="n">
         <v>405.41</v>
@@ -7662,10 +7666,10 @@
         <v>356.06</v>
       </c>
       <c r="E214" t="n">
-        <v>368.88</v>
+        <v>366.92</v>
       </c>
       <c r="F214" t="n">
-        <v>379.72</v>
+        <v>376.05</v>
       </c>
       <c r="G214" t="n">
         <v>375.64</v>
@@ -7698,10 +7702,10 @@
         <v>367.04</v>
       </c>
       <c r="E215" t="n">
-        <v>385.2</v>
+        <v>385.66</v>
       </c>
       <c r="F215" t="n">
-        <v>399.01</v>
+        <v>399.88</v>
       </c>
       <c r="G215" t="n">
         <v>399.95</v>
@@ -7734,10 +7738,10 @@
         <v>376.23</v>
       </c>
       <c r="E216" t="n">
-        <v>398.43</v>
+        <v>400.5</v>
       </c>
       <c r="F216" t="n">
-        <v>404.36</v>
+        <v>408.23</v>
       </c>
       <c r="G216" t="n">
         <v>407.3</v>
@@ -7770,10 +7774,10 @@
         <v>367</v>
       </c>
       <c r="E217" t="n">
-        <v>381.06</v>
+        <v>379.74</v>
       </c>
       <c r="F217" t="n">
-        <v>393.97</v>
+        <v>391.5</v>
       </c>
       <c r="G217" t="n">
         <v>385.73</v>
@@ -7806,10 +7810,10 @@
         <v>369.06</v>
       </c>
       <c r="E218" t="n">
-        <v>387.03</v>
+        <v>392.28</v>
       </c>
       <c r="F218" t="n">
-        <v>404.78</v>
+        <v>414.58</v>
       </c>
       <c r="G218" t="n">
         <v>415.63</v>
@@ -7840,10 +7844,10 @@
         <v>351.6</v>
       </c>
       <c r="E219" t="n">
-        <v>357.3</v>
+        <v>355.66</v>
       </c>
       <c r="F219" t="n">
-        <v>364.13</v>
+        <v>361.06</v>
       </c>
       <c r="G219" t="n">
         <v>361.16</v>
@@ -7876,10 +7880,10 @@
         <v>368.94</v>
       </c>
       <c r="E220" t="n">
-        <v>377.92</v>
+        <v>381.56</v>
       </c>
       <c r="F220" t="n">
-        <v>390.26</v>
+        <v>397.06</v>
       </c>
       <c r="G220" t="n">
         <v>398.06</v>
@@ -7908,10 +7912,10 @@
         <v>369.37</v>
       </c>
       <c r="E221" t="n">
-        <v>387.06</v>
+        <v>391.99</v>
       </c>
       <c r="F221" t="n">
-        <v>396.21</v>
+        <v>405.41</v>
       </c>
       <c r="G221" t="n">
         <v>411.5</v>
@@ -7944,10 +7948,10 @@
         <v>375.64</v>
       </c>
       <c r="E222" t="n">
-        <v>390.89</v>
+        <v>393.89</v>
       </c>
       <c r="F222" t="n">
-        <v>403.95</v>
+        <v>409.55</v>
       </c>
       <c r="G222" t="n">
         <v>397.47</v>
@@ -7980,10 +7984,10 @@
         <v>381.26</v>
       </c>
       <c r="E223" t="n">
-        <v>391.29</v>
+        <v>394.97</v>
       </c>
       <c r="F223" t="n">
-        <v>403.59</v>
+        <v>410.46</v>
       </c>
       <c r="G223" t="n">
         <v>403.49</v>
@@ -8016,10 +8020,10 @@
         <v>363.55</v>
       </c>
       <c r="E224" t="n">
-        <v>374.75</v>
+        <v>372.29</v>
       </c>
       <c r="F224" t="n">
-        <v>395.62</v>
+        <v>391.02</v>
       </c>
       <c r="G224" t="n">
         <v>382.77</v>
@@ -8048,10 +8052,10 @@
         <v>388.97</v>
       </c>
       <c r="E225" t="n">
-        <v>397.18</v>
+        <v>402.89</v>
       </c>
       <c r="F225" t="n">
-        <v>415.96</v>
+        <v>426.63</v>
       </c>
       <c r="G225" t="n">
         <v>421.52</v>
@@ -8084,10 +8088,10 @@
         <v>373.09</v>
       </c>
       <c r="E226" t="n">
-        <v>382.23</v>
+        <v>381.62</v>
       </c>
       <c r="F226" t="n">
-        <v>400.49</v>
+        <v>399.36</v>
       </c>
       <c r="G226" t="n">
         <v>392.06</v>
@@ -8120,10 +8124,10 @@
         <v>361.12</v>
       </c>
       <c r="E227" t="n">
-        <v>388.23</v>
+        <v>386.02</v>
       </c>
       <c r="F227" t="n">
-        <v>404.55</v>
+        <v>400.42</v>
       </c>
       <c r="G227" t="n">
         <v>406.37</v>
@@ -8156,10 +8160,10 @@
         <v>373.73</v>
       </c>
       <c r="E228" t="n">
-        <v>387.58</v>
+        <v>390.97</v>
       </c>
       <c r="F228" t="n">
-        <v>390.45</v>
+        <v>396.78</v>
       </c>
       <c r="G228" t="n">
         <v>394.35</v>
@@ -8192,10 +8196,10 @@
         <v>369.36</v>
       </c>
       <c r="E229" t="n">
-        <v>378.36</v>
+        <v>379.61</v>
       </c>
       <c r="F229" t="n">
-        <v>385.36</v>
+        <v>387.69</v>
       </c>
       <c r="G229" t="n">
         <v>376.38</v>
@@ -8228,10 +8232,10 @@
         <v>378.67</v>
       </c>
       <c r="E230" t="n">
-        <v>382.61</v>
+        <v>384.97</v>
       </c>
       <c r="F230" t="n">
-        <v>385.05</v>
+        <v>389.45</v>
       </c>
       <c r="G230" t="n">
         <v>387.68</v>
@@ -8264,10 +8268,10 @@
         <v>369.96</v>
       </c>
       <c r="E231" t="n">
-        <v>375.95</v>
+        <v>379.02</v>
       </c>
       <c r="F231" t="n">
-        <v>369.55</v>
+        <v>375.28</v>
       </c>
       <c r="G231" t="n">
         <v>374.71</v>
@@ -8300,10 +8304,10 @@
         <v>383.34</v>
       </c>
       <c r="E232" t="n">
-        <v>388.62</v>
+        <v>393.12</v>
       </c>
       <c r="F232" t="n">
-        <v>391.03</v>
+        <v>399.43</v>
       </c>
       <c r="G232" t="n">
         <v>406.91</v>
@@ -8336,10 +8340,10 @@
         <v>373.12</v>
       </c>
       <c r="E233" t="n">
-        <v>380.87</v>
+        <v>382.76</v>
       </c>
       <c r="F233" t="n">
-        <v>385.58</v>
+        <v>389.11</v>
       </c>
       <c r="G233" t="n">
         <v>385.11</v>
@@ -8372,10 +8376,10 @@
         <v>378.12</v>
       </c>
       <c r="E234" t="n">
-        <v>389.71</v>
+        <v>392.78</v>
       </c>
       <c r="F234" t="n">
-        <v>392.4</v>
+        <v>398.13</v>
       </c>
       <c r="G234" t="n">
         <v>395.44</v>
@@ -11228,28 +11232,28 @@
         <v>0.0455</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.172225835773042</v>
+        <v>-2.096399578015657</v>
       </c>
       <c r="J5" t="n">
         <v>233</v>
       </c>
       <c r="K5" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5029456856973722</v>
+        <v>0.4872279043952202</v>
       </c>
       <c r="M5" t="n">
-        <v>13.06576033316896</v>
+        <v>13.23333034308413</v>
       </c>
       <c r="N5" t="n">
-        <v>282.735141930208</v>
+        <v>277.7840853703991</v>
       </c>
       <c r="O5" t="n">
-        <v>16.81472990952302</v>
+        <v>16.6668558933711</v>
       </c>
       <c r="P5" t="n">
-        <v>441.7316513805788</v>
+        <v>441.6942802567442</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11306,28 +11310,28 @@
         <v>0.0311</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.742422446502196</v>
+        <v>-1.712675514304358</v>
       </c>
       <c r="J6" t="n">
         <v>233</v>
       </c>
       <c r="K6" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4080701344023463</v>
+        <v>0.4036323496995391</v>
       </c>
       <c r="M6" t="n">
-        <v>12.82480568593883</v>
+        <v>12.97897595617561</v>
       </c>
       <c r="N6" t="n">
-        <v>269.8773133580531</v>
+        <v>263.9888550902374</v>
       </c>
       <c r="O6" t="n">
-        <v>16.42794306534002</v>
+        <v>16.24773384476239</v>
       </c>
       <c r="P6" t="n">
-        <v>440.1070074420523</v>
+        <v>442.033864525733</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11686,12 +11690,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-35.17812244422425,173.1203152694688</t>
+          <t>-35.178133627011874,173.1203091390269</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-35.1782753308286,173.1210008271932</t>
+          <t>-35.1782976043625,173.1209948180736</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -11738,12 +11742,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-35.178180331591946,173.12028353539853</t>
+          <t>-35.17820088818347,173.1202722661866</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-35.17840087256019,173.1209669575675</t>
+          <t>-35.17844198615413,173.12095586559886</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -11786,12 +11790,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-35.17832784566822,173.12020266740848</t>
+          <t>-35.17834223527684,173.1201947789323</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-35.178414870550554,173.12096318107407</t>
+          <t>-35.17844365886992,173.12095541431938</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -11838,12 +11842,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-35.178308440252295,173.12021330557766</t>
+          <t>-35.17831871854475,173.12020767095478</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-35.17838476166541,173.12097130409612</t>
+          <t>-35.17840527444397,173.12096576999107</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -11878,12 +11882,12 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-35.17828056552177,173.1202285866678</t>
+          <t>-35.178251210714855,173.120244679132</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-35.17837771865126,173.12097320421734</t>
+          <t>-35.17831899751919,173.12098904646558</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -11930,12 +11934,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-35.178243399211254,173.12024896143845</t>
+          <t>-35.17822580277092,173.1202586078942</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-35.17837569378467,173.12097375050215</t>
+          <t>-35.17834047871323,173.120983251103</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -11982,12 +11986,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-35.17828064774812,173.12022854159085</t>
+          <t>-35.17830062874985,173.1202175878901</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-35.178454575541316,173.12095246912656</t>
+          <t>-35.17849445660623,173.12094170966554</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -12022,7 +12026,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-35.178201381541655,173.12027199572546</t>
+          <t>-35.17822366488559,173.12025977989322</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -12058,12 +12062,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-35.178353993642354,173.12018833291827</t>
+          <t>-35.178365423102164,173.12018206721058</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-35.17851628994809,173.12093581927186</t>
+          <t>-35.17853917974161,173.12092964385573</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -12110,12 +12114,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-35.178331710306026,173.12020054878943</t>
+          <t>-35.17834026184484,173.12019586078063</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-35.17849982690407,173.120940260819</t>
+          <t>-35.17851681817411,173.1209356767623</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -12162,12 +12166,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-35.17827020500194,173.1202342663624</t>
+          <t>-35.17825877553927,173.1202405320555</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-35.1784216494515,173.1209613522057</t>
+          <t>-35.17839875965596,173.12096752760417</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -12214,12 +12218,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-35.17842766842774,173.1201479438652</t>
+          <t>-35.17841442999079,173.12015520127852</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-35.17860855342109,173.1209109275736</t>
+          <t>-35.17858214212222,173.12091805306545</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -12266,12 +12270,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-35.178393051147545,173.12016692131996</t>
+          <t>-35.17837455022452,173.12017706365856</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-35.17856611926732,173.12092237586162</t>
+          <t>-35.17852914344759,173.1209323515386</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -12318,12 +12322,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-35.17822391156468,173.12025964466255</t>
+          <t>-35.17820072373074,173.12027235634034</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-35.178359318776565,173.1209781682826</t>
+          <t>-35.17831292291917,173.12099068531754</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -12370,12 +12374,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-35.17819866807163,173.12027348326177</t>
+          <t>-35.1781842784576,173.12028137171026</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-35.17836750628065,173.12097595939258</t>
+          <t>-35.17833871795962,173.12098372613286</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -12418,14 +12422,10 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-35.17831436054879,173.12021006003508</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-35.17864570531393,173.12090090437394</t>
-        </is>
-      </c>
+          <t>-35.17833754837581,173.120197348322</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
@@ -12466,12 +12466,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-35.17795346897431,173.12040790204497</t>
+          <t>-35.17797024316306,173.12039870641948</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-35.178186412764695,173.12102481613607</t>
+          <t>-35.17821986708646,173.12101579059933</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -12518,12 +12518,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-35.17819809248709,173.1202737987998</t>
+          <t>-35.17818485404217,173.12028105617236</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-35.17844357083225,173.12095543807092</t>
+          <t>-35.1784171595301,173.12096256353414</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -12570,12 +12570,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-35.17811175479459,173.12032112944843</t>
+          <t>-35.17809086929272,173.12033257894274</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-35.17831899751919,173.12098904646558</t>
+          <t>-35.17827735569533,173.12100028090973</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -12622,12 +12622,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-35.17806052775449,173.1203492122528</t>
+          <t>-35.17804876937994,173.12035565822057</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-35.17818474004858,173.12102526741273</t>
+          <t>-35.17816123398512,173.12103160903524</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -12674,12 +12674,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-35.17784345001226,173.12046821443639</t>
+          <t>-35.17785611288395,173.1204612726597</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-35.17799730779315,173.12107583403193</t>
+          <t>-35.17802257461352,173.12106901740862</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -12723,7 +12723,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-35.17851452919475,173.1209362943037</t>
+          <t>-35.17848750163032,173.12094358604028</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -12768,10 +12768,14 @@
           <t>-35.17792719187591,173.1195763537521</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-35.17817054665399,173.12028889954138</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-35.17839594245033,173.12096828765294</t>
+          <t>-35.178334316075635,173.12098491370736</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -12835,7 +12839,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-35.17850132354444,173.12093985704206</t>
+          <t>-35.17841619111569,173.12096282480104</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -12860,12 +12864,12 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-35.17774280483534,173.12052338796184</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-35.178077069949225,173.12105431533917</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>-35.1782253682023,173.12177471304562</t>
@@ -12910,12 +12914,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-35.178260008934544,173.12023985590164</t>
+          <t>-35.178248826150615,173.12024598636248</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-35.17845492769201,173.12095237412035</t>
+          <t>-35.17843265416076,173.12095838326294</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -12962,12 +12966,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-35.17818452513671,173.12028123647974</t>
+          <t>-35.17817778257451,173.1202849327804</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-35.17841795186918,173.1209623497703</t>
+          <t>-35.17840448210488,173.12096598375487</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -13014,12 +13018,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-35.17826987609656,173.1202344466701</t>
+          <t>-35.178246934944475,173.1202470231314</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-35.17846320323316,173.12095014147363</t>
+          <t>-35.17841742364312,173.12096249227955</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -13066,12 +13070,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-35.17796884531402,173.12039947272174</t>
+          <t>-35.17798940191693,173.1203882035681</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-35.178185708463175,173.1210250061473</t>
+          <t>-35.17822682206378,173.1210139142368</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -13118,12 +13122,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-35.17793710591694,173.12041687228387</t>
+          <t>-35.17795445569132,173.12040736112593</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-35.17810312910735,173.1210472849404</t>
+          <t>-35.17813772792124,173.1210379506541</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -13170,12 +13174,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-35.17803191296825,173.1203648989404</t>
+          <t>-35.178012260858075,173.1203756722626</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-35.178177256844904,173.1210272862817</t>
+          <t>-35.17813790399663,173.12103790315135</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -13222,12 +13226,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-35.178127048901544,173.1203127451694</t>
+          <t>-35.17812260867701,173.12031517931524</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-35.178287920217365,173.1209974307347</t>
+          <t>-35.17827911644901,173.1209998058806</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -13274,12 +13278,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-35.17787017360462,173.12045356458046</t>
+          <t>-35.17787987632383,173.12044824555346</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-35.178032346798275,173.12106638101312</t>
+          <t>-35.17805171509219,173.12106115572288</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -13318,12 +13322,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-35.17789944621439,173.12043751734265</t>
+          <t>-35.17791145127281,173.12043093616876</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-35.17801597178594,173.1210707987566</t>
+          <t>-35.17804000607818,173.12106431464863</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -13370,12 +13374,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-35.17788546772124,173.12044518035088</t>
+          <t>-35.177901584101534,173.1204363453529</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-35.1780081364305,173.12107291262248</t>
+          <t>-35.17804044626668,173.12106419589205</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -13422,12 +13426,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-35.17801160304684,173.12037603287578</t>
+          <t>-35.178015385461435,173.1203739593498</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-35.17814010493896,173.12103730936695</t>
+          <t>-35.17814776421824,173.12103524299704</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -13470,12 +13474,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-35.17784632793769,173.12046663676006</t>
+          <t>-35.177863924395496,173.1204569903938</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-35.17804757732032,173.1210622720351</t>
+          <t>-35.178082792399536,173.12105277150198</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -13522,12 +13526,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-35.17800321595348,173.12038063069366</t>
+          <t>-35.17801645440469,173.12037337335326</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-35.17824865541006,173.12100802388153</t>
+          <t>-35.17827506671555,173.12100089844753</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -13574,12 +13578,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-35.17825713101223,173.12024143359392</t>
+          <t>-35.1782330386904,173.12025464112784</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-35.178394445809836,173.12096869142886</t>
+          <t>-35.178346289200086,173.12098168350443</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -13622,12 +13626,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-35.178101723175715,173.1203266288126</t>
+          <t>-35.178114386038835,173.12031968699205</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-35.17834954659421,173.1209808046991</t>
+          <t>-35.1783748134079,173.12097398801728</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -13690,12 +13694,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-35.178289034835394,173.1202239437418</t>
+          <t>-35.178281141106204,173.12022827112915</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-35.17850713403058,173.12093828943733</t>
+          <t>-35.17849128725011,173.1209425647224</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -13742,12 +13746,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-35.17808412672887,173.12033627523496</t>
+          <t>-35.17808733355804,173.12033451724238</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-35.17830183017125,173.12099367800312</t>
+          <t>-35.178308256922044,173.12099194414571</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -13782,12 +13786,12 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-35.17781376626594,173.1204844870344</t>
+          <t>-35.17783489846231,173.1204729023883</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-35.17799801209476,173.1210756440216</t>
+          <t>-35.178040270191275,173.12106424339467</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -13834,12 +13838,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-35.17825186852569,173.12024431851665</t>
+          <t>-35.17824331698488,173.12024900651537</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-35.17841627915335,173.1209628010495</t>
+          <t>-35.178399287882016,173.12096738509499</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -13886,12 +13890,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-35.17812318426167,173.12031486377782</t>
+          <t>-35.17810706789073,173.12032369882365</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-35.17826599883406,173.12100334484708</t>
+          <t>-35.17823368900337,173.12101206162538</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -13938,12 +13942,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-35.17821667564502,173.12026361142804</t>
+          <t>-35.17818641634315,173.12028019971237</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-35.17839682282709,173.12096805013772</t>
+          <t>-35.17833634094227,173.12098436742312</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -13990,12 +13994,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-35.17803454421305,173.1203634564868</t>
+          <t>-35.17804802934237,173.1203560639108</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-35.178248919523114,173.1210079526272</t>
+          <t>-35.17827594709239,173.12100066093302</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -14042,12 +14046,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-35.17812285535616,173.12031504408492</t>
+          <t>-35.17810114759103,173.1203269443498</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-35.17830024549296,173.12099410552958</t>
+          <t>-35.17825684291481,173.1210058149975</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -14094,12 +14098,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-35.17800231146301,173.12038112653673</t>
+          <t>-35.178005518292856,173.12037936854767</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-35.178193543817564,173.1210228922723</t>
+          <t>-35.17819997056889,173.12102115841944</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -14146,12 +14150,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-35.17815788379273,173.12029584137144</t>
+          <t>-35.178130009051195,173.12031112240533</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-35.17831767695398,173.12098940273776</t>
+          <t>-35.17826194910056,173.12100443741366</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -14230,12 +14234,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-35.17828179891697,173.1202279105136</t>
+          <t>-35.17827390518762,173.12023223790018</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-35.17849172743848,173.12094244596454</t>
+          <t>-35.17847588065781,173.12094672124803</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -14270,12 +14274,12 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-35.178089471444125,173.12033334524727</t>
+          <t>-35.17810328547705,173.12032577235433</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-35.17838370521329,173.1209715891143</t>
+          <t>-35.17841126100588,173.12096415488696</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -14322,12 +14326,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-35.17841574561187,173.12015448004502</t>
+          <t>-35.178389350963,173.12016894978805</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-35.1786330278909,173.1209043246137</t>
+          <t>-35.17858020529362,173.12091857560134</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -14374,7 +14378,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-35.178319047450096,173.1202074906468</t>
+          <t>-35.17830021761813,173.12021781327493</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -14418,12 +14422,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-35.178286732497725,173.12022520589653</t>
+          <t>-35.17829322837896,173.12022164481692</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-35.178439697174625,173.12095648313917</t>
+          <t>-35.17845263871253,173.12095299166083</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -14470,12 +14474,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-35.178400780421775,173.12016268407493</t>
+          <t>-35.17836468306521,173.12018247290393</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-35.17838793102179,173.12097044904144</t>
+          <t>-35.17831574012498,173.1209899252703</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -14518,12 +14522,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-35.17817095778584,173.12028867415725</t>
+          <t>-35.17813897172643,173.1203062090357</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-35.17831670853948,173.12098966400404</t>
+          <t>-35.17825270514359,173.12100693131526</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -14570,12 +14574,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-35.178223582659214,173.1202598249701</t>
+          <t>-35.17821239987424,173.12026595542548</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-35.178371556013836,173.12097486682316</t>
+          <t>-35.17834928248118,173.12098087595356</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -14646,12 +14650,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-35.178329161289604,173.1202019461765</t>
+          <t>-35.17835004677844,173.1201904966155</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-35.178478961976296,173.12094588994304</t>
+          <t>-35.17852060379383,173.1209346554437</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -14726,12 +14730,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-35.17819546124342,173.1202752412591</t>
+          <t>-35.17820368387983,173.12027073357336</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-35.1783244558554,173.12098757387375</t>
+          <t>-35.17834091890163,173.12098313234557</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -14802,12 +14806,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-35.17843350649608,173.12014474339023</t>
+          <t>-35.1784290662751,173.12014717755432</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-35.17867308502577,173.12089351760252</t>
+          <t>-35.17866428125996,173.12089589277073</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -14854,7 +14858,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-35.178208288556156,173.12026820926897</t>
+          <t>-35.17817778257451,173.1202849327804</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -14894,12 +14898,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-35.178315182812185,173.1202096092652</t>
+          <t>-35.17827406964034,173.1202321477463</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-35.17856726375696,173.12092206709053</t>
+          <t>-35.178485124613225,173.12094422733284</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -14936,7 +14940,11 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>-35.17796325391783,173.12040253793054</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
@@ -14982,12 +14990,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-35.178276865336144,173.1202306151303</t>
+          <t>-35.178246359359996,173.1202473386698</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-35.17850097139376,173.1209399520484</t>
+          <t>-35.17843996128765,173.12095641188452</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -15034,12 +15042,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-35.17829602407465,173.12022011220023</t>
+          <t>-35.17827924990022,173.1202293078989</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-35.178528879334586,173.1209324227934</t>
+          <t>-35.17849542502061,173.12094144839813</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -15086,12 +15094,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-35.178168573221086,173.12028998138518</t>
+          <t>-35.17814300081889,173.12030400027285</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-35.17838573007986,173.12097104282938</t>
+          <t>-35.178334668226356,173.1209848187014</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -15138,12 +15146,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-35.17811331709587,173.12032027298997</t>
+          <t>-35.17807368397732,173.12034199997896</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-35.178397879279196,173.1209677651194</t>
+          <t>-35.17831864536846,173.12098914147148</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -15190,12 +15198,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-35.178454556431824,173.1201332036458</t>
+          <t>-35.17842429714881,173.12014979202658</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-35.1786900762936,173.12088893352646</t>
+          <t>-35.178629594422134,173.12090525092847</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -15242,12 +15250,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-35.17820393055892,173.12027059834278</t>
+          <t>-35.17816577752448,173.1202915139971</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-35.1784388167979,173.12095672065465</t>
+          <t>-35.17836248813299,173.12097731322845</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -15294,12 +15302,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-35.17832694117851,173.12020316325547</t>
+          <t>-35.178353993642354,173.12018833291827</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>-35.17840219312533,173.1209666012946</t>
+          <t>-35.17845616021941,173.1209520415985</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -15342,7 +15350,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-35.17860379715395,173.1200513884904</t>
+          <t>-35.178614404343556,173.1200455735176</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -15378,12 +15386,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-35.178303588898174,173.12021596511917</t>
+          <t>-35.17829709301711,173.1202195261997</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-35.17846971802085,173.12094838385784</t>
+          <t>-35.178456776483124,173.1209518753376</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -15430,7 +15438,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-35.17809530951762,173.12033014479877</t>
+          <t>-35.17806743477153,173.12034542580932</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -15462,7 +15470,7 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-35.17837101449246,173.12017900197162</t>
+          <t>-35.178373974640245,173.1201773791979</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -15522,12 +15530,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-35.178389926547275,173.12016863424859</t>
+          <t>-35.17836024284344,173.12018490706393</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-35.17854208498461,173.12092886005266</t>
+          <t>-35.178482835633794,173.1209448448738</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -15574,12 +15582,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-35.17845800993679,173.1201313104059</t>
+          <t>-35.17844600489556,173.1201378916677</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-35.17861260315354,173.12090983499778</t>
+          <t>-35.17858856887166,173.1209163191962</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -15616,7 +15624,11 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-35.17812178641319,173.12031563008296</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
@@ -15658,12 +15670,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-35.17859705459917,173.12005508482895</t>
+          <t>-35.178605606132045,173.12005039678974</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-35.17879642577851,173.1208602414425</t>
+          <t>-35.17881341704477,173.12085565735268</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -15710,12 +15722,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-35.178409331959045,173.1201579960582</t>
+          <t>-35.17842109032247,173.1201515500336</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-35.1786068807055,173.12091137885488</t>
+          <t>-35.17863038676108,173.1209050371635</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -15790,12 +15802,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-35.178367478760386,173.12018094028454</t>
+          <t>-35.17835218466307,173.12018932461285</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-35.17863452453112,173.12090392083547</t>
+          <t>-35.17860397546265,173.12091216265918</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -15842,12 +15854,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-35.178175398009806,173.12028624000854</t>
+          <t>-35.17817918042278,173.1202841664742</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-35.178460914253705,173.12095075901425</t>
+          <t>-35.17846857353112,173.1209486926282</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -15918,12 +15930,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-35.17844995175848,173.1201357279654</t>
+          <t>-35.17841591006451,173.12015438989084</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-35.1787110292557,173.12088328062177</t>
+          <t>-35.178642976146485,173.12090164067567</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -15970,12 +15982,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-35.17837726369329,173.12017557611586</t>
+          <t>-35.17834585323549,173.12019279554355</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-35.17867537400486,173.12089290005872</t>
+          <t>-35.17861260315354,173.12090983499778</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -16042,12 +16054,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-35.178322172050954,173.12020577772117</t>
+          <t>-35.178333025927394,173.12019982755737</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>-35.178527998957904,173.12093266030942</t>
+          <t>-35.17854974426157,173.12092679366253</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -16071,7 +16083,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>-35.178202963850296,173.12102035087145</t>
+          <t>-35.17825640272638,173.1210059337547</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -16114,12 +16126,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-35.17833039468464,173.12020127002145</t>
+          <t>-35.1783321214377,173.12020032340442</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-35.17856145327109,173.12092363469753</t>
+          <t>-35.17856497477768,173.1209226846327</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -16166,12 +16178,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-35.178103367703415,173.12032572727756</t>
+          <t>-35.178108959097564,173.12032266205824</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-35.17834171124075,173.12098291858214</t>
+          <t>-35.17835289202601,173.12097990214215</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -16218,12 +16230,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>-35.178264860289225,173.12023719636295</t>
+          <t>-35.17826987609656,173.1202344466701</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>-35.17851382489339,173.12093648431645</t>
+          <t>-35.17852377314987,173.1209338003862</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -16270,12 +16282,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-35.17821536002323,173.12026433265805</t>
+          <t>-35.17824208358955,173.1202496826689</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-35.17848045861669,173.1209454861663</t>
+          <t>-35.178533897481614,173.12093106895207</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -16322,12 +16334,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>-35.17801719444232,173.12037296766337</t>
+          <t>-35.17804186236256,173.1203594446623</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>-35.17828862451883,173.12099724072303</t>
+          <t>-35.17833792562052,173.1209839398963</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -16374,12 +16386,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-35.17825910444467,173.1202403517478</t>
+          <t>-35.178261160103446,173.1202392248247</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>-35.178442954568524,173.12095560433178</t>
+          <t>-35.178447092339155,173.1209544880088</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -16418,12 +16430,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-35.178391735526375,173.12016764255307</t>
+          <t>-35.17834914228879,173.12019099246277</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>-35.178653540665614,173.12089879047522</t>
+          <t>-35.1785684082466,173.12092175831938</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -16470,12 +16482,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-35.17828697917677,173.1202250706657</t>
+          <t>-35.17824940173508,173.1202456708241</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>-35.17842314609196,173.12096094842954</t>
+          <t>-35.17834804995366,173.12098120847452</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -16522,12 +16534,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>-35.17827431631936,173.1202320125155</t>
+          <t>-35.17824027460975,173.12025067436082</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>-35.178289945084074,173.12099688445107</t>
+          <t>-35.17822189195328,173.1210152443166</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -16574,12 +16586,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-35.17827135617082,173.12023363528527</t>
+          <t>-35.17829487290583,173.1202207432777</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>-35.17845686452079,173.12095185158606</t>
+          <t>-35.17850378859917,173.12093919199765</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -16622,12 +16634,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>-35.17852921791332,173.1200922735668</t>
+          <t>-35.17853538488526,173.120088892775</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>-35.178758393513355,173.1208705021963</t>
+          <t>-35.17877071878459,173.12086717695308</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -16666,12 +16678,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>-35.178491640495494,173.12011287384718</t>
+          <t>-35.17849747856284,173.1201096733672</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>-35.17871058906743,173.1208833993803</t>
+          <t>-35.17872229807552,173.12088024040293</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -16714,12 +16726,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>-35.178329736873955,173.1202016306375</t>
+          <t>-35.178337055017806,173.12019761878406</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>-35.17835315613905,173.12097983088765</t>
+          <t>-35.17836785843136,173.12097586438657</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -16762,12 +16774,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-35.17838581523108,173.12017088810182</t>
+          <t>-35.17836764321304,173.12018085013045</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>-35.1784404895137,173.1209562693752</t>
+          <t>-35.17840412995418,173.120966078761</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -16814,12 +16826,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>-35.17834947119412,173.12019081215468</t>
+          <t>-35.17835563816896,173.1201874313777</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>-35.17850625365391,173.1209385269532</t>
+          <t>-35.178518578927466,173.1209352017304</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -16866,12 +16878,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>-35.178315593943864,173.12020938388028</t>
+          <t>-35.1782800721637,173.12022885712946</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>-35.17848098684272,173.12094534365687</t>
+          <t>-35.17840994044075,173.12096451115997</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -16918,12 +16930,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-35.17822942073068,173.12025662451111</t>
+          <t>-35.178244139248434,173.1202485557463</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>-35.178430101068216,173.12095907205776</t>
+          <t>-35.17845941761328,173.1209511627908</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -16970,12 +16982,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>-35.17838589745742,173.12017084302474</t>
+          <t>-35.17835415809501,173.12018824276424</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>-35.17866313677041,173.12089620154254</t>
+          <t>-35.17859974965485,173.12091330273807</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -17022,12 +17034,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>-35.178293063926276,173.12022173497084</t>
+          <t>-35.17825606206966,173.1202420195939</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>-35.17849155136314,173.12094249346768</t>
+          <t>-35.17841759971847,173.12096244477647</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -17074,12 +17086,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>-35.17831756737602,173.12020830203264</t>
+          <t>-35.17828023661638,173.12022876697557</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>-35.178480106466004,173.1209455811726</t>
+          <t>-35.178405538557,173.1209656987365</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -17126,12 +17138,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>-35.17828558132889,173.12022583697387</t>
+          <t>-35.17830819357328,173.12021344080858</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>-35.17839955199506,173.12096731384042</t>
+          <t>-35.178444715321994,173.12095512930074</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -17178,12 +17190,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-35.17829429732142,173.12022105881644</t>
+          <t>-35.17829602407465,173.12022011220023</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>-35.17839233290561,173.1209692614654</t>
+          <t>-35.17839585441265,173.12096831140448</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -17230,12 +17242,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>-35.178211330931546,173.1202665414248</t>
+          <t>-35.17820072373074,173.12027235634034</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>-35.178357117834594,173.12097876207014</t>
+          <t>-35.17833598879155,173.12098446242905</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -17282,12 +17294,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>-35.1783092625157,173.12021285480787</t>
+          <t>-35.178273987413974,173.12023219282324</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>-35.17847332756537,173.12094741004356</t>
+          <t>-35.17840289742673,173.12096641128238</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -17334,12 +17346,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>-35.178513841596185,173.12010070300548</t>
+          <t>-35.178521488641685,173.12009651082514</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>-35.17865618179538,173.12089807792503</t>
+          <t>-35.17867141231027,173.12089396888453</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -17410,12 +17422,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>-35.17830062874985,173.1202175878901</t>
+          <t>-35.178304740066956,173.12021533404155</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>-35.17851012731132,173.1209374818833</t>
+          <t>-35.17851831481446,173.12093527298518</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -17462,12 +17474,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>-35.17832060975053,173.12020663418403</t>
+          <t>-35.178326776725854,173.12020325340944</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>-35.178444011020616,173.12095531931317</t>
+          <t>-35.17845633629476,173.1209519940954</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -17510,12 +17522,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>-35.17835111572075,173.1201899106142</t>
+          <t>-35.17833820618649,173.12019698770592</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>-35.17855564278516,173.12092520230433</t>
+          <t>-35.17852984774892,173.12093216152581</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -17550,12 +17562,12 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>-35.178390502131535,173.12016831870912</t>
+          <t>-35.178355884847946,173.12018729614664</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>-35.17859842908992,173.12091365901267</t>
+          <t>-35.17852914344759,173.1209323515386</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -17602,12 +17614,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>-35.17841591006451,173.12015438989084</t>
+          <t>-35.17840390502195,173.12016097114585</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>-35.17857236994152,173.12092068949627</t>
+          <t>-35.17854833565891,173.12092717368833</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -17646,7 +17658,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>-35.17804391802252,173.1203583177452</t>
+          <t>-35.17807064160083,173.12034366781748</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -17694,12 +17706,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>-35.17814250746064,173.1203042707336</t>
+          <t>-35.178151059003696,173.12029958274647</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>-35.17836116756783,173.120977669501</t>
+          <t>-35.17837815883964,173.12097308545978</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -17742,12 +17754,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>-35.17845496756337,173.1201329782601</t>
+          <t>-35.178418541306655,173.12015294742372</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>-35.178766140826724,173.12086841204354</t>
+          <t>-35.178693333686894,173.12088805471373</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -17794,12 +17806,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>-35.178319211902775,173.12020740049286</t>
+          <t>-35.17828484129178,173.12022624266643</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>-35.17858381483783,173.12091760178444</t>
+          <t>-35.17851514545842,173.1209361280426</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -17846,12 +17858,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>-35.17827341182954,173.12023250836182</t>
+          <t>-35.17823608106559,173.1202529732827</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>-35.178502115883454,173.12093964327778</t>
+          <t>-35.17842754797567,173.1209597608525</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -17898,12 +17910,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>-35.17829043268326,173.12022317743353</t>
+          <t>-35.17825400641085,173.12024314651686</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>-35.17851356078039,173.12093655557123</t>
+          <t>-35.1784407536267,173.12095619812055</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -17950,12 +17962,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>-35.178153690247676,173.1202981402887</t>
+          <t>-35.17815928164106,173.12029507506563</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>-35.17824469371419,173.1210090926962</t>
+          <t>-35.178255874500266,173.12100607626337</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -18002,12 +18014,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>-35.178263380214915,173.12023800774767</t>
+          <t>-35.17822900959889,173.12025684989558</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>-35.178505637390224,173.12093869321433</t>
+          <t>-35.17843696800675,173.12095721943717</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -18054,12 +18066,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>-35.17842191258565,173.12015109926259</t>
+          <t>-35.17841253878548,173.12015623805166</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>-35.17860309508603,173.12091240017563</t>
+          <t>-35.17858434306382,173.12091745927464</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -18106,12 +18118,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>-35.17815845937734,173.12029552583374</t>
+          <t>-35.17818633411678,173.12028024478923</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>-35.178540324231285,173.12092933508484</t>
+          <t>-35.178596052073026,173.12091430030696</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -18158,12 +18170,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>-35.178260008934544,173.12023985590164</t>
+          <t>-35.17822539163912,173.12025883327863</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>-35.178415574851954,173.1209629910618</t>
+          <t>-35.178346289200086,173.12098168350443</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -18210,12 +18222,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>-35.178277934278654,173.12023002913006</t>
+          <t>-35.178276783109816,173.12023066020723</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>-35.17828378244624,173.12099854705335</t>
+          <t>-35.17828140542879,173.12099918834272</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -18258,12 +18270,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>-35.17821305768513,173.1202655948105</t>
+          <t>-35.17822128032117,173.12026108712283</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>-35.178257723291665,173.12100557748303</t>
+          <t>-35.1782741863387,173.1210011359621</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -18310,12 +18322,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>-35.17839206443166,173.12016746224478</t>
+          <t>-35.178410894259095,173.12015713959352</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>-35.17849014276041,173.12094287349296</t>
+          <t>-35.178527734844906,173.12093273156424</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -18362,12 +18374,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>-35.178379483804086,173.1201743590354</t>
+          <t>-35.178348320025464,173.12019144323298</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>-35.178489878647405,173.1209429447477</t>
+          <t>-35.17842763601335,173.12095973710095</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -18410,12 +18422,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>-35.178398066953186,173.12016417161848</t>
+          <t>-35.178360489522426,173.1201847718328</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>-35.17847121466126,173.12094798008118</t>
+          <t>-35.178396118525676,173.1209682401499</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -18462,12 +18474,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>-35.17864252572851,173.12003015707074</t>
+          <t>-35.17864425248015,173.12002921044646</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>-35.178776793382525,173.12086553808282</t>
+          <t>-35.17878031488854,173.12086458801298</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -18514,12 +18526,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>-35.178559559414296,173.1200756400662</t>
+          <t>-35.1785269978034,173.1200934906517</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>-35.17874113813345,173.12087515753515</t>
+          <t>-35.17867599026847,173.1208927337969</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -18552,10 +18564,14 @@
           <t>-35.17823815482182,173.119311525481</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>-35.178201628220734,173.12027186049488</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>-35.17839576637498,173.120968335156</t>
+          <t>-35.17844506747269,173.12095503429455</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -18598,7 +18614,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>-35.17867278499421,173.12001356860148</t>
+          <t>-35.17868043203653,173.12000937640482</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -18627,7 +18643,7 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>-35.17854375770027,173.1209284087721</t>
+          <t>-35.178602478822384,173.12091256643714</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -18674,12 +18690,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>-35.17851236152285,173.12010151439512</t>
+          <t>-35.17848859812233,173.12011454170272</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>-35.17865424496688,173.12089860046183</t>
+          <t>-35.17860670463018,173.12091142635816</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -18726,12 +18742,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>-35.178622544744684,173.120041110863</t>
+          <t>-35.17864071675059,173.1200311487723</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>-35.17877309580117,173.12086653565603</t>
+          <t>-35.17880945535059,173.12085672618207</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -18810,12 +18826,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>-35.17857526463472,173.12006703030903</t>
+          <t>-35.1785432786092,173.12008456536074</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>-35.17876147483118,173.12086967088558</t>
+          <t>-35.17869747145672,173.12088693838396</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -18862,12 +18878,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>-35.17825959780278,173.12024008128625</t>
+          <t>-35.17828015439004,173.12022881205255</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>-35.17852764680725,173.12093275531583</t>
+          <t>-35.17856876039726,173.12092166331288</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -18914,12 +18930,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>-35.17815237462569,173.12029886151763</t>
+          <t>-35.1781814827611,173.1202829043228</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>-35.17845211048649,173.12095313417018</t>
+          <t>-35.178510215348986,173.1209374581317</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -18966,12 +18982,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>-35.178385075194164,173.12017129379538</t>
+          <t>-35.178394448995014,173.12016615500974</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>-35.17862739348062,173.1209058447199</t>
+          <t>-35.17864614550223,173.1209007856156</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -19018,12 +19034,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>-35.17845504978967,173.12013293318296</t>
+          <t>-35.17845472088444,173.1201331134915</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>-35.17866155209255,173.12089662907275</t>
+          <t>-35.17866093582894,173.1208967953345</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -19070,12 +19086,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>-35.17839329782651,173.12016678608873</t>
+          <t>-35.17835662488493,173.12018689045334</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>-35.178522452584865,173.12093415666016</t>
+          <t>-35.17844911720563,173.1209539417231</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -19118,12 +19134,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>-35.17828566355523,173.12022579189693</t>
+          <t>-35.17824775720801,173.1202465723623</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>-35.178403425652775,173.1209662687732</t>
+          <t>-35.1783277132496,173.12098669506886</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -19170,12 +19186,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>-35.178350951268094,173.12019000076825</t>
+          <t>-35.17832365212502,173.1202049663353</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>-35.17834646527544,173.12098163600146</t>
+          <t>-35.178291881913104,173.12099636191886</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -19222,12 +19238,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>-35.17839634020042,173.12016511823705</t>
+          <t>-35.17839107771579,173.12016800316962</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>-35.178497714,173.120940830857</t>
+          <t>-35.17848714947963,173.1209436810466</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -19274,12 +19290,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>-35.178347251083146,173.12019202923426</t>
+          <t>-35.17834371535085,173.12019396754602</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>-35.17850299626016,173.12093940576193</t>
+          <t>-35.17849595324661,173.12094130588866</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -19326,12 +19342,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>-35.178426106127745,173.12014880033024</t>
+          <t>-35.17844427814302,173.12013883828737</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>-35.17846892568181,173.12094859762192</t>
+          <t>-35.17850528523954,173.12093878822068</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -19378,7 +19394,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>-35.178498218599536,173.12010926767252</t>
+          <t>-35.17851203261767,173.12010169470392</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -19414,12 +19430,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>-35.178635536495605,173.1200339886448</t>
+          <t>-35.17863816773624,173.12003254616994</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>-35.1788367470214,173.12084936313298</t>
+          <t>-35.17884202928019,173.12084793802612</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -19466,12 +19482,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>-35.178479799907926,173.12011936496003</t>
+          <t>-35.17844452482196,173.120138703056</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>-35.17863698958561,173.12090325578887</t>
+          <t>-35.17856655945565,173.1209222571035</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -19518,12 +19534,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>-35.178275714167285,173.12023124620748</t>
+          <t>-35.178230489673325,173.12025603851154</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>-35.17852086790684,173.12093458418892</t>
+          <t>-35.17843045321891,173.12095897705154</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -19570,12 +19586,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>-35.17839724468996,173.12016462238924</t>
+          <t>-35.178393462279146,173.12016669593459</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>-35.178488822195355,173.12094322976662</t>
+          <t>-35.17848116291806,173.1209452961537</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -19622,12 +19638,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>-35.17850479670348,173.12010566149735</t>
+          <t>-35.17850446779827,173.12010584180612</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>-35.178554146144855,173.1209256060818</t>
+          <t>-35.17855352988119,173.12092577234313</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -19666,12 +19682,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-35.178391159942116,173.12016795809254</t>
+          <t>-35.1784182124014,173.1201531277321</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>-35.178568320208946,173.120921782071</t>
+          <t>-35.178622287296285,173.12090722231602</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -19718,12 +19734,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>-35.17841574561187,173.12015448004502</t>
+          <t>-35.17843367094869,173.12014465323603</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>-35.17854296536128,173.12092862253658</t>
+          <t>-35.178578796691,173.12091895562745</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -19766,12 +19782,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>-35.178529053460736,173.12009236372123</t>
+          <t>-35.1785032344038,173.120106517964</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>-35.17862466431314,173.1209065810213</t>
+          <t>-35.17857298620516,173.12092052323487</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
@@ -19810,12 +19826,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>-35.17848226669703,173.120118012645</t>
+          <t>-35.178462861288956,173.12012865085435</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>-35.17864500101265,173.12090109438728</t>
+          <t>-35.178606264441875,173.1209115451164</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -19862,12 +19878,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>-35.17854788328141,173.12008204103537</t>
+          <t>-35.178547554376266,173.12008222134432</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>-35.17873242240574,173.1208775089556</t>
+          <t>-35.17873180614216,173.12087767521763</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -19914,12 +19930,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>-35.17838022384101,173.12017395334186</t>
+          <t>-35.178348484478136,173.12019135307892</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>-35.178510391424325,173.12093741062853</t>
+          <t>-35.17844700430149,173.12095451176037</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -19966,12 +19982,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>-35.17832562555712,173.1202038844874</t>
+          <t>-35.17828508797081,173.1202261074356</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>-35.17843018910589,173.12095904830622</t>
+          <t>-35.1783491944435,173.12098089970507</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -20018,12 +20034,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>-35.17852716225598,173.1200934004973</t>
+          <t>-35.17853916729467,173.12008681922242</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>-35.1786325877026,173.120904443372</t>
+          <t>-35.17865662198367,173.12089795916665</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -20070,12 +20086,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>-35.17838260840443,173.1201726461072</t>
+          <t>-35.17835292470004,173.12018891891964</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>-35.17852606212923,173.12093318284462</t>
+          <t>-35.178466812777685,173.12094916765952</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -20122,12 +20138,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>-35.17849361392672,173.12011179199484</t>
+          <t>-35.17848243114964,173.12011792249066</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>-35.17866745061565,173.12089503771023</t>
+          <t>-35.178645177087965,173.12090104688397</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -20174,12 +20190,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>-35.17850405666679,173.12010606719207</t>
+          <t>-35.17849616294203,173.1201103946022</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>-35.17867026782073,173.12089427765642</t>
+          <t>-35.1786544210422,173.1208985529585</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -20218,12 +20234,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>-35.17853324700167,173.1200900647829</t>
+          <t>-35.178541798535974,173.12008537675098</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>-35.17862378393653,173.12090681853786</t>
+          <t>-35.17864077520499,173.1209022344673</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -20270,12 +20286,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>-35.178408920827444,173.12015822144363</t>
+          <t>-35.178388693152414,173.12016931040458</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>-35.17841980066034,173.120961850988</t>
+          <t>-35.17837930332944,173.1209727766901</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -20322,12 +20338,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>-35.178529300139616,173.12009222848957</t>
+          <t>-35.17853661827964,173.12008821661658</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>-35.17859297075482,173.12091513161434</t>
+          <t>-35.178607673044475,173.12091116509006</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -20402,12 +20418,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>-35.17860988189842,173.12004805276976</t>
+          <t>-35.17858315835784,173.12006270289055</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>-35.1788466072378,173.1208467029334</t>
+          <t>-35.17879316838548,173.12086112025744</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -20450,12 +20466,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>-35.178656504193945,173.12002249392071</t>
+          <t>-35.178682323240515,173.12000833962492</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>-35.17867775102162,173.12089225876318</t>
+          <t>-35.17872942912552,173.120878316514</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -20502,12 +20518,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>-35.178578224780914,173.1200654075272</t>
+          <t>-35.178549445580906,173.12008118456777</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>-35.17870389820561,173.12088520450982</t>
+          <t>-35.17864640961521,173.1209007143606</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -20554,12 +20570,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>-35.17860001474519,173.12005346204626</t>
+          <t>-35.17859532784732,173.12005603145212</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>-35.17875566434615,173.12087123850003</t>
+          <t>-35.17874624431732,173.1208737799351</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -20598,12 +20614,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>-35.17869416382181,173.12000184847992</t>
+          <t>-35.178665384630534,173.1200176255652</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>-35.178935877408065,173.12082261859726</t>
+          <t>-35.17887838882772,173.1208381285357</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -20650,12 +20666,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>-35.17858759857702,173.1200602687173</t>
+          <t>-35.178603139343736,173.12005174910882</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>-35.17869791164502,173.12088681962547</t>
+          <t>-35.17872898893725,173.12087843527257</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -20694,12 +20710,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>-35.1783821972728,173.12017287149249</t>
+          <t>-35.17834371535085,173.12019396754602</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>-35.17847447205509,173.12094710127315</t>
+          <t>-35.178397615166176,173.12096783637398</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -20746,12 +20762,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>-35.17861974905138,173.12004264349196</t>
+          <t>-35.17864532142164,173.12002862444095</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>-35.17869174900907,173.12088848224428</t>
+          <t>-35.17874281084885,173.1208747062524</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -20814,12 +20830,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>-35.17859072317567,173.1200585557804</t>
+          <t>-35.178599274708695,173.12005386774194</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>-35.17866753865332,173.12089501395857</t>
+          <t>-35.17868452992121,173.1208904298831</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -20862,12 +20878,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>-35.178563095144604,173.12007370174422</t>
+          <t>-35.17857164667825,173.1200690137089</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>-35.178635757058366,173.1209035883122</t>
+          <t>-35.17865274832668,173.12089900424027</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -20910,12 +20926,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>-35.17849361392672,173.12011179199484</t>
+          <t>-35.17847807315554,173.1201203115805</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>-35.17867106015963,173.12089406389126</t>
+          <t>-35.17863998286605,173.1209024482323</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -20962,12 +20978,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>-35.178539742878705,173.1200865036818</t>
+          <t>-35.178550021164945,173.12008086902705</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>-35.17853143242693,173.12093173399697</t>
+          <t>-35.1785519452032,173.12092619987217</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -21014,12 +21030,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>-35.17853489152751,173.12008916323833</t>
+          <t>-35.17853250696504,173.1200904704779</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>-35.178715078987835,173.12088218804323</t>
+          <t>-35.17871041299211,173.1208834468837</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -21090,12 +21106,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>-35.17882506800154,173.11993008514054</t>
+          <t>-35.178852696013635,173.11991493907976</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>-35.17892055885857,173.12082675141605</t>
+          <t>-35.178975758458535,173.12081185901005</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -21134,12 +21150,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>-35.17852535327752,173.12009439219605</t>
+          <t>-35.178484240128306,173.12011693079293</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>-35.17868400169529,173.12089057239325</t>
+          <t>-35.17860186255876,173.12091273269863</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -21186,12 +21202,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>-35.17854985671235,173.12008095918156</t>
+          <t>-35.178544594229834,173.12008384412496</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>-35.17874395533834,173.12087439747998</t>
+          <t>-35.17873339081994,173.12087724768668</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -21238,12 +21254,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>-35.17855577700511,173.1200777136198</t>
+          <t>-35.17852609331417,173.1200939865011</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>-35.178833401590815,173.12085026570057</t>
+          <t>-35.178774152252984,173.12086625063512</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -21290,12 +21306,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>-35.178477990929245,173.12012035665768</t>
+          <t>-35.1785032344038,173.120106517964</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>-35.17869078059484,173.12088874351292</t>
+          <t>-35.1787412261711,173.12087513378344</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -21342,12 +21358,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>-35.17853324700167,173.1200900647829</t>
+          <t>-35.178551419011846,173.1200801027139</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>-35.178659791339385,173.1208971041063</t>
+          <t>-35.17869615089189,173.12088729465944</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -21394,12 +21410,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>-35.17858496733603,173.12006171119037</t>
+          <t>-35.17855092565411,173.1200803731774</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>-35.178783484243965,173.12086373295008</t>
+          <t>-35.17871543113846,173.12088209303639</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -21446,12 +21462,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>-35.178383512894015,173.12017215025955</t>
+          <t>-35.17835415809501,173.12018824276424</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>-35.178504845051194,173.1209389069786</t>
+          <t>-35.17844612392476,173.1209547492759</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -21485,11 +21501,7 @@
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>-35.178937550123244,173.12082216731235</t>
-        </is>
-      </c>
+      <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr">
         <is>
           <t>-35.179002522433564,173.12171118795345</t>
@@ -21530,12 +21542,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>-35.17848818699082,173.1201147670886</t>
+          <t>-35.17844205803261,173.12014005536977</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>-35.17864218380754,173.12090185444063</t>
+          <t>-35.178550008374565,173.1209267224077</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -21582,12 +21594,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>-35.17857542908729,173.1200669401545</t>
+          <t>-35.178581267153355,173.12006373966798</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>-35.17863505275709,173.12090377832547</t>
+          <t>-35.17864676176584,173.1209006193539</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -21634,12 +21646,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>-35.178502412140794,173.12010696873588</t>
+          <t>-35.1784927094374,173.12011228784382</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>-35.1786520440254,173.12089919425367</t>
+          <t>-35.17863267574026,173.12090441962036</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -21710,12 +21722,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>-35.17847716866619,173.12012080742932</t>
+          <t>-35.17844600489556,173.1201378916677</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>-35.178542173022265,173.1209288363011</t>
+          <t>-35.17847993039067,173.12094562867574</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -21762,12 +21774,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>-35.17868191210921,173.12000856501186</t>
+          <t>-35.17869802845589,173.1199997298419</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>-35.178817466776586,173.1208545647714</t>
+          <t>-35.17884977659307,173.12084584786908</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -21814,12 +21826,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>-35.178547718828845,173.12008213118986</t>
+          <t>-35.17854393641952,173.12008420474282</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>-35.178647642142444,173.12090038183723</t>
+          <t>-35.17863998286605,173.1209024482323</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -21866,12 +21878,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>-35.17843893343273,173.12014176830044</t>
+          <t>-35.17842191258565,173.12015109926259</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>-35.178600541993816,173.12091308897325</t>
+          <t>-35.17856647141798,173.12092228085513</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -21918,12 +21930,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>-35.17858176051106,173.1200634692043</t>
+          <t>-35.1785926143801,173.12005751900276</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>-35.178692013122046,173.12088841098918</t>
+          <t>-35.17871375842301,173.12088254431882</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -21970,12 +21982,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>-35.178532671417614,173.12009038032343</t>
+          <t>-35.17848950261164,173.1201140458538</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>-35.17859684441199,173.1209140865422</t>
+          <t>-35.17851056749966,173.12093736312534</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -22018,12 +22030,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>-35.17877713010676,173.11995636533482</t>
+          <t>-35.178790615209834,173.1199489726246</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>-35.17895471746298,173.12081753570305</t>
+          <t>-35.17898174501788,173.12081024388348</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -22070,12 +22082,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>-35.17860757956268,173.1200493149344</t>
+          <t>-35.17857764919693,173.1200657230681</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>-35.1787246750922,173.12087959910664</t>
+          <t>-35.178664809485916,173.12089575026064</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -22114,12 +22126,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>-35.17853242473875,173.12009051555512</t>
+          <t>-35.1784918871744,173.12011273861563</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>-35.17867229268685,173.12089373136766</t>
+          <t>-35.17859129803922,173.12091558289544</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -22166,12 +22178,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>-35.17850093206743,173.12010778012535</t>
+          <t>-35.178476264176844,173.1201213032781</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>-35.17860415153799,173.12091211515587</t>
+          <t>-35.17855485044618,173.12092541606887</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -22218,12 +22230,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>-35.17849764301543,173.12010958321284</t>
+          <t>-35.178467383735835,173.12012617161108</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>-35.178607320893825,173.12091126009665</t>
+          <t>-35.17854683901859,173.12092757746572</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -22270,12 +22282,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>-35.17863364529138,173.12003502542353</t>
+          <t>-35.17865387295343,173.1200239363962</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>-35.17867748690864,173.12089233001822</t>
+          <t>-35.178717984230445,173.1208814042368</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -22314,12 +22326,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>-35.178449211721684,173.1201361336596</t>
+          <t>-35.17840226049554,173.12016187268748</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>-35.17849841830135,173.12094064084434</t>
+          <t>-35.17840448210488,173.12096598375487</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -22366,12 +22378,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>-35.17857214003595,173.12006874324527</t>
+          <t>-35.17857715583923,173.12006599353177</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>-35.178634612568786,173.1209038970838</t>
+          <t>-35.17864456082436,173.12090121314563</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -22418,12 +22430,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>-35.1785228042624,173.12009578958973</t>
+          <t>-35.17854097627306,173.1200858275233</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>-35.178598869278225,173.1209135402545</t>
+          <t>-35.178635228832405,173.12090373082216</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -22470,12 +22482,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>-35.17852814897151,173.12009285957066</t>
+          <t>-35.178500274257026,173.12010814074284</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>-35.17872300237676,173.12088005038922</t>
+          <t>-35.178667274540345,173.1208950852136</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -22522,12 +22534,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>-35.178603961606505,173.1200512983358</t>
+          <t>-35.17859368332172,173.12005693299795</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>-35.17876781354211,173.1208679607605</t>
+          <t>-35.178747300769146,173.12087349491438</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -22574,12 +22586,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>-35.17856901543715,173.1200704561814</t>
+          <t>-35.17854961003349,173.12008109441328</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>-35.178770542709294,173.12086722445653</t>
+          <t>-35.17873180614216,173.12087767521763</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -22626,12 +22638,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>-35.17862377813878,173.12004043470316</t>
+          <t>-35.17859853467218,173.1200542734376</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>-35.17890700106174,173.12083040919694</t>
+          <t>-35.17885655549179,173.12084401898136</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -22678,12 +22690,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>-35.1785195974369,173.12009754760098</t>
+          <t>-35.17848259560224,173.12011783233632</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>-35.178717896192786,173.1208814279885</t>
+          <t>-35.17864394456074,173.12090137940731</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -22730,12 +22742,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>-35.178583322810404,173.120062612736</t>
+          <t>-35.17856778204287,173.12007113234037</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>-35.17876587671377,173.12086848329872</t>
+          <t>-35.1787347994224,173.12087686765915</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -22782,12 +22794,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>-35.17851063477061,173.12010246101636</t>
+          <t>-35.178485391296554,173.12011629971252</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>-35.178705835034044,173.12088468197234</t>
+          <t>-35.17865538945644,173.12089829169008</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
